--- a/lombardia/COVID-19_lombardia.xlsx
+++ b/lombardia/COVID-19_lombardia.xlsx
@@ -5,31 +5,33 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\tmp\parse_COVID-19\old\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\tmp\parse_COVID-19\lombardia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1A5AF36-AFBF-4A7B-BC5E-0B3306A42E59}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67EADBA1-3CC2-43C5-A63B-50B1A32E7154}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="934" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="934" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="32" r:id="rId1"/>
-    <sheet name="Lombardia 25-03" sheetId="36" r:id="rId2"/>
-    <sheet name="g Lombardia 25-03 (X^2)" sheetId="37" r:id="rId3"/>
-    <sheet name="g Lombardia 25-03 (EXP)" sheetId="38" r:id="rId4"/>
-    <sheet name="Lombardia 24-03" sheetId="33" r:id="rId5"/>
-    <sheet name="g Lombardia 24-03 (X^2)" sheetId="34" r:id="rId6"/>
-    <sheet name="g Lombardia 24-03 (EXP)" sheetId="35" r:id="rId7"/>
-    <sheet name="Lombardia 23-03" sheetId="28" r:id="rId8"/>
-    <sheet name="g Lombardia 23-03 (EXP)" sheetId="29" r:id="rId9"/>
-    <sheet name="Lombardia 22-03" sheetId="30" r:id="rId10"/>
-    <sheet name="g Lombardia 22-03 (EXP)" sheetId="31" r:id="rId11"/>
-    <sheet name="Lombardia 21-03" sheetId="12" r:id="rId12"/>
-    <sheet name="g Lombardia 21-03 (EXP)" sheetId="22" r:id="rId13"/>
-    <sheet name="Lombardia 20-03" sheetId="23" r:id="rId14"/>
-    <sheet name="g Lombardia 20-03 (LN)" sheetId="25" r:id="rId15"/>
-    <sheet name="Lombardia 19-03" sheetId="26" r:id="rId16"/>
-    <sheet name="g Lombardia 19-03 (EXP)" sheetId="27" r:id="rId17"/>
+    <sheet name="Lombardia 26-03" sheetId="39" r:id="rId2"/>
+    <sheet name="g Lombardia 26-03 (X^a)" sheetId="40" r:id="rId3"/>
+    <sheet name="Lombardia 25-03" sheetId="36" r:id="rId4"/>
+    <sheet name="g Lombardia 25-03 (X^2)" sheetId="37" r:id="rId5"/>
+    <sheet name="g Lombardia 25-03 (EXP)" sheetId="38" r:id="rId6"/>
+    <sheet name="Lombardia 24-03" sheetId="33" r:id="rId7"/>
+    <sheet name="g Lombardia 24-03 (X^2)" sheetId="34" r:id="rId8"/>
+    <sheet name="g Lombardia 24-03 (EXP)" sheetId="35" r:id="rId9"/>
+    <sheet name="Lombardia 23-03" sheetId="28" r:id="rId10"/>
+    <sheet name="g Lombardia 23-03 (EXP)" sheetId="29" r:id="rId11"/>
+    <sheet name="Lombardia 22-03" sheetId="30" r:id="rId12"/>
+    <sheet name="g Lombardia 22-03 (EXP)" sheetId="31" r:id="rId13"/>
+    <sheet name="Lombardia 21-03" sheetId="12" r:id="rId14"/>
+    <sheet name="g Lombardia 21-03 (EXP)" sheetId="22" r:id="rId15"/>
+    <sheet name="Lombardia 20-03" sheetId="23" r:id="rId16"/>
+    <sheet name="g Lombardia 20-03 (LN)" sheetId="25" r:id="rId17"/>
+    <sheet name="Lombardia 19-03" sheetId="26" r:id="rId18"/>
+    <sheet name="g Lombardia 19-03 (EXP)" sheetId="27" r:id="rId19"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="85">
   <si>
     <t>Data</t>
   </si>
@@ -288,6 +290,18 @@
   <si>
     <t>y = 0.1068x2 - 1.947x + 12.832</t>
   </si>
+  <si>
+    <t>26/03/2020</t>
+  </si>
+  <si>
+    <t>Estimated days from peak since 16/03/2020</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>(1/a)^-d</t>
+  </si>
 </sst>
 </file>
 
@@ -296,7 +310,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -315,6 +329,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -340,7 +362,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -357,6 +379,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -375,6 +398,1263 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>LOMBARDIA</a:t>
+            </a:r>
+            <a:endParaRPr lang="it-IT">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>totale deceduti(i) / totale deceduti(i-10)</a:t>
+            </a:r>
+            <a:endParaRPr lang="it-IT">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>total deceased(i) / total deceased (i-10)</a:t>
+            </a:r>
+            <a:endParaRPr lang="it-IT" sz="1400">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.5685192034608806E-2"/>
+                  <c:y val="-0.1040320142560604"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1400" b="1" baseline="0">
+                        <a:solidFill>
+                          <a:srgbClr val="FF0000"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>y = 10.569x</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1400" b="1" baseline="30000">
+                        <a:solidFill>
+                          <a:srgbClr val="FF0000"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>-0.468</a:t>
+                    </a:r>
+                    <a:br>
+                      <a:rPr lang="en-US" sz="1400" b="1" baseline="0">
+                        <a:solidFill>
+                          <a:srgbClr val="FF0000"/>
+                        </a:solidFill>
+                      </a:rPr>
+                    </a:br>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1400" b="1" baseline="0">
+                        <a:solidFill>
+                          <a:srgbClr val="FF0000"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>R² = 0.9881</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US" sz="1400" b="1">
+                      <a:solidFill>
+                        <a:srgbClr val="FF0000"/>
+                      </a:solidFill>
+                    </a:endParaRPr>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="it-IT"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Lombardia 26-03'!$M$24:$M$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Lombardia 26-03'!$W$24:$W$33</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10.64935064935065</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.3370786516853936</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.5105105105105103</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.4465811965811968</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0162074554294973</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.645161290322581</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.2426966292134836</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.325051759834369</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.6732348111658455</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.4232394366197183</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3B84-486D-A11B-5579E9B4CA33}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="211547168"/>
+        <c:axId val="202768784"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="211547168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT" sz="1400"/>
+                  <a:t>Giorni trascorsi dal 16/3/2020</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1400">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT" sz="1200" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Days after March 16, 2020</a:t>
+                </a:r>
+                <a:endParaRPr lang="it-IT" sz="1200">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="202768784"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="202768784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="12"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="211547168"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>LOMBARDIA</a:t>
+            </a:r>
+            <a:endParaRPr lang="it-IT">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>totale deceduti(i) / totale deceduti(i-10)</a:t>
+            </a:r>
+            <a:endParaRPr lang="it-IT">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>total deceased(i) / total deceased (i-10)</a:t>
+            </a:r>
+            <a:endParaRPr lang="it-IT" sz="1400">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.2266852897393512E-2"/>
+                  <c:y val="-0.26461818098644635"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1400" baseline="0">
+                        <a:solidFill>
+                          <a:srgbClr val="FF0000"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>y = 28.551e</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1400" baseline="30000">
+                        <a:solidFill>
+                          <a:srgbClr val="FF0000"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>-0.142x</a:t>
+                    </a:r>
+                    <a:br>
+                      <a:rPr lang="en-US" sz="1400" baseline="0">
+                        <a:solidFill>
+                          <a:srgbClr val="FF0000"/>
+                        </a:solidFill>
+                      </a:rPr>
+                    </a:br>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1400" baseline="0">
+                        <a:solidFill>
+                          <a:srgbClr val="FF0000"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>R² = 0.9383</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US" sz="1400">
+                      <a:solidFill>
+                        <a:srgbClr val="FF0000"/>
+                      </a:solidFill>
+                    </a:endParaRPr>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="it-IT"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Lombardia 19-03'!$M$17:$M$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Lombardia 19-03'!$W$17:$W$26</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>20.347826086956523</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25.708333333333332</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.578947368421051</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.181818181818183</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.232876712328768</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.428571428571429</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.518518518518519</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.64935064935065</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.3370786516853936</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.5105105105105103</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C22B-4EE1-9883-D54B8F14AE37}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="211547168"/>
+        <c:axId val="202768784"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="211547168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT" sz="1400"/>
+                  <a:t>Giorni trascorsi dal 9/3/2020</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1400">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT" sz="1200" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Days after March 9, 2020</a:t>
+                </a:r>
+                <a:endParaRPr lang="it-IT" sz="1200">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="202768784"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="202768784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="211547168"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
@@ -1011,7 +2291,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
@@ -1640,7 +2920,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
@@ -2278,7 +3558,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
@@ -2907,7 +4187,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
@@ -3536,7 +4816,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
@@ -4108,7 +5388,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
@@ -4737,7 +6017,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
@@ -5357,635 +6637,47 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="it-IT"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="it-IT" sz="1800" b="0" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>LOMBARDIA</a:t>
-            </a:r>
-            <a:endParaRPr lang="it-IT">
-              <a:effectLst/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="it-IT" sz="1800" b="0" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>totale deceduti(i) / totale deceduti(i-10)</a:t>
-            </a:r>
-            <a:endParaRPr lang="it-IT">
-              <a:effectLst/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="it-IT" sz="1400" b="0" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>total deceased(i) / total deceased (i-10)</a:t>
-            </a:r>
-            <a:endParaRPr lang="it-IT" sz="1400">
-              <a:effectLst/>
-            </a:endParaRPr>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="exp"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-1.2266852897393512E-2"/>
-                  <c:y val="-0.26461818098644635"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:pPr>
-                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                        <a:solidFill>
-                          <a:schemeClr val="tx1">
-                            <a:lumMod val="65000"/>
-                            <a:lumOff val="35000"/>
-                          </a:schemeClr>
-                        </a:solidFill>
-                        <a:latin typeface="+mn-lt"/>
-                        <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:defRPr>
-                    </a:pPr>
-                    <a:r>
-                      <a:rPr lang="en-US" sz="1400" baseline="0">
-                        <a:solidFill>
-                          <a:srgbClr val="FF0000"/>
-                        </a:solidFill>
-                      </a:rPr>
-                      <a:t>y = 28.551e</a:t>
-                    </a:r>
-                    <a:r>
-                      <a:rPr lang="en-US" sz="1400" baseline="30000">
-                        <a:solidFill>
-                          <a:srgbClr val="FF0000"/>
-                        </a:solidFill>
-                      </a:rPr>
-                      <a:t>-0.142x</a:t>
-                    </a:r>
-                    <a:br>
-                      <a:rPr lang="en-US" sz="1400" baseline="0">
-                        <a:solidFill>
-                          <a:srgbClr val="FF0000"/>
-                        </a:solidFill>
-                      </a:rPr>
-                    </a:br>
-                    <a:r>
-                      <a:rPr lang="en-US" sz="1400" baseline="0">
-                        <a:solidFill>
-                          <a:srgbClr val="FF0000"/>
-                        </a:solidFill>
-                      </a:rPr>
-                      <a:t>R² = 0.9383</a:t>
-                    </a:r>
-                    <a:endParaRPr lang="en-US" sz="1400">
-                      <a:solidFill>
-                        <a:srgbClr val="FF0000"/>
-                      </a:solidFill>
-                    </a:endParaRPr>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="it-IT"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Lombardia 19-03'!$M$17:$M$26</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Lombardia 19-03'!$W$17:$W$26</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>20.347826086956523</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>25.708333333333332</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>19.578947368421051</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16.181818181818183</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>13.232876712328768</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>12.428571428571429</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10.518518518518519</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>10.64935064935065</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>7.3370786516853936</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6.5105105105105103</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-C22B-4EE1-9883-D54B8F14AE37}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="211547168"/>
-        <c:axId val="202768784"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="211547168"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-                  <a:lnSpc>
-                    <a:spcPct val="100000"/>
-                  </a:lnSpc>
-                  <a:spcBef>
-                    <a:spcPts val="0"/>
-                  </a:spcBef>
-                  <a:spcAft>
-                    <a:spcPts val="0"/>
-                  </a:spcAft>
-                  <a:buClrTx/>
-                  <a:buSzTx/>
-                  <a:buFontTx/>
-                  <a:buNone/>
-                  <a:tabLst/>
-                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:sysClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="it-IT" sz="1400"/>
-                  <a:t>Giorni trascorsi dal 9/3/2020</a:t>
-                </a:r>
-              </a:p>
-              <a:p>
-                <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-                  <a:lnSpc>
-                    <a:spcPct val="100000"/>
-                  </a:lnSpc>
-                  <a:spcBef>
-                    <a:spcPts val="0"/>
-                  </a:spcBef>
-                  <a:spcAft>
-                    <a:spcPts val="0"/>
-                  </a:spcAft>
-                  <a:buClrTx/>
-                  <a:buSzTx/>
-                  <a:buFontTx/>
-                  <a:buNone/>
-                  <a:tabLst/>
-                  <a:defRPr sz="1400">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:sysClr>
-                    </a:solidFill>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="it-IT" sz="1200" b="0" i="0" baseline="0">
-                    <a:effectLst/>
-                  </a:rPr>
-                  <a:t>Days after March 9, 2020</a:t>
-                </a:r>
-                <a:endParaRPr lang="it-IT" sz="1200">
-                  <a:effectLst/>
-                </a:endParaRPr>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-                <a:lnSpc>
-                  <a:spcPct val="100000"/>
-                </a:lnSpc>
-                <a:spcBef>
-                  <a:spcPts val="0"/>
-                </a:spcBef>
-                <a:spcAft>
-                  <a:spcPts val="0"/>
-                </a:spcAft>
-                <a:buClrTx/>
-                <a:buSzTx/>
-                <a:buFontTx/>
-                <a:buNone/>
-                <a:tabLst/>
-                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:sysClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="it-IT"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="202768784"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-        <c:majorUnit val="1"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="202768784"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="211547168"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="it-IT"/>
-    </a:p>
-  </c:txPr>
-</c:chartSpace>
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -6346,6 +7038,522 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -10990,7 +12198,20 @@
 </file>
 
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{E86A2FCD-8547-4EDC-ABA7-D8249DD5E08B}">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{2699C652-C670-4639-A440-E9ACA3BFDEFE}">
+  <sheetPr>
+    <tabColor theme="9"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="116" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{60A1EAB3-EF49-4BCE-A2D3-73312D67A9DB}">
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
@@ -11003,12 +12224,12 @@
 </file>
 
 <file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{0D09F622-3B08-4016-A6DB-2E26D8D0634E}">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{E86A2FCD-8547-4EDC-ABA7-D8249DD5E08B}">
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
   <sheetViews>
-    <sheetView zoomScale="121" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="116" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -11016,6 +12237,19 @@
 </file>
 
 <file path=xl/chartsheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{0D09F622-3B08-4016-A6DB-2E26D8D0634E}">
+  <sheetPr>
+    <tabColor theme="9"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView zoomScale="116" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{DB54D20F-8F6B-4BF5-A75C-7060A9A7A4A5}">
   <sheetPr>
     <tabColor theme="9"/>
@@ -11028,7 +12262,7 @@
 </chartsheet>
 </file>
 
-<file path=xl/chartsheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/chartsheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{DDB96DAD-48A1-4D35-9701-6E7BA71EE9E0}">
   <sheetPr>
     <tabColor theme="9"/>
@@ -11041,7 +12275,7 @@
 </chartsheet>
 </file>
 
-<file path=xl/chartsheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/chartsheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{8F8AC3FF-F7F6-43AE-B599-2987677BDD39}">
   <sheetPr>
     <tabColor theme="9"/>
@@ -11054,7 +12288,7 @@
 </chartsheet>
 </file>
 
-<file path=xl/chartsheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/chartsheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{6163AFED-0AB9-413A-8E5D-55C1877518F7}">
   <sheetPr>
     <tabColor theme="9"/>
@@ -11067,7 +12301,7 @@
 </chartsheet>
 </file>
 
-<file path=xl/chartsheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/chartsheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{946A6D0C-2D9E-4A64-9F48-50B14521F1E0}">
   <sheetPr>
     <tabColor theme="9"/>
@@ -11080,21 +12314,8 @@
 </chartsheet>
 </file>
 
-<file path=xl/chartsheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/chartsheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{0867B63D-DA25-4316-A01F-4819A0895E7C}">
-  <sheetPr>
-    <tabColor theme="9"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView zoomScale="121" workbookViewId="0" zoomToFit="1"/>
-  </sheetViews>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</chartsheet>
-</file>
-
-<file path=xl/chartsheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{60A1EAB3-EF49-4BCE-A2D3-73312D67A9DB}">
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
@@ -11110,7 +12331,73 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9303297" cy="6076293"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Grafico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{111C1B27-0E7A-4CB7-8631-7D0056B2EFA7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
     <xdr:ext cx="9304587" cy="6077107"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Grafico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36578EB0-055B-4EDC-952C-791EB418EFBA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9303297" cy="6076293"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Grafico 1">
@@ -11139,11 +12426,11 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9304587" cy="6077107"/>
+    <xdr:ext cx="9303297" cy="6076293"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Grafico 1">
@@ -11172,7 +12459,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
@@ -11205,7 +12492,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
@@ -11238,7 +12525,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
@@ -11271,7 +12558,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
@@ -11304,7 +12591,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
@@ -11337,7 +12624,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
@@ -11348,39 +12635,6 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB3AD767-CB7D-403F-83A9-E00AA209B994}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks noGrp="1"/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:absoluteAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:absoluteAnchor>
-    <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9304587" cy="6077107"/>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Grafico 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36578EB0-055B-4EDC-952C-791EB418EFBA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11724,10 +12978,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C81204A6-BF5F-4707-8639-B58903F8FBA7}">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10:H10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11736,16 +12990,16 @@
     <col min="2" max="2" width="27.5703125" style="7" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7" style="7" customWidth="1"/>
-    <col min="6" max="6" width="7" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="7"/>
-    <col min="10" max="10" width="11.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="7"/>
+    <col min="5" max="6" width="7" style="7" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="7"/>
+    <col min="11" max="11" width="11.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>56</v>
       </c>
@@ -11762,19 +13016,25 @@
         <v>77</v>
       </c>
       <c r="F1" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G1" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="K1" s="7" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L1" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <v>43909</v>
       </c>
@@ -11790,19 +13050,19 @@
       <c r="E2" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="F2" s="7">
+      <c r="G2" s="7">
         <v>0.93830000000000002</v>
       </c>
-      <c r="G2" s="7">
+      <c r="H2" s="7">
         <f>INT(0.5-LN(C2)/D2)</f>
         <v>24</v>
       </c>
-      <c r="H2" s="8">
-        <f>A2-10+G2</f>
+      <c r="I2" s="8">
+        <f>A2-10+H2</f>
         <v>43923</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>43910</v>
       </c>
@@ -11818,19 +13078,19 @@
       <c r="E3" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="F3" s="7">
+      <c r="G3" s="7">
         <v>0.98870000000000002</v>
       </c>
-      <c r="G3" s="7">
+      <c r="H3" s="7">
         <f>INT(0.5+EXP((1-D3)/C3))</f>
         <v>18</v>
       </c>
-      <c r="H3" s="8">
-        <f>A3-10+G3</f>
+      <c r="I3" s="8">
+        <f>A3-10+H3</f>
         <v>43918</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>43911</v>
       </c>
@@ -11846,19 +13106,19 @@
       <c r="E4" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="F4" s="7">
+      <c r="G4" s="7">
         <v>0.97919999999999996</v>
       </c>
-      <c r="G4" s="7">
+      <c r="H4" s="7">
         <f>INT(0.5-LN(C4)/D4)</f>
         <v>21</v>
       </c>
-      <c r="H4" s="8">
-        <f>A4-10+G4</f>
+      <c r="I4" s="8">
+        <f>A4-10+H4</f>
         <v>43922</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>43912</v>
       </c>
@@ -11874,19 +13134,19 @@
       <c r="E5" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="F5" s="7">
+      <c r="G5" s="7">
         <v>0.97489999999999999</v>
       </c>
-      <c r="G5" s="7">
-        <f t="shared" ref="G5:G10" si="0">INT(0.5-LN(C5)/D5)</f>
+      <c r="H5" s="7">
+        <f t="shared" ref="H5:H9" si="0">INT(0.5-LN(C5)/D5)</f>
         <v>20</v>
       </c>
-      <c r="H5" s="8">
-        <f>A5-10+G5</f>
+      <c r="I5" s="8">
+        <f>A5-10+H5</f>
         <v>43922</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>43913</v>
       </c>
@@ -11902,19 +13162,19 @@
       <c r="E6" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="F6" s="7">
+      <c r="G6" s="7">
         <v>0.96079999999999999</v>
       </c>
-      <c r="G6" s="7">
+      <c r="H6" s="7">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="H6" s="8">
-        <f>A6-10+G6</f>
+      <c r="I6" s="8">
+        <f>A6-10+H6</f>
         <v>43923</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>43914</v>
       </c>
@@ -11930,19 +13190,19 @@
       <c r="E7" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="F7" s="7">
+      <c r="G7" s="7">
         <v>0.93889999999999996</v>
       </c>
-      <c r="G7" s="7">
+      <c r="H7" s="7">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="H7" s="8">
-        <f t="shared" ref="H7:H9" si="1">A7-10+G7</f>
+      <c r="I7" s="8">
+        <f t="shared" ref="I7:I11" si="1">A7-10+H7</f>
         <v>43924</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="9"/>
       <c r="B8" s="7" t="s">
         <v>75</v>
@@ -11956,21 +13216,21 @@
       <c r="E8" s="7">
         <v>14.763999999999999</v>
       </c>
-      <c r="F8" s="7">
+      <c r="G8" s="7">
         <v>0.96860000000000002</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>79</v>
       </c>
       <c r="H8" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="J8" s="7">
+      <c r="I8" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="K8" s="7">
         <f>D8*D8-4*C8*E8</f>
         <v>-1.9133079899999998</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>43915</v>
       </c>
@@ -11983,19 +13243,19 @@
       <c r="D9" s="7">
         <v>-0.11899999999999999</v>
       </c>
-      <c r="F9" s="7">
+      <c r="G9" s="7">
         <v>0.92579999999999996</v>
       </c>
-      <c r="G9" s="7">
+      <c r="H9" s="7">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="H9" s="8">
+      <c r="I9" s="8">
         <f t="shared" si="1"/>
         <v>43925</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="9"/>
       <c r="B10" s="7" t="s">
         <v>80</v>
@@ -12009,25 +13269,27 @@
       <c r="E10" s="7">
         <v>12.832000000000001</v>
       </c>
-      <c r="F10" s="7">
+      <c r="G10" s="7">
         <v>0.9526</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>79</v>
       </c>
       <c r="H10" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="J10" s="7">
+      <c r="I10" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="K10" s="7">
         <f>D10*D10-4*C10*E10</f>
         <v>-1.6910214000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="I11" s="8"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C14" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -12039,7 +13301,2451 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF6FD583-DA3B-4917-AC90-6D0D6B9846FA}">
+  <sheetPr>
+    <tabColor theme="6"/>
+  </sheetPr>
+  <dimension ref="A1:W51"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" t="s">
+        <v>16</v>
+      </c>
+      <c r="T1" t="s">
+        <v>17</v>
+      </c>
+      <c r="U1" t="s">
+        <v>18</v>
+      </c>
+      <c r="V1" t="s">
+        <v>19</v>
+      </c>
+      <c r="W1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2">
+        <v>19</v>
+      </c>
+      <c r="C2">
+        <v>166</v>
+      </c>
+      <c r="D2">
+        <v>1463</v>
+      </c>
+      <c r="E2">
+        <v>172</v>
+      </c>
+      <c r="F2">
+        <v>76</v>
+      </c>
+      <c r="G2">
+        <v>166</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>95</v>
+      </c>
+      <c r="J2">
+        <v>6</v>
+      </c>
+      <c r="K2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3">
+        <v>25</v>
+      </c>
+      <c r="C3">
+        <v>65</v>
+      </c>
+      <c r="D3">
+        <v>3700</v>
+      </c>
+      <c r="E3">
+        <v>240</v>
+      </c>
+      <c r="F3">
+        <v>79</v>
+      </c>
+      <c r="G3">
+        <v>231</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>104</v>
+      </c>
+      <c r="J3">
+        <v>9</v>
+      </c>
+      <c r="K3">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4">
+        <v>25</v>
+      </c>
+      <c r="C4">
+        <v>18</v>
+      </c>
+      <c r="D4">
+        <v>3208</v>
+      </c>
+      <c r="E4">
+        <v>258</v>
+      </c>
+      <c r="F4">
+        <v>79</v>
+      </c>
+      <c r="G4">
+        <v>249</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>104</v>
+      </c>
+      <c r="J4">
+        <v>9</v>
+      </c>
+      <c r="K4">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5">
+        <v>41</v>
+      </c>
+      <c r="C5">
+        <v>100</v>
+      </c>
+      <c r="D5">
+        <v>3320</v>
+      </c>
+      <c r="E5">
+        <v>403</v>
+      </c>
+      <c r="F5">
+        <v>172</v>
+      </c>
+      <c r="G5">
+        <v>349</v>
+      </c>
+      <c r="H5">
+        <v>40</v>
+      </c>
+      <c r="I5">
+        <v>213</v>
+      </c>
+      <c r="J5">
+        <v>14</v>
+      </c>
+      <c r="K5">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6">
+        <v>47</v>
+      </c>
+      <c r="C6">
+        <v>125</v>
+      </c>
+      <c r="D6">
+        <v>4835</v>
+      </c>
+      <c r="E6">
+        <v>531</v>
+      </c>
+      <c r="F6">
+        <v>235</v>
+      </c>
+      <c r="G6">
+        <v>474</v>
+      </c>
+      <c r="H6">
+        <v>40</v>
+      </c>
+      <c r="I6">
+        <v>282</v>
+      </c>
+      <c r="J6">
+        <v>17</v>
+      </c>
+      <c r="K6">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7">
+        <v>80</v>
+      </c>
+      <c r="C7">
+        <v>78</v>
+      </c>
+      <c r="D7">
+        <v>5723</v>
+      </c>
+      <c r="E7">
+        <v>615</v>
+      </c>
+      <c r="F7">
+        <v>256</v>
+      </c>
+      <c r="G7">
+        <v>552</v>
+      </c>
+      <c r="H7">
+        <v>40</v>
+      </c>
+      <c r="I7">
+        <v>336</v>
+      </c>
+      <c r="J7">
+        <v>23</v>
+      </c>
+      <c r="K7">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8">
+        <v>106</v>
+      </c>
+      <c r="C8">
+        <v>335</v>
+      </c>
+      <c r="D8">
+        <v>6879</v>
+      </c>
+      <c r="E8">
+        <v>984</v>
+      </c>
+      <c r="F8">
+        <v>406</v>
+      </c>
+      <c r="G8">
+        <v>887</v>
+      </c>
+      <c r="H8">
+        <v>73</v>
+      </c>
+      <c r="I8">
+        <v>512</v>
+      </c>
+      <c r="J8">
+        <v>24</v>
+      </c>
+      <c r="K8">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9">
+        <v>127</v>
+      </c>
+      <c r="C9">
+        <v>190</v>
+      </c>
+      <c r="D9">
+        <v>7925</v>
+      </c>
+      <c r="E9">
+        <v>1254</v>
+      </c>
+      <c r="F9">
+        <v>478</v>
+      </c>
+      <c r="G9">
+        <v>1077</v>
+      </c>
+      <c r="H9">
+        <v>139</v>
+      </c>
+      <c r="I9">
+        <v>605</v>
+      </c>
+      <c r="J9">
+        <v>38</v>
+      </c>
+      <c r="K9">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10">
+        <v>167</v>
+      </c>
+      <c r="C10">
+        <v>249</v>
+      </c>
+      <c r="D10">
+        <v>9577</v>
+      </c>
+      <c r="E10">
+        <v>1520</v>
+      </c>
+      <c r="F10">
+        <v>698</v>
+      </c>
+      <c r="G10">
+        <v>1326</v>
+      </c>
+      <c r="H10">
+        <v>139</v>
+      </c>
+      <c r="I10">
+        <v>865</v>
+      </c>
+      <c r="J10">
+        <v>55</v>
+      </c>
+      <c r="K10">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11">
+        <v>209</v>
+      </c>
+      <c r="C11">
+        <v>171</v>
+      </c>
+      <c r="D11">
+        <v>12138</v>
+      </c>
+      <c r="E11">
+        <v>1820</v>
+      </c>
+      <c r="F11">
+        <v>877</v>
+      </c>
+      <c r="G11">
+        <v>1497</v>
+      </c>
+      <c r="H11">
+        <v>250</v>
+      </c>
+      <c r="I11">
+        <v>1086</v>
+      </c>
+      <c r="J11">
+        <v>73</v>
+      </c>
+      <c r="K11">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12">
+        <v>244</v>
+      </c>
+      <c r="C12">
+        <v>280</v>
+      </c>
+      <c r="D12">
+        <v>12354</v>
+      </c>
+      <c r="E12">
+        <v>2251</v>
+      </c>
+      <c r="F12">
+        <v>1169</v>
+      </c>
+      <c r="G12">
+        <v>1777</v>
+      </c>
+      <c r="H12">
+        <v>376</v>
+      </c>
+      <c r="I12">
+        <v>1413</v>
+      </c>
+      <c r="J12">
+        <v>98</v>
+      </c>
+      <c r="K12">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13">
+        <v>309</v>
+      </c>
+      <c r="C13">
+        <v>231</v>
+      </c>
+      <c r="D13">
+        <v>13556</v>
+      </c>
+      <c r="E13">
+        <v>2612</v>
+      </c>
+      <c r="F13">
+        <v>1622</v>
+      </c>
+      <c r="G13">
+        <v>2008</v>
+      </c>
+      <c r="H13">
+        <v>469</v>
+      </c>
+      <c r="I13">
+        <v>1931</v>
+      </c>
+      <c r="J13">
+        <v>135</v>
+      </c>
+      <c r="K13">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14">
+        <v>359</v>
+      </c>
+      <c r="C14">
+        <v>734</v>
+      </c>
+      <c r="D14">
+        <v>15778</v>
+      </c>
+      <c r="E14">
+        <v>3420</v>
+      </c>
+      <c r="F14">
+        <v>1661</v>
+      </c>
+      <c r="G14">
+        <v>2742</v>
+      </c>
+      <c r="H14">
+        <v>524</v>
+      </c>
+      <c r="I14">
+        <v>2020</v>
+      </c>
+      <c r="J14">
+        <v>154</v>
+      </c>
+      <c r="K14">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15">
+        <v>399</v>
+      </c>
+      <c r="C15">
+        <v>630</v>
+      </c>
+      <c r="D15">
+        <v>18534</v>
+      </c>
+      <c r="E15">
+        <v>4189</v>
+      </c>
+      <c r="F15">
+        <v>2217</v>
+      </c>
+      <c r="G15">
+        <v>3372</v>
+      </c>
+      <c r="H15">
+        <v>550</v>
+      </c>
+      <c r="I15">
+        <v>2616</v>
+      </c>
+      <c r="J15">
+        <v>267</v>
+      </c>
+      <c r="K15">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16">
+        <v>440</v>
+      </c>
+      <c r="C16">
+        <v>1118</v>
+      </c>
+      <c r="D16">
+        <v>20135</v>
+      </c>
+      <c r="E16">
+        <v>5469</v>
+      </c>
+      <c r="F16">
+        <v>2802</v>
+      </c>
+      <c r="G16">
+        <v>4490</v>
+      </c>
+      <c r="H16">
+        <v>646</v>
+      </c>
+      <c r="I16">
+        <v>3242</v>
+      </c>
+      <c r="J16">
+        <v>333</v>
+      </c>
+      <c r="K16">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17">
+        <v>466</v>
+      </c>
+      <c r="C17">
+        <v>-63</v>
+      </c>
+      <c r="D17">
+        <v>21479</v>
+      </c>
+      <c r="E17">
+        <v>5791</v>
+      </c>
+      <c r="F17">
+        <v>3319</v>
+      </c>
+      <c r="G17">
+        <v>4427</v>
+      </c>
+      <c r="H17">
+        <v>896</v>
+      </c>
+      <c r="I17">
+        <v>3785</v>
+      </c>
+      <c r="J17">
+        <v>468</v>
+      </c>
+      <c r="K17">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18">
+        <v>560</v>
+      </c>
+      <c r="C18">
+        <v>1336</v>
+      </c>
+      <c r="D18">
+        <v>25629</v>
+      </c>
+      <c r="E18">
+        <v>7280</v>
+      </c>
+      <c r="F18">
+        <v>3852</v>
+      </c>
+      <c r="G18">
+        <v>5763</v>
+      </c>
+      <c r="H18">
+        <v>900</v>
+      </c>
+      <c r="I18">
+        <v>4412</v>
+      </c>
+      <c r="J18">
+        <v>617</v>
+      </c>
+      <c r="K18">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19">
+        <v>605</v>
+      </c>
+      <c r="C19">
+        <v>1133</v>
+      </c>
+      <c r="D19">
+        <v>29534</v>
+      </c>
+      <c r="E19">
+        <v>8725</v>
+      </c>
+      <c r="F19">
+        <v>4247</v>
+      </c>
+      <c r="G19">
+        <v>6896</v>
+      </c>
+      <c r="H19">
+        <v>1085</v>
+      </c>
+      <c r="I19">
+        <v>4852</v>
+      </c>
+      <c r="J19">
+        <v>744</v>
+      </c>
+      <c r="K19">
+        <v>2044</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20">
+        <v>650</v>
+      </c>
+      <c r="C20">
+        <v>836</v>
+      </c>
+      <c r="D20">
+        <v>32700</v>
+      </c>
+      <c r="E20">
+        <v>9820</v>
+      </c>
+      <c r="F20">
+        <v>4435</v>
+      </c>
+      <c r="G20">
+        <v>7732</v>
+      </c>
+      <c r="H20">
+        <v>1198</v>
+      </c>
+      <c r="I20">
+        <v>5085</v>
+      </c>
+      <c r="J20">
+        <v>890</v>
+      </c>
+      <c r="K20">
+        <v>2647</v>
+      </c>
+      <c r="N20" s="1">
+        <f t="shared" ref="N20:N33" si="0">J20/J19</f>
+        <v>1.196236559139785</v>
+      </c>
+      <c r="O20" s="1">
+        <f t="shared" ref="O20:O33" si="1">J20/J18</f>
+        <v>1.4424635332252835</v>
+      </c>
+      <c r="P20" s="1">
+        <f t="shared" ref="P20:P33" si="2">J20/J17</f>
+        <v>1.9017094017094016</v>
+      </c>
+      <c r="Q20" s="1">
+        <f t="shared" ref="Q20:Q33" si="3">J20/J16</f>
+        <v>2.6726726726726726</v>
+      </c>
+      <c r="R20" s="1">
+        <f t="shared" ref="R20:R33" si="4">J20/J15</f>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="S20" s="1">
+        <f t="shared" ref="S20:S33" si="5">J20/J14</f>
+        <v>5.779220779220779</v>
+      </c>
+      <c r="T20" s="1">
+        <f t="shared" ref="T20:T33" si="6">J20/J13</f>
+        <v>6.5925925925925926</v>
+      </c>
+      <c r="U20" s="1">
+        <f t="shared" ref="U20:U33" si="7">J20/J12</f>
+        <v>9.0816326530612237</v>
+      </c>
+      <c r="V20" s="1">
+        <f t="shared" ref="V20:V33" si="8">J20/J11</f>
+        <v>12.191780821917808</v>
+      </c>
+      <c r="W20" s="1">
+        <f t="shared" ref="W20:W33" si="9">J20/J10</f>
+        <v>16.181818181818183</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21">
+        <v>732</v>
+      </c>
+      <c r="C21">
+        <v>1327</v>
+      </c>
+      <c r="D21">
+        <v>37138</v>
+      </c>
+      <c r="E21">
+        <v>11685</v>
+      </c>
+      <c r="F21">
+        <v>4898</v>
+      </c>
+      <c r="G21">
+        <v>9059</v>
+      </c>
+      <c r="H21">
+        <v>1660</v>
+      </c>
+      <c r="I21">
+        <v>5630</v>
+      </c>
+      <c r="J21">
+        <v>966</v>
+      </c>
+      <c r="K21">
+        <v>3429</v>
+      </c>
+      <c r="N21" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0853932584269663</v>
+      </c>
+      <c r="O21" s="1">
+        <f t="shared" si="1"/>
+        <v>1.2983870967741935</v>
+      </c>
+      <c r="P21" s="1">
+        <f t="shared" si="2"/>
+        <v>1.5656401944894651</v>
+      </c>
+      <c r="Q21" s="1">
+        <f t="shared" si="3"/>
+        <v>2.0641025641025643</v>
+      </c>
+      <c r="R21" s="1">
+        <f t="shared" si="4"/>
+        <v>2.900900900900901</v>
+      </c>
+      <c r="S21" s="1">
+        <f t="shared" si="5"/>
+        <v>3.6179775280898876</v>
+      </c>
+      <c r="T21" s="1">
+        <f t="shared" si="6"/>
+        <v>6.2727272727272725</v>
+      </c>
+      <c r="U21" s="1">
+        <f t="shared" si="7"/>
+        <v>7.1555555555555559</v>
+      </c>
+      <c r="V21" s="1">
+        <f t="shared" si="8"/>
+        <v>9.8571428571428577</v>
+      </c>
+      <c r="W21" s="1">
+        <f t="shared" si="9"/>
+        <v>13.232876712328768</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22">
+        <v>767</v>
+      </c>
+      <c r="C22">
+        <v>984</v>
+      </c>
+      <c r="D22">
+        <v>40369</v>
+      </c>
+      <c r="E22">
+        <v>13272</v>
+      </c>
+      <c r="F22">
+        <v>5500</v>
+      </c>
+      <c r="G22">
+        <v>10043</v>
+      </c>
+      <c r="H22">
+        <v>2011</v>
+      </c>
+      <c r="I22">
+        <v>6267</v>
+      </c>
+      <c r="J22">
+        <v>1218</v>
+      </c>
+      <c r="K22">
+        <v>3776</v>
+      </c>
+      <c r="N22" s="1">
+        <f t="shared" si="0"/>
+        <v>1.2608695652173914</v>
+      </c>
+      <c r="O22" s="1">
+        <f t="shared" si="1"/>
+        <v>1.3685393258426966</v>
+      </c>
+      <c r="P22" s="1">
+        <f t="shared" si="2"/>
+        <v>1.6370967741935485</v>
+      </c>
+      <c r="Q22" s="1">
+        <f t="shared" si="3"/>
+        <v>1.9740680713128038</v>
+      </c>
+      <c r="R22" s="1">
+        <f t="shared" si="4"/>
+        <v>2.6025641025641026</v>
+      </c>
+      <c r="S22" s="1">
+        <f t="shared" si="5"/>
+        <v>3.6576576576576576</v>
+      </c>
+      <c r="T22" s="1">
+        <f t="shared" si="6"/>
+        <v>4.5617977528089888</v>
+      </c>
+      <c r="U22" s="1">
+        <f t="shared" si="7"/>
+        <v>7.9090909090909092</v>
+      </c>
+      <c r="V22" s="1">
+        <f t="shared" si="8"/>
+        <v>9.0222222222222221</v>
+      </c>
+      <c r="W22" s="1">
+        <f t="shared" si="9"/>
+        <v>12.428571428571429</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23">
+        <v>823</v>
+      </c>
+      <c r="C23">
+        <v>818</v>
+      </c>
+      <c r="D23">
+        <v>43565</v>
+      </c>
+      <c r="E23">
+        <v>14649</v>
+      </c>
+      <c r="F23">
+        <v>6171</v>
+      </c>
+      <c r="G23">
+        <v>10861</v>
+      </c>
+      <c r="H23">
+        <v>2368</v>
+      </c>
+      <c r="I23">
+        <v>6994</v>
+      </c>
+      <c r="J23">
+        <v>1420</v>
+      </c>
+      <c r="K23">
+        <v>3867</v>
+      </c>
+      <c r="N23" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1658456486042692</v>
+      </c>
+      <c r="O23" s="1">
+        <f t="shared" si="1"/>
+        <v>1.4699792960662525</v>
+      </c>
+      <c r="P23" s="1">
+        <f t="shared" si="2"/>
+        <v>1.595505617977528</v>
+      </c>
+      <c r="Q23" s="1">
+        <f t="shared" si="3"/>
+        <v>1.9086021505376345</v>
+      </c>
+      <c r="R23" s="1">
+        <f t="shared" si="4"/>
+        <v>2.3014586709886546</v>
+      </c>
+      <c r="S23" s="1">
+        <f t="shared" si="5"/>
+        <v>3.0341880341880341</v>
+      </c>
+      <c r="T23" s="1">
+        <f t="shared" si="6"/>
+        <v>4.2642642642642645</v>
+      </c>
+      <c r="U23" s="1">
+        <f t="shared" si="7"/>
+        <v>5.3183520599250933</v>
+      </c>
+      <c r="V23" s="1">
+        <f t="shared" si="8"/>
+        <v>9.220779220779221</v>
+      </c>
+      <c r="W23" s="1">
+        <f t="shared" si="9"/>
+        <v>10.518518518518519</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24">
+        <v>879</v>
+      </c>
+      <c r="C24">
+        <v>1234</v>
+      </c>
+      <c r="D24">
+        <v>46449</v>
+      </c>
+      <c r="E24">
+        <v>16220</v>
+      </c>
+      <c r="F24">
+        <v>6953</v>
+      </c>
+      <c r="G24">
+        <v>12095</v>
+      </c>
+      <c r="H24">
+        <v>2485</v>
+      </c>
+      <c r="I24">
+        <v>7832</v>
+      </c>
+      <c r="J24">
+        <v>1640</v>
+      </c>
+      <c r="K24">
+        <v>4263</v>
+      </c>
+      <c r="M24">
+        <v>1</v>
+      </c>
+      <c r="N24" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1549295774647887</v>
+      </c>
+      <c r="O24" s="1">
+        <f t="shared" si="1"/>
+        <v>1.3464696223316912</v>
+      </c>
+      <c r="P24" s="1">
+        <f t="shared" si="2"/>
+        <v>1.6977225672877847</v>
+      </c>
+      <c r="Q24" s="1">
+        <f t="shared" si="3"/>
+        <v>1.8426966292134832</v>
+      </c>
+      <c r="R24" s="1">
+        <f t="shared" si="4"/>
+        <v>2.204301075268817</v>
+      </c>
+      <c r="S24" s="1">
+        <f t="shared" si="5"/>
+        <v>2.6580226904376012</v>
+      </c>
+      <c r="T24" s="1">
+        <f t="shared" si="6"/>
+        <v>3.5042735042735043</v>
+      </c>
+      <c r="U24" s="1">
+        <f t="shared" si="7"/>
+        <v>4.924924924924925</v>
+      </c>
+      <c r="V24" s="1">
+        <f t="shared" si="8"/>
+        <v>6.1423220973782771</v>
+      </c>
+      <c r="W24" s="1">
+        <f t="shared" si="9"/>
+        <v>10.64935064935065</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25">
+        <v>924</v>
+      </c>
+      <c r="C25">
+        <v>171</v>
+      </c>
+      <c r="D25">
+        <v>48983</v>
+      </c>
+      <c r="E25">
+        <v>17713</v>
+      </c>
+      <c r="F25">
+        <v>7285</v>
+      </c>
+      <c r="G25">
+        <v>12266</v>
+      </c>
+      <c r="H25">
+        <v>3488</v>
+      </c>
+      <c r="I25">
+        <v>8209</v>
+      </c>
+      <c r="J25">
+        <v>1959</v>
+      </c>
+      <c r="K25">
+        <v>4057</v>
+      </c>
+      <c r="M25">
+        <v>2</v>
+      </c>
+      <c r="N25" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1945121951219513</v>
+      </c>
+      <c r="O25" s="1">
+        <f t="shared" si="1"/>
+        <v>1.3795774647887324</v>
+      </c>
+      <c r="P25" s="1">
+        <f t="shared" si="2"/>
+        <v>1.6083743842364533</v>
+      </c>
+      <c r="Q25" s="1">
+        <f t="shared" si="3"/>
+        <v>2.0279503105590062</v>
+      </c>
+      <c r="R25" s="1">
+        <f t="shared" si="4"/>
+        <v>2.2011235955056181</v>
+      </c>
+      <c r="S25" s="1">
+        <f t="shared" si="5"/>
+        <v>2.6330645161290325</v>
+      </c>
+      <c r="T25" s="1">
+        <f t="shared" si="6"/>
+        <v>3.1750405186385739</v>
+      </c>
+      <c r="U25" s="1">
+        <f t="shared" si="7"/>
+        <v>4.1858974358974361</v>
+      </c>
+      <c r="V25" s="1">
+        <f t="shared" si="8"/>
+        <v>5.8828828828828827</v>
+      </c>
+      <c r="W25" s="1">
+        <f t="shared" si="9"/>
+        <v>7.3370786516853936</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26">
+        <v>1006</v>
+      </c>
+      <c r="C26">
+        <v>1672</v>
+      </c>
+      <c r="D26">
+        <v>52244</v>
+      </c>
+      <c r="E26">
+        <v>19884</v>
+      </c>
+      <c r="F26">
+        <v>7387</v>
+      </c>
+      <c r="G26">
+        <v>13938</v>
+      </c>
+      <c r="H26">
+        <v>3778</v>
+      </c>
+      <c r="I26">
+        <v>8393</v>
+      </c>
+      <c r="J26">
+        <v>2168</v>
+      </c>
+      <c r="K26">
+        <v>5545</v>
+      </c>
+      <c r="M26">
+        <v>3</v>
+      </c>
+      <c r="N26" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1066870852475752</v>
+      </c>
+      <c r="O26" s="1">
+        <f t="shared" si="1"/>
+        <v>1.3219512195121952</v>
+      </c>
+      <c r="P26" s="1">
+        <f t="shared" si="2"/>
+        <v>1.5267605633802817</v>
+      </c>
+      <c r="Q26" s="1">
+        <f t="shared" si="3"/>
+        <v>1.7799671592775042</v>
+      </c>
+      <c r="R26" s="1">
+        <f t="shared" si="4"/>
+        <v>2.2443064182194616</v>
+      </c>
+      <c r="S26" s="1">
+        <f t="shared" si="5"/>
+        <v>2.4359550561797754</v>
+      </c>
+      <c r="T26" s="1">
+        <f t="shared" si="6"/>
+        <v>2.913978494623656</v>
+      </c>
+      <c r="U26" s="1">
+        <f t="shared" si="7"/>
+        <v>3.5137763371150728</v>
+      </c>
+      <c r="V26" s="1">
+        <f t="shared" si="8"/>
+        <v>4.6324786324786329</v>
+      </c>
+      <c r="W26" s="1">
+        <f t="shared" si="9"/>
+        <v>6.5105105105105103</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27">
+        <v>1050</v>
+      </c>
+      <c r="C27">
+        <v>1482</v>
+      </c>
+      <c r="D27">
+        <v>57174</v>
+      </c>
+      <c r="E27">
+        <v>22264</v>
+      </c>
+      <c r="F27">
+        <v>7735</v>
+      </c>
+      <c r="G27">
+        <v>15420</v>
+      </c>
+      <c r="H27">
+        <v>4295</v>
+      </c>
+      <c r="I27">
+        <v>8785</v>
+      </c>
+      <c r="J27">
+        <v>2549</v>
+      </c>
+      <c r="K27">
+        <v>6635</v>
+      </c>
+      <c r="M27">
+        <v>4</v>
+      </c>
+      <c r="N27" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1757380073800738</v>
+      </c>
+      <c r="O27" s="1">
+        <f t="shared" si="1"/>
+        <v>1.3011740684022461</v>
+      </c>
+      <c r="P27" s="1">
+        <f t="shared" si="2"/>
+        <v>1.5542682926829268</v>
+      </c>
+      <c r="Q27" s="1">
+        <f t="shared" si="3"/>
+        <v>1.7950704225352112</v>
+      </c>
+      <c r="R27" s="1">
+        <f t="shared" si="4"/>
+        <v>2.0927750410509032</v>
+      </c>
+      <c r="S27" s="1">
+        <f t="shared" si="5"/>
+        <v>2.6387163561076603</v>
+      </c>
+      <c r="T27" s="1">
+        <f t="shared" si="6"/>
+        <v>2.8640449438202249</v>
+      </c>
+      <c r="U27" s="1">
+        <f t="shared" si="7"/>
+        <v>3.4260752688172045</v>
+      </c>
+      <c r="V27" s="1">
+        <f t="shared" si="8"/>
+        <v>4.1312803889789302</v>
+      </c>
+      <c r="W27" s="1">
+        <f t="shared" si="9"/>
+        <v>5.4465811965811968</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>47</v>
+      </c>
+      <c r="B28">
+        <v>1093</v>
+      </c>
+      <c r="C28">
+        <v>1950</v>
+      </c>
+      <c r="D28">
+        <v>66730</v>
+      </c>
+      <c r="E28">
+        <v>25515</v>
+      </c>
+      <c r="F28">
+        <v>8258</v>
+      </c>
+      <c r="G28">
+        <v>17370</v>
+      </c>
+      <c r="H28">
+        <v>5050</v>
+      </c>
+      <c r="I28">
+        <v>9351</v>
+      </c>
+      <c r="J28">
+        <v>3095</v>
+      </c>
+      <c r="K28">
+        <v>8019</v>
+      </c>
+      <c r="M28">
+        <v>5</v>
+      </c>
+      <c r="N28" s="1">
+        <f t="shared" si="0"/>
+        <v>1.2142016477049824</v>
+      </c>
+      <c r="O28" s="1">
+        <f t="shared" si="1"/>
+        <v>1.4275830258302582</v>
+      </c>
+      <c r="P28" s="1">
+        <f t="shared" si="2"/>
+        <v>1.5798876978050025</v>
+      </c>
+      <c r="Q28" s="1">
+        <f t="shared" si="3"/>
+        <v>1.8871951219512195</v>
+      </c>
+      <c r="R28" s="1">
+        <f t="shared" si="4"/>
+        <v>2.1795774647887325</v>
+      </c>
+      <c r="S28" s="1">
+        <f t="shared" si="5"/>
+        <v>2.5410509031198685</v>
+      </c>
+      <c r="T28" s="1">
+        <f t="shared" si="6"/>
+        <v>3.2039337474120084</v>
+      </c>
+      <c r="U28" s="1">
+        <f t="shared" si="7"/>
+        <v>3.4775280898876404</v>
+      </c>
+      <c r="V28" s="1">
+        <f t="shared" si="8"/>
+        <v>4.15994623655914</v>
+      </c>
+      <c r="W28" s="1">
+        <f t="shared" si="9"/>
+        <v>5.0162074554294973</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>48</v>
+      </c>
+      <c r="B29">
+        <v>1142</v>
+      </c>
+      <c r="C29">
+        <v>515</v>
+      </c>
+      <c r="D29">
+        <v>70598</v>
+      </c>
+      <c r="E29">
+        <v>27206</v>
+      </c>
+      <c r="F29">
+        <v>9439</v>
+      </c>
+      <c r="G29">
+        <v>17885</v>
+      </c>
+      <c r="H29">
+        <v>5865</v>
+      </c>
+      <c r="I29">
+        <v>10581</v>
+      </c>
+      <c r="J29">
+        <v>3456</v>
+      </c>
+      <c r="K29">
+        <v>7304</v>
+      </c>
+      <c r="M29">
+        <v>6</v>
+      </c>
+      <c r="N29" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1166397415185783</v>
+      </c>
+      <c r="O29" s="1">
+        <f t="shared" si="1"/>
+        <v>1.3558258140447235</v>
+      </c>
+      <c r="P29" s="1">
+        <f t="shared" si="2"/>
+        <v>1.5940959409594095</v>
+      </c>
+      <c r="Q29" s="1">
+        <f t="shared" si="3"/>
+        <v>1.7641653905053598</v>
+      </c>
+      <c r="R29" s="1">
+        <f t="shared" si="4"/>
+        <v>2.1073170731707318</v>
+      </c>
+      <c r="S29" s="1">
+        <f t="shared" si="5"/>
+        <v>2.4338028169014083</v>
+      </c>
+      <c r="T29" s="1">
+        <f t="shared" si="6"/>
+        <v>2.8374384236453203</v>
+      </c>
+      <c r="U29" s="1">
+        <f t="shared" si="7"/>
+        <v>3.5776397515527951</v>
+      </c>
+      <c r="V29" s="1">
+        <f t="shared" si="8"/>
+        <v>3.8831460674157303</v>
+      </c>
+      <c r="W29" s="1">
+        <f t="shared" si="9"/>
+        <v>4.645161290322581</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>49</v>
+      </c>
+      <c r="B30">
+        <v>1183</v>
+      </c>
+      <c r="C30">
+        <v>1025</v>
+      </c>
+      <c r="D30">
+        <v>73242</v>
+      </c>
+      <c r="E30">
+        <v>28761</v>
+      </c>
+      <c r="F30">
+        <v>9266</v>
+      </c>
+      <c r="G30">
+        <v>18910</v>
+      </c>
+      <c r="H30">
+        <v>6075</v>
+      </c>
+      <c r="I30">
+        <v>10449</v>
+      </c>
+      <c r="J30">
+        <v>3776</v>
+      </c>
+      <c r="K30">
+        <v>8461</v>
+      </c>
+      <c r="M30">
+        <v>7</v>
+      </c>
+      <c r="N30" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0925925925925926</v>
+      </c>
+      <c r="O30" s="1">
+        <f t="shared" si="1"/>
+        <v>1.220032310177706</v>
+      </c>
+      <c r="P30" s="1">
+        <f t="shared" si="2"/>
+        <v>1.4813652412710867</v>
+      </c>
+      <c r="Q30" s="1">
+        <f t="shared" si="3"/>
+        <v>1.7416974169741697</v>
+      </c>
+      <c r="R30" s="1">
+        <f t="shared" si="4"/>
+        <v>1.9275140377743747</v>
+      </c>
+      <c r="S30" s="1">
+        <f t="shared" si="5"/>
+        <v>2.3024390243902437</v>
+      </c>
+      <c r="T30" s="1">
+        <f t="shared" si="6"/>
+        <v>2.6591549295774648</v>
+      </c>
+      <c r="U30" s="1">
+        <f t="shared" si="7"/>
+        <v>3.1001642036124797</v>
+      </c>
+      <c r="V30" s="1">
+        <f t="shared" si="8"/>
+        <v>3.9089026915113871</v>
+      </c>
+      <c r="W30" s="1">
+        <f t="shared" si="9"/>
+        <v>4.2426966292134836</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31">
+        <v>1194</v>
+      </c>
+      <c r="C31">
+        <v>958</v>
+      </c>
+      <c r="D31">
+        <v>76695</v>
+      </c>
+      <c r="E31">
+        <v>30703</v>
+      </c>
+      <c r="F31">
+        <v>9711</v>
+      </c>
+      <c r="G31">
+        <v>19868</v>
+      </c>
+      <c r="H31">
+        <v>6657</v>
+      </c>
+      <c r="I31">
+        <v>10905</v>
+      </c>
+      <c r="J31">
+        <v>4178</v>
+      </c>
+      <c r="K31">
+        <v>8963</v>
+      </c>
+      <c r="M31">
+        <v>8</v>
+      </c>
+      <c r="N31" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1064618644067796</v>
+      </c>
+      <c r="O31" s="1">
+        <f t="shared" si="1"/>
+        <v>1.208912037037037</v>
+      </c>
+      <c r="P31" s="1">
+        <f t="shared" si="2"/>
+        <v>1.349919224555735</v>
+      </c>
+      <c r="Q31" s="1">
+        <f t="shared" si="3"/>
+        <v>1.6390741467242056</v>
+      </c>
+      <c r="R31" s="1">
+        <f t="shared" si="4"/>
+        <v>1.9271217712177122</v>
+      </c>
+      <c r="S31" s="1">
+        <f t="shared" si="5"/>
+        <v>2.1327207759060745</v>
+      </c>
+      <c r="T31" s="1">
+        <f t="shared" si="6"/>
+        <v>2.5475609756097559</v>
+      </c>
+      <c r="U31" s="1">
+        <f t="shared" si="7"/>
+        <v>2.9422535211267604</v>
+      </c>
+      <c r="V31" s="1">
+        <f t="shared" si="8"/>
+        <v>3.4302134646962235</v>
+      </c>
+      <c r="W31" s="1">
+        <f t="shared" si="9"/>
+        <v>4.325051759834369</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>72</v>
+      </c>
+      <c r="B32">
+        <v>1236</v>
+      </c>
+      <c r="C32">
+        <v>723</v>
+      </c>
+      <c r="D32">
+        <v>81666</v>
+      </c>
+      <c r="E32">
+        <v>32346</v>
+      </c>
+      <c r="F32">
+        <v>10026</v>
+      </c>
+      <c r="G32">
+        <v>20591</v>
+      </c>
+      <c r="H32">
+        <v>7281</v>
+      </c>
+      <c r="I32">
+        <v>11262</v>
+      </c>
+      <c r="J32">
+        <v>4474</v>
+      </c>
+      <c r="K32">
+        <v>9329</v>
+      </c>
+      <c r="M32">
+        <v>9</v>
+      </c>
+      <c r="N32" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0708472953566299</v>
+      </c>
+      <c r="O32" s="1">
+        <f t="shared" si="1"/>
+        <v>1.1848516949152543</v>
+      </c>
+      <c r="P32" s="1">
+        <f t="shared" si="2"/>
+        <v>1.2945601851851851</v>
+      </c>
+      <c r="Q32" s="1">
+        <f t="shared" si="3"/>
+        <v>1.445557350565428</v>
+      </c>
+      <c r="R32" s="1">
+        <f t="shared" si="4"/>
+        <v>1.7551981169085915</v>
+      </c>
+      <c r="S32" s="1">
+        <f t="shared" si="5"/>
+        <v>2.0636531365313653</v>
+      </c>
+      <c r="T32" s="1">
+        <f t="shared" si="6"/>
+        <v>2.2838182746299132</v>
+      </c>
+      <c r="U32" s="1">
+        <f t="shared" si="7"/>
+        <v>2.7280487804878049</v>
+      </c>
+      <c r="V32" s="1">
+        <f t="shared" si="8"/>
+        <v>3.1507042253521127</v>
+      </c>
+      <c r="W32" s="1">
+        <f t="shared" si="9"/>
+        <v>3.6732348111658455</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>81</v>
+      </c>
+      <c r="B33">
+        <v>1263</v>
+      </c>
+      <c r="C33">
+        <v>1598</v>
+      </c>
+      <c r="D33">
+        <v>87713</v>
+      </c>
+      <c r="E33">
+        <v>34889</v>
+      </c>
+      <c r="F33">
+        <v>10681</v>
+      </c>
+      <c r="G33">
+        <v>22189</v>
+      </c>
+      <c r="H33">
+        <v>7839</v>
+      </c>
+      <c r="I33">
+        <v>11944</v>
+      </c>
+      <c r="J33">
+        <v>4861</v>
+      </c>
+      <c r="K33">
+        <v>10245</v>
+      </c>
+      <c r="M33">
+        <v>10</v>
+      </c>
+      <c r="N33" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0864997764863658</v>
+      </c>
+      <c r="O33" s="1">
+        <f t="shared" si="1"/>
+        <v>1.1634753470560077</v>
+      </c>
+      <c r="P33" s="1">
+        <f t="shared" si="2"/>
+        <v>1.2873411016949152</v>
+      </c>
+      <c r="Q33" s="1">
+        <f t="shared" si="3"/>
+        <v>1.4065393518518519</v>
+      </c>
+      <c r="R33" s="1">
+        <f t="shared" si="4"/>
+        <v>1.5705977382875607</v>
+      </c>
+      <c r="S33" s="1">
+        <f t="shared" si="5"/>
+        <v>1.9070223617104747</v>
+      </c>
+      <c r="T33" s="1">
+        <f t="shared" si="6"/>
+        <v>2.2421586715867159</v>
+      </c>
+      <c r="U33" s="1">
+        <f t="shared" si="7"/>
+        <v>2.4813680449208779</v>
+      </c>
+      <c r="V33" s="1">
+        <f t="shared" si="8"/>
+        <v>2.9640243902439023</v>
+      </c>
+      <c r="W33" s="1">
+        <f t="shared" si="9"/>
+        <v>3.4232394366197183</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="K36" t="s">
+        <v>50</v>
+      </c>
+      <c r="M36" t="s">
+        <v>51</v>
+      </c>
+      <c r="N36">
+        <f>EXP(INDEX(LINEST(LN(N24:N33),M24:M33),1,2))</f>
+        <v>1.1936822896566561</v>
+      </c>
+      <c r="O36">
+        <f>EXP(INDEX(LINEST(LN(O24:O33),M24:M33),1,2))</f>
+        <v>1.4269628799311735</v>
+      </c>
+      <c r="P36">
+        <f>EXP(INDEX(LINEST(LN(P24:P33),M24:M33),1,2))</f>
+        <v>1.7476807323904378</v>
+      </c>
+      <c r="Q36">
+        <f>EXP(INDEX(LINEST(LN(Q24:Q33),M24:M33),1,2))</f>
+        <v>2.0609304444437049</v>
+      </c>
+      <c r="R36">
+        <f>EXP(INDEX(LINEST(LN(R24:R33),M24:M33),1,2))</f>
+        <v>2.4277509620029258</v>
+      </c>
+      <c r="S36">
+        <f>EXP(INDEX(LINEST(LN(S24:S33),M24:M33),1,2))</f>
+        <v>2.8653002994857362</v>
+      </c>
+      <c r="T36">
+        <f>EXP(INDEX(LINEST(LN(T24:T33),M24:M33),1,2))</f>
+        <v>3.5722161698691455</v>
+      </c>
+      <c r="U36">
+        <f>EXP(INDEX(LINEST(LN(U24:U33),M24:M33),1,2))</f>
+        <v>4.7588335697444348</v>
+      </c>
+      <c r="V36">
+        <f>EXP(INDEX(LINEST(LN(V24:V33),M24:M33),1,2))</f>
+        <v>6.279650087075952</v>
+      </c>
+      <c r="W36">
+        <f>EXP(INDEX(LINEST(LN(W24:W33),M24:M33),1,2))</f>
+        <v>9.4808920357311202</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="M37" t="s">
+        <v>52</v>
+      </c>
+      <c r="N37">
+        <f>INDEX(LINEST(LN(N24:N33),M24:M33),1)</f>
+        <v>-9.8153017913894403E-3</v>
+      </c>
+      <c r="O37">
+        <f>INDEX(LINEST(LN(O24:O33),M24:M33),1)</f>
+        <v>-1.8614968267494418E-2</v>
+      </c>
+      <c r="P37">
+        <f>INDEX(LINEST(LN(P24:P33),M24:M33),1)</f>
+        <v>-2.8851127702536727E-2</v>
+      </c>
+      <c r="Q37">
+        <f>INDEX(LINEST(LN(Q24:Q33),M24:M33),1)</f>
+        <v>-3.2550770112920374E-2</v>
+      </c>
+      <c r="R37">
+        <f>INDEX(LINEST(LN(R24:R33),M24:M33),1)</f>
+        <v>-3.4409885812487807E-2</v>
+      </c>
+      <c r="S37">
+        <f>INDEX(LINEST(LN(S24:S33),M24:M33),1)</f>
+        <v>-3.5217239700087846E-2</v>
+      </c>
+      <c r="T37">
+        <f>INDEX(LINEST(LN(T24:T33),M24:M33),1)</f>
+        <v>-4.4492550058181465E-2</v>
+      </c>
+      <c r="U37">
+        <f>INDEX(LINEST(LN(U24:U33),M24:M33),1)</f>
+        <v>-6.2578845243549355E-2</v>
+      </c>
+      <c r="V37">
+        <f>INDEX(LINEST(LN(V24:V33),M24:M33),1)</f>
+        <v>-7.6763862427877971E-2</v>
+      </c>
+      <c r="W37">
+        <f>INDEX(LINEST(LN(W24:W33),M24:M33),1)</f>
+        <v>-0.10865736357087483</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="M38" t="s">
+        <v>53</v>
+      </c>
+      <c r="N38">
+        <f t="shared" ref="N38:W38" si="10">PEARSON(N24:N33,N42:N51)</f>
+        <v>0.67640796769255596</v>
+      </c>
+      <c r="O38">
+        <f t="shared" si="10"/>
+        <v>0.77841879113074941</v>
+      </c>
+      <c r="P38">
+        <f t="shared" si="10"/>
+        <v>0.89787332172294376</v>
+      </c>
+      <c r="Q38">
+        <f t="shared" si="10"/>
+        <v>0.84978535398905808</v>
+      </c>
+      <c r="R38">
+        <f t="shared" si="10"/>
+        <v>0.88948574297208138</v>
+      </c>
+      <c r="S38">
+        <f t="shared" si="10"/>
+        <v>0.91399076270019086</v>
+      </c>
+      <c r="T38">
+        <f t="shared" si="10"/>
+        <v>0.92104401520112889</v>
+      </c>
+      <c r="U38">
+        <f t="shared" si="10"/>
+        <v>0.93568991428850268</v>
+      </c>
+      <c r="V38">
+        <f t="shared" si="10"/>
+        <v>0.96110698664839633</v>
+      </c>
+      <c r="W38">
+        <f t="shared" si="10"/>
+        <v>0.93655351683443011</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="M39" t="s">
+        <v>82</v>
+      </c>
+      <c r="N39">
+        <f t="shared" ref="N39:W39" si="11">INT(0.5-LN(N36)/N37)</f>
+        <v>18</v>
+      </c>
+      <c r="O39">
+        <f t="shared" si="11"/>
+        <v>19</v>
+      </c>
+      <c r="P39">
+        <f t="shared" si="11"/>
+        <v>19</v>
+      </c>
+      <c r="Q39">
+        <f t="shared" si="11"/>
+        <v>22</v>
+      </c>
+      <c r="R39">
+        <f t="shared" si="11"/>
+        <v>26</v>
+      </c>
+      <c r="S39">
+        <f t="shared" si="11"/>
+        <v>30</v>
+      </c>
+      <c r="T39">
+        <f t="shared" si="11"/>
+        <v>29</v>
+      </c>
+      <c r="U39">
+        <f t="shared" si="11"/>
+        <v>25</v>
+      </c>
+      <c r="V39">
+        <f t="shared" si="11"/>
+        <v>24</v>
+      </c>
+      <c r="W39">
+        <f t="shared" si="11"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="M40" t="s">
+        <v>55</v>
+      </c>
+      <c r="N40" s="2">
+        <f>N39+A23</f>
+        <v>43924</v>
+      </c>
+      <c r="O40" s="2">
+        <f>O39+A23</f>
+        <v>43925</v>
+      </c>
+      <c r="P40" s="2">
+        <f>P39+A23</f>
+        <v>43925</v>
+      </c>
+      <c r="Q40" s="2">
+        <f>Q39+A23</f>
+        <v>43928</v>
+      </c>
+      <c r="R40" s="2">
+        <f>R39+A23</f>
+        <v>43932</v>
+      </c>
+      <c r="S40" s="2">
+        <f>S39+A23</f>
+        <v>43936</v>
+      </c>
+      <c r="T40" s="2">
+        <f>T39+A23</f>
+        <v>43935</v>
+      </c>
+      <c r="U40" s="2">
+        <f>U39+A23</f>
+        <v>43931</v>
+      </c>
+      <c r="V40" s="2">
+        <f>V39+A23</f>
+        <v>43930</v>
+      </c>
+      <c r="W40" s="2">
+        <f>W39+A23</f>
+        <v>43927</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="N42">
+        <f>N36*EXP(N37*M24)</f>
+        <v>1.1820232498404888</v>
+      </c>
+      <c r="O42">
+        <f>O36*EXP(O37*M24)</f>
+        <v>1.4006457177131999</v>
+      </c>
+      <c r="P42">
+        <f>P36*EXP(P37*M24)</f>
+        <v>1.6979786012353519</v>
+      </c>
+      <c r="Q42">
+        <f>Q36*EXP(Q37*M24)</f>
+        <v>1.9949256525905599</v>
+      </c>
+      <c r="R42">
+        <f>R36*EXP(R37*M24)</f>
+        <v>2.345633261365589</v>
+      </c>
+      <c r="S42">
+        <f>S36*EXP(S37*M24)</f>
+        <v>2.7661485058397766</v>
+      </c>
+      <c r="T42">
+        <f>T36*EXP(T37*M24)</f>
+        <v>3.4167630593309086</v>
+      </c>
+      <c r="U42">
+        <f>U36*EXP(U37*M24)</f>
+        <v>4.4701579545856767</v>
+      </c>
+      <c r="V42">
+        <f>V36*EXP(V37*M24)</f>
+        <v>5.8156374281954246</v>
+      </c>
+      <c r="W42">
+        <f>W36*EXP(W37*M24)</f>
+        <v>8.5047178004259756</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="N43">
+        <f>N36*EXP(N37*M25)</f>
+        <v>1.1704780872348763</v>
+      </c>
+      <c r="O43">
+        <f>O36*EXP(O37*M25)</f>
+        <v>1.3748139171237224</v>
+      </c>
+      <c r="P43">
+        <f>P36*EXP(P37*M25)</f>
+        <v>1.6496899444040223</v>
+      </c>
+      <c r="Q43">
+        <f>Q36*EXP(Q37*M25)</f>
+        <v>1.9310347761096303</v>
+      </c>
+      <c r="R43">
+        <f>R36*EXP(R37*M25)</f>
+        <v>2.2662931589512594</v>
+      </c>
+      <c r="S43">
+        <f>S36*EXP(S37*M25)</f>
+        <v>2.6704277934612759</v>
+      </c>
+      <c r="T43">
+        <f>T36*EXP(T37*M25)</f>
+        <v>3.2680748444280043</v>
+      </c>
+      <c r="U43">
+        <f>U36*EXP(U37*M25)</f>
+        <v>4.1989936916450556</v>
+      </c>
+      <c r="V43">
+        <f>V36*EXP(V37*M25)</f>
+        <v>5.3859113529008997</v>
+      </c>
+      <c r="W43">
+        <f>W36*EXP(W37*M25)</f>
+        <v>7.6290526874779134</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="N44">
+        <f>N36*EXP(N37*M26)</f>
+        <v>1.1590456895682006</v>
+      </c>
+      <c r="O44">
+        <f>O36*EXP(O37*M26)</f>
+        <v>1.3494585267450896</v>
+      </c>
+      <c r="P44">
+        <f>P36*EXP(P37*M26)</f>
+        <v>1.6027745642305242</v>
+      </c>
+      <c r="Q44">
+        <f>Q36*EXP(Q37*M26)</f>
+        <v>1.8691901132769142</v>
+      </c>
+      <c r="R44">
+        <f>R36*EXP(R37*M26)</f>
+        <v>2.1896367036162911</v>
+      </c>
+      <c r="S44">
+        <f>S36*EXP(S37*M26)</f>
+        <v>2.57801943208595</v>
+      </c>
+      <c r="T44">
+        <f>T36*EXP(T37*M26)</f>
+        <v>3.1258571353421885</v>
+      </c>
+      <c r="U44">
+        <f>U36*EXP(U37*M26)</f>
+        <v>3.9442785247415668</v>
+      </c>
+      <c r="V44">
+        <f>V36*EXP(V37*M26)</f>
+        <v>4.9879383746775137</v>
+      </c>
+      <c r="W44">
+        <f>W36*EXP(W37*M26)</f>
+        <v>6.8435480487546316</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="N45">
+        <f>N36*EXP(N37*M27)</f>
+        <v>1.1477249554327218</v>
+      </c>
+      <c r="O45">
+        <f>O36*EXP(O37*M27)</f>
+        <v>1.3245707602486749</v>
+      </c>
+      <c r="P45">
+        <f>P36*EXP(P37*M27)</f>
+        <v>1.5571934062266466</v>
+      </c>
+      <c r="Q45">
+        <f>Q36*EXP(Q37*M27)</f>
+        <v>1.8093261306309101</v>
+      </c>
+      <c r="R45">
+        <f>R36*EXP(R37*M27)</f>
+        <v>2.1155731220767158</v>
+      </c>
+      <c r="S45">
+        <f>S36*EXP(S37*M27)</f>
+        <v>2.4888088000306157</v>
+      </c>
+      <c r="T45">
+        <f>T36*EXP(T37*M27)</f>
+        <v>2.9898283532976557</v>
+      </c>
+      <c r="U45">
+        <f>U36*EXP(U37*M27)</f>
+        <v>3.7050146352190767</v>
+      </c>
+      <c r="V45">
+        <f>V36*EXP(V37*M27)</f>
+        <v>4.619372210086639</v>
+      </c>
+      <c r="W45">
+        <f>W36*EXP(W37*M27)</f>
+        <v>6.1389207565030226</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="N46">
+        <f>N36*EXP(N37*M28)</f>
+        <v>1.136514794178467</v>
+      </c>
+      <c r="O46">
+        <f>O36*EXP(O37*M28)</f>
+        <v>1.3001419933501761</v>
+      </c>
+      <c r="P46">
+        <f>P36*EXP(P37*M28)</f>
+        <v>1.5129085265711666</v>
+      </c>
+      <c r="Q46">
+        <f>Q36*EXP(Q37*M28)</f>
+        <v>1.7513793935303354</v>
+      </c>
+      <c r="R46">
+        <f>R36*EXP(R37*M28)</f>
+        <v>2.0440147114184142</v>
+      </c>
+      <c r="S46">
+        <f>S36*EXP(S37*M28)</f>
+        <v>2.4026852420185025</v>
+      </c>
+      <c r="T46">
+        <f>T36*EXP(T37*M28)</f>
+        <v>2.8597191730593945</v>
+      </c>
+      <c r="U46">
+        <f>U36*EXP(U37*M28)</f>
+        <v>3.4802647331014653</v>
+      </c>
+      <c r="V46">
+        <f>V36*EXP(V37*M28)</f>
+        <v>4.278039946052929</v>
+      </c>
+      <c r="W46">
+        <f>W36*EXP(W37*M28)</f>
+        <v>5.5068434949443636</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="N47">
+        <f>N36*EXP(N37*M29)</f>
+        <v>1.1254141258081578</v>
+      </c>
+      <c r="O47">
+        <f>O36*EXP(O37*M29)</f>
+        <v>1.2761637608210674</v>
+      </c>
+      <c r="P47">
+        <f>P36*EXP(P37*M29)</f>
+        <v>1.4698830605236937</v>
+      </c>
+      <c r="Q47">
+        <f>Q36*EXP(Q37*M29)</f>
+        <v>1.6952884989358505</v>
+      </c>
+      <c r="R47">
+        <f>R36*EXP(R37*M29)</f>
+        <v>1.9748767352430938</v>
+      </c>
+      <c r="S47">
+        <f>S36*EXP(S37*M29)</f>
+        <v>2.3195419319244195</v>
+      </c>
+      <c r="T47">
+        <f>T36*EXP(T37*M29)</f>
+        <v>2.7352719896924929</v>
+      </c>
+      <c r="U47">
+        <f>U36*EXP(U37*M29)</f>
+        <v>3.2691483853622119</v>
+      </c>
+      <c r="V47">
+        <f>V36*EXP(V37*M29)</f>
+        <v>3.9619292292710244</v>
+      </c>
+      <c r="W47">
+        <f>W36*EXP(W37*M29)</f>
+        <v>4.939846347696724</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="N48">
+        <f>N36*EXP(N37*M30)</f>
+        <v>1.1144218808731603</v>
+      </c>
+      <c r="O48">
+        <f>O36*EXP(O37*M30)</f>
+        <v>1.2526277535551691</v>
+      </c>
+      <c r="P48">
+        <f>P36*EXP(P37*M30)</f>
+        <v>1.4280811917367884</v>
+      </c>
+      <c r="Q48">
+        <f>Q36*EXP(Q37*M30)</f>
+        <v>1.6409940103445599</v>
+      </c>
+      <c r="R48">
+        <f>R36*EXP(R37*M30)</f>
+        <v>1.9080773233270796</v>
+      </c>
+      <c r="S48">
+        <f>S36*EXP(S37*M30)</f>
+        <v>2.2392757402695347</v>
+      </c>
+      <c r="T48">
+        <f>T36*EXP(T37*M30)</f>
+        <v>2.6162404085266235</v>
+      </c>
+      <c r="U48">
+        <f>U36*EXP(U37*M30)</f>
+        <v>3.0708385669248388</v>
+      </c>
+      <c r="V48">
+        <f>V36*EXP(V37*M30)</f>
+        <v>3.6691764022060132</v>
+      </c>
+      <c r="W48">
+        <f>W36*EXP(W37*M30)</f>
+        <v>4.4312285179804611</v>
+      </c>
+    </row>
+    <row r="49" spans="14:23" x14ac:dyDescent="0.25">
+      <c r="N49">
+        <f>N36*EXP(N37*M31)</f>
+        <v>1.1035370003704552</v>
+      </c>
+      <c r="O49">
+        <f>O36*EXP(O37*M31)</f>
+        <v>1.2295258156893167</v>
+      </c>
+      <c r="P49">
+        <f>P36*EXP(P37*M31)</f>
+        <v>1.3874681224408134</v>
+      </c>
+      <c r="Q49">
+        <f>Q36*EXP(Q37*M31)</f>
+        <v>1.5884383948083516</v>
+      </c>
+      <c r="R49">
+        <f>R36*EXP(R37*M31)</f>
+        <v>1.8435373746741111</v>
+      </c>
+      <c r="S49">
+        <f>S36*EXP(S37*M31)</f>
+        <v>2.1617871063014098</v>
+      </c>
+      <c r="T49">
+        <f>T36*EXP(T37*M31)</f>
+        <v>2.5023887573158876</v>
+      </c>
+      <c r="U49">
+        <f>U36*EXP(U37*M31)</f>
+        <v>2.8845584208831121</v>
+      </c>
+      <c r="V49">
+        <f>V36*EXP(V37*M31)</f>
+        <v>3.3980555157424068</v>
+      </c>
+      <c r="W49">
+        <f>W36*EXP(W37*M31)</f>
+        <v>3.9749791383124276</v>
+      </c>
+    </row>
+    <row r="50" spans="14:23" x14ac:dyDescent="0.25">
+      <c r="N50">
+        <f>N36*EXP(N37*M32)</f>
+        <v>1.0927584356406108</v>
+      </c>
+      <c r="O50">
+        <f>O36*EXP(O37*M32)</f>
+        <v>1.2068499417771357</v>
+      </c>
+      <c r="P50">
+        <f>P36*EXP(P37*M32)</f>
+        <v>1.3480100444766923</v>
+      </c>
+      <c r="Q50">
+        <f>Q36*EXP(Q37*M32)</f>
+        <v>1.5375659619693243</v>
+      </c>
+      <c r="R50">
+        <f>R36*EXP(R37*M32)</f>
+        <v>1.7811804638473376</v>
+      </c>
+      <c r="S50">
+        <f>S36*EXP(S37*M32)</f>
+        <v>2.0869799145006187</v>
+      </c>
+      <c r="T50">
+        <f>T36*EXP(T37*M32)</f>
+        <v>2.393491619628132</v>
+      </c>
+      <c r="U50">
+        <f>U36*EXP(U37*M32)</f>
+        <v>2.7095782152495436</v>
+      </c>
+      <c r="V50">
+        <f>V36*EXP(V37*M32)</f>
+        <v>3.1469681537047762</v>
+      </c>
+      <c r="W50">
+        <f>W36*EXP(W37*M32)</f>
+        <v>3.5657062338143848</v>
+      </c>
+    </row>
+    <row r="51" spans="14:23" x14ac:dyDescent="0.25">
+      <c r="N51">
+        <f>N36*EXP(N37*M33)</f>
+        <v>1.0820851482667559</v>
+      </c>
+      <c r="O51">
+        <f>O36*EXP(O37*M33)</f>
+        <v>1.1845922740149351</v>
+      </c>
+      <c r="P51">
+        <f>P36*EXP(P37*M33)</f>
+        <v>1.3096741111524666</v>
+      </c>
+      <c r="Q51">
+        <f>Q36*EXP(Q37*M33)</f>
+        <v>1.4883228050477135</v>
+      </c>
+      <c r="R51">
+        <f>R36*EXP(R37*M33)</f>
+        <v>1.7209327504695962</v>
+      </c>
+      <c r="S51">
+        <f>S36*EXP(S37*M33)</f>
+        <v>2.0147613753607709</v>
+      </c>
+      <c r="T51">
+        <f>T36*EXP(T37*M33)</f>
+        <v>2.289333388539887</v>
+      </c>
+      <c r="U51">
+        <f>U36*EXP(U37*M33)</f>
+        <v>2.5452124843105781</v>
+      </c>
+      <c r="V51">
+        <f>V36*EXP(V37*M33)</f>
+        <v>2.9144340092596615</v>
+      </c>
+      <c r="W51">
+        <f>W36*EXP(W37*M33)</f>
+        <v>3.1985729996209709</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BE9C507-FF53-4EF1-9CF1-E9379C014A72}">
+  <sheetPr>
+    <tabColor theme="6"/>
+  </sheetPr>
   <dimension ref="A1:W50"/>
   <sheetViews>
     <sheetView topLeftCell="L13" workbookViewId="0">
@@ -14417,7 +18123,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9AFF406-A572-4ABA-A12A-8BB55B0FA807}">
   <sheetPr>
     <tabColor theme="6"/>
@@ -16723,7 +20429,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{250CF625-9016-412C-B7EF-DD8968E4A146}">
   <sheetPr>
     <tabColor theme="6"/>
@@ -18944,7 +22650,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A93E061A-EF42-4F1C-9189-91FA097163FE}">
   <sheetPr>
     <tabColor theme="6"/>
@@ -21129,7 +24835,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr>
     <tabColor theme="6"/>
@@ -23279,7 +26985,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E47E916-1EBA-4113-8160-E1F30637C25A}">
   <sheetPr>
     <tabColor theme="6"/>
@@ -25394,7 +29100,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE508726-679D-4A30-B1B9-70AA2F25C071}">
   <sheetPr>
     <tabColor theme="6"/>

--- a/lombardia/COVID-19_lombardia.xlsx
+++ b/lombardia/COVID-19_lombardia.xlsx
@@ -8,30 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\tmp\parse_COVID-19\lombardia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67EADBA1-3CC2-43C5-A63B-50B1A32E7154}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0752741C-2D0C-4973-921E-E9209AB04EFA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="934" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="934" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="32" r:id="rId1"/>
-    <sheet name="Lombardia 26-03" sheetId="39" r:id="rId2"/>
-    <sheet name="g Lombardia 26-03 (X^a)" sheetId="40" r:id="rId3"/>
-    <sheet name="Lombardia 25-03" sheetId="36" r:id="rId4"/>
-    <sheet name="g Lombardia 25-03 (X^2)" sheetId="37" r:id="rId5"/>
-    <sheet name="g Lombardia 25-03 (EXP)" sheetId="38" r:id="rId6"/>
-    <sheet name="Lombardia 24-03" sheetId="33" r:id="rId7"/>
-    <sheet name="g Lombardia 24-03 (X^2)" sheetId="34" r:id="rId8"/>
-    <sheet name="g Lombardia 24-03 (EXP)" sheetId="35" r:id="rId9"/>
-    <sheet name="Lombardia 23-03" sheetId="28" r:id="rId10"/>
-    <sheet name="g Lombardia 23-03 (EXP)" sheetId="29" r:id="rId11"/>
-    <sheet name="Lombardia 22-03" sheetId="30" r:id="rId12"/>
-    <sheet name="g Lombardia 22-03 (EXP)" sheetId="31" r:id="rId13"/>
-    <sheet name="Lombardia 21-03" sheetId="12" r:id="rId14"/>
-    <sheet name="g Lombardia 21-03 (EXP)" sheetId="22" r:id="rId15"/>
-    <sheet name="Lombardia 20-03" sheetId="23" r:id="rId16"/>
-    <sheet name="g Lombardia 20-03 (LN)" sheetId="25" r:id="rId17"/>
-    <sheet name="Lombardia 19-03" sheetId="26" r:id="rId18"/>
-    <sheet name="g Lombardia 19-03 (EXP)" sheetId="27" r:id="rId19"/>
+    <sheet name="Lombardia 27-03" sheetId="41" r:id="rId2"/>
+    <sheet name="g Lombardia 27-03 (LN)" sheetId="42" r:id="rId3"/>
+    <sheet name="Lombardia 26-03" sheetId="39" r:id="rId4"/>
+    <sheet name="g Lombardia 26-03 (X^a)" sheetId="40" r:id="rId5"/>
+    <sheet name="Lombardia 25-03" sheetId="36" r:id="rId6"/>
+    <sheet name="g Lombardia 25-03 (X^2)" sheetId="37" r:id="rId7"/>
+    <sheet name="g Lombardia 25-03 (EXP)" sheetId="38" r:id="rId8"/>
+    <sheet name="Lombardia 24-03" sheetId="33" r:id="rId9"/>
+    <sheet name="g Lombardia 24-03 (X^2)" sheetId="34" r:id="rId10"/>
+    <sheet name="g Lombardia 24-03 (EXP)" sheetId="35" r:id="rId11"/>
+    <sheet name="Lombardia 23-03" sheetId="28" r:id="rId12"/>
+    <sheet name="g Lombardia 23-03 (EXP)" sheetId="29" r:id="rId13"/>
+    <sheet name="Lombardia 22-03" sheetId="30" r:id="rId14"/>
+    <sheet name="g Lombardia 22-03 (EXP)" sheetId="31" r:id="rId15"/>
+    <sheet name="Lombardia 21-03" sheetId="12" r:id="rId16"/>
+    <sheet name="g Lombardia 21-03 (EXP)" sheetId="22" r:id="rId17"/>
+    <sheet name="Lombardia 20-03" sheetId="23" r:id="rId18"/>
+    <sheet name="g Lombardia 20-03 (LN)" sheetId="25" r:id="rId19"/>
+    <sheet name="Lombardia 19-03" sheetId="26" r:id="rId20"/>
+    <sheet name="g Lombardia 19-03 (EXP)" sheetId="27" r:id="rId21"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="90">
   <si>
     <t>Data</t>
   </si>
@@ -302,6 +304,21 @@
   <si>
     <t>(1/a)^-d</t>
   </si>
+  <si>
+    <t>27/03/2020</t>
+  </si>
+  <si>
+    <t>Estimated days from peak since 17/03/2020</t>
+  </si>
+  <si>
+    <t>y = -1.795ln(x) + 7.503</t>
+  </si>
+  <si>
+    <t>R² = 0.9881</t>
+  </si>
+  <si>
+    <t>y = 10.569x-0.468</t>
+  </si>
 </sst>
 </file>
 
@@ -376,10 +393,10 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -542,14 +559,14 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="power"/>
+            <c:trendlineType val="log"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="1.5685192034608806E-2"/>
-                  <c:y val="-0.1040320142560604"/>
+                  <c:x val="-4.7162849901491912E-3"/>
+                  <c:y val="-6.9888334877860558E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -571,37 +588,29 @@
                       </a:defRPr>
                     </a:pPr>
                     <a:r>
-                      <a:rPr lang="en-US" sz="1400" b="1" baseline="0">
+                      <a:rPr lang="en-US" sz="1400" baseline="0">
                         <a:solidFill>
                           <a:srgbClr val="FF0000"/>
                         </a:solidFill>
                       </a:rPr>
-                      <a:t>y = 10.569x</a:t>
-                    </a:r>
-                    <a:r>
-                      <a:rPr lang="en-US" sz="1400" b="1" baseline="30000">
-                        <a:solidFill>
-                          <a:srgbClr val="FF0000"/>
-                        </a:solidFill>
-                      </a:rPr>
-                      <a:t>-0.468</a:t>
+                      <a:t>y = -1.795ln(x) + 7.503</a:t>
                     </a:r>
                     <a:br>
-                      <a:rPr lang="en-US" sz="1400" b="1" baseline="0">
+                      <a:rPr lang="en-US" sz="1400" baseline="0">
                         <a:solidFill>
                           <a:srgbClr val="FF0000"/>
                         </a:solidFill>
                       </a:rPr>
                     </a:br>
                     <a:r>
-                      <a:rPr lang="en-US" sz="1400" b="1" baseline="0">
+                      <a:rPr lang="en-US" sz="1400" baseline="0">
                         <a:solidFill>
                           <a:srgbClr val="FF0000"/>
                         </a:solidFill>
                       </a:rPr>
-                      <a:t>R² = 0.9881</a:t>
+                      <a:t>R² = 0.9852</a:t>
                     </a:r>
-                    <a:endParaRPr lang="en-US" sz="1400" b="1">
+                    <a:endParaRPr lang="en-US" sz="1400">
                       <a:solidFill>
                         <a:srgbClr val="FF0000"/>
                       </a:solidFill>
@@ -641,7 +650,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'Lombardia 26-03'!$M$24:$M$33</c:f>
+              <c:f>'Lombardia 27-03'!$M$25:$M$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -680,39 +689,39 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Lombardia 26-03'!$W$24:$W$33</c:f>
+              <c:f>'Lombardia 27-03'!$W$25:$W$34</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>10.64935064935065</c:v>
+                  <c:v>7.3370786516853936</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.3370786516853936</c:v>
+                  <c:v>6.5105105105105103</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.5105105105105103</c:v>
+                  <c:v>5.4465811965811968</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.4465811965811968</c:v>
+                  <c:v>5.0162074554294973</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.0162074554294973</c:v>
+                  <c:v>4.645161290322581</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.645161290322581</c:v>
+                  <c:v>4.2426966292134836</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.2426966292134836</c:v>
+                  <c:v>4.325051759834369</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.325051759834369</c:v>
+                  <c:v>3.6732348111658455</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.6732348111658455</c:v>
+                  <c:v>3.4232394366197183</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.4232394366197183</c:v>
+                  <c:v>3.2939024390243903</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -720,7 +729,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-3B84-486D-A11B-5579E9B4CA33}"/>
+              <c16:uniqueId val="{00000001-96ED-4A1F-B083-8C8ADC7205FA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -791,7 +800,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="it-IT" sz="1400"/>
-                  <a:t>Giorni trascorsi dal 16/3/2020</a:t>
+                  <a:t>Giorni trascorsi dal 17/3/2020</a:t>
                 </a:r>
               </a:p>
               <a:p>
@@ -823,7 +832,7 @@
                   <a:rPr lang="it-IT" sz="1200" b="0" i="0" baseline="0">
                     <a:effectLst/>
                   </a:rPr>
-                  <a:t>Days after March 16, 2020</a:t>
+                  <a:t>Days after March 17, 2020</a:t>
                 </a:r>
                 <a:endParaRPr lang="it-IT" sz="1200">
                   <a:effectLst/>
@@ -1027,6 +1036,626 @@
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>LOMBARDIA</a:t>
+            </a:r>
+            <a:endParaRPr lang="it-IT">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>totale deceduti(i) / totale deceduti(i-10)</a:t>
+            </a:r>
+            <a:endParaRPr lang="it-IT">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>total deceased(i) / total deceased (i-10)</a:t>
+            </a:r>
+            <a:endParaRPr lang="it-IT" sz="1400">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.2266852897393512E-2"/>
+                  <c:y val="-0.26461818098644635"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1400" baseline="0">
+                        <a:solidFill>
+                          <a:srgbClr val="FF0000"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>y = -8.551ln(x) + 25.675</a:t>
+                    </a:r>
+                    <a:br>
+                      <a:rPr lang="en-US" sz="1400" baseline="0">
+                        <a:solidFill>
+                          <a:srgbClr val="FF0000"/>
+                        </a:solidFill>
+                      </a:rPr>
+                    </a:br>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1400" baseline="0">
+                        <a:solidFill>
+                          <a:srgbClr val="FF0000"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>R² = 0.9887</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US" sz="1400">
+                      <a:solidFill>
+                        <a:srgbClr val="FF0000"/>
+                      </a:solidFill>
+                    </a:endParaRPr>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="it-IT"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Lombardia 20-03'!$M$18:$M$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Lombardia 20-03'!$W$18:$W$27</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>25.708333333333332</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19.578947368421051</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.181818181818183</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.232876712328768</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.428571428571429</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.518518518518519</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.64935064935065</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.3370786516853936</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.5105105105105103</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.4465811965811968</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D1A4-4A94-997B-3EF50B719F88}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="211547168"/>
+        <c:axId val="202768784"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="211547168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT" sz="1400"/>
+                  <a:t>Giorni trascorsi dal 10/3/2020</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1400">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT" sz="1200" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Days after March 10, 2020</a:t>
+                </a:r>
+                <a:endParaRPr lang="it-IT" sz="1200">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="202768784"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="202768784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="211547168"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
@@ -1805,6 +2434,635 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
+                  <c:x val="1.5685192034608806E-2"/>
+                  <c:y val="-0.1040320142560604"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1400" b="1" baseline="0">
+                        <a:solidFill>
+                          <a:srgbClr val="FF0000"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>y = 10.569x</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1400" b="1" baseline="30000">
+                        <a:solidFill>
+                          <a:srgbClr val="FF0000"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>-0.468</a:t>
+                    </a:r>
+                    <a:br>
+                      <a:rPr lang="en-US" sz="1400" b="1" baseline="0">
+                        <a:solidFill>
+                          <a:srgbClr val="FF0000"/>
+                        </a:solidFill>
+                      </a:rPr>
+                    </a:br>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1400" b="1" baseline="0">
+                        <a:solidFill>
+                          <a:srgbClr val="FF0000"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>R² = 0.9881</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US" sz="1400" b="1">
+                      <a:solidFill>
+                        <a:srgbClr val="FF0000"/>
+                      </a:solidFill>
+                    </a:endParaRPr>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="it-IT"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Lombardia 26-03'!$M$24:$M$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Lombardia 26-03'!$W$24:$W$33</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10.64935064935065</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.3370786516853936</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.5105105105105103</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.4465811965811968</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0162074554294973</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.645161290322581</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.2426966292134836</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.325051759834369</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.6732348111658455</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.4232394366197183</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3B84-486D-A11B-5579E9B4CA33}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="211547168"/>
+        <c:axId val="202768784"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="211547168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT" sz="1400"/>
+                  <a:t>Giorni trascorsi dal 16/3/2020</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1400">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT" sz="1200" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Days after March 16, 2020</a:t>
+                </a:r>
+                <a:endParaRPr lang="it-IT" sz="1200">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="202768784"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="202768784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="12"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="211547168"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>LOMBARDIA</a:t>
+            </a:r>
+            <a:endParaRPr lang="it-IT">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>totale deceduti(i) / totale deceduti(i-10)</a:t>
+            </a:r>
+            <a:endParaRPr lang="it-IT">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>total deceased(i) / total deceased (i-10)</a:t>
+            </a:r>
+            <a:endParaRPr lang="it-IT" sz="1400">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
                   <c:x val="-5.6811763918162084E-3"/>
                   <c:y val="-7.8898561437210177E-2"/>
                 </c:manualLayout>
@@ -2291,7 +3549,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
@@ -2920,7 +4178,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
@@ -3558,7 +4816,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
@@ -4187,7 +5445,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
@@ -4816,7 +6074,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
@@ -5388,7 +6646,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
@@ -6017,626 +7275,6 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="it-IT"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="it-IT" sz="1800" b="0" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>LOMBARDIA</a:t>
-            </a:r>
-            <a:endParaRPr lang="it-IT">
-              <a:effectLst/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="it-IT" sz="1800" b="0" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>totale deceduti(i) / totale deceduti(i-10)</a:t>
-            </a:r>
-            <a:endParaRPr lang="it-IT">
-              <a:effectLst/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="it-IT" sz="1400" b="0" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>total deceased(i) / total deceased (i-10)</a:t>
-            </a:r>
-            <a:endParaRPr lang="it-IT" sz="1400">
-              <a:effectLst/>
-            </a:endParaRPr>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="log"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-1.2266852897393512E-2"/>
-                  <c:y val="-0.26461818098644635"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:pPr>
-                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                        <a:solidFill>
-                          <a:schemeClr val="tx1">
-                            <a:lumMod val="65000"/>
-                            <a:lumOff val="35000"/>
-                          </a:schemeClr>
-                        </a:solidFill>
-                        <a:latin typeface="+mn-lt"/>
-                        <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:defRPr>
-                    </a:pPr>
-                    <a:r>
-                      <a:rPr lang="en-US" sz="1400" baseline="0">
-                        <a:solidFill>
-                          <a:srgbClr val="FF0000"/>
-                        </a:solidFill>
-                      </a:rPr>
-                      <a:t>y = -8.551ln(x) + 25.675</a:t>
-                    </a:r>
-                    <a:br>
-                      <a:rPr lang="en-US" sz="1400" baseline="0">
-                        <a:solidFill>
-                          <a:srgbClr val="FF0000"/>
-                        </a:solidFill>
-                      </a:rPr>
-                    </a:br>
-                    <a:r>
-                      <a:rPr lang="en-US" sz="1400" baseline="0">
-                        <a:solidFill>
-                          <a:srgbClr val="FF0000"/>
-                        </a:solidFill>
-                      </a:rPr>
-                      <a:t>R² = 0.9887</a:t>
-                    </a:r>
-                    <a:endParaRPr lang="en-US" sz="1400">
-                      <a:solidFill>
-                        <a:srgbClr val="FF0000"/>
-                      </a:solidFill>
-                    </a:endParaRPr>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="it-IT"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Lombardia 20-03'!$M$18:$M$27</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Lombardia 20-03'!$W$18:$W$27</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>25.708333333333332</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>19.578947368421051</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>16.181818181818183</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>13.232876712328768</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12.428571428571429</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10.518518518518519</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10.64935064935065</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7.3370786516853936</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>6.5105105105105103</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5.4465811965811968</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-D1A4-4A94-997B-3EF50B719F88}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="211547168"/>
-        <c:axId val="202768784"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="211547168"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-                  <a:lnSpc>
-                    <a:spcPct val="100000"/>
-                  </a:lnSpc>
-                  <a:spcBef>
-                    <a:spcPts val="0"/>
-                  </a:spcBef>
-                  <a:spcAft>
-                    <a:spcPts val="0"/>
-                  </a:spcAft>
-                  <a:buClrTx/>
-                  <a:buSzTx/>
-                  <a:buFontTx/>
-                  <a:buNone/>
-                  <a:tabLst/>
-                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:sysClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="it-IT" sz="1400"/>
-                  <a:t>Giorni trascorsi dal 10/3/2020</a:t>
-                </a:r>
-              </a:p>
-              <a:p>
-                <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-                  <a:lnSpc>
-                    <a:spcPct val="100000"/>
-                  </a:lnSpc>
-                  <a:spcBef>
-                    <a:spcPts val="0"/>
-                  </a:spcBef>
-                  <a:spcAft>
-                    <a:spcPts val="0"/>
-                  </a:spcAft>
-                  <a:buClrTx/>
-                  <a:buSzTx/>
-                  <a:buFontTx/>
-                  <a:buNone/>
-                  <a:tabLst/>
-                  <a:defRPr sz="1400">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:sysClr>
-                    </a:solidFill>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="it-IT" sz="1200" b="0" i="0" baseline="0">
-                    <a:effectLst/>
-                  </a:rPr>
-                  <a:t>Days after March 10, 2020</a:t>
-                </a:r>
-                <a:endParaRPr lang="it-IT" sz="1200">
-                  <a:effectLst/>
-                </a:endParaRPr>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-                <a:lnSpc>
-                  <a:spcPct val="100000"/>
-                </a:lnSpc>
-                <a:spcBef>
-                  <a:spcPts val="0"/>
-                </a:spcBef>
-                <a:spcAft>
-                  <a:spcPts val="0"/>
-                </a:spcAft>
-                <a:buClrTx/>
-                <a:buSzTx/>
-                <a:buFontTx/>
-                <a:buNone/>
-                <a:tabLst/>
-                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:sysClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="it-IT"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="202768784"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-        <c:majorUnit val="1"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="202768784"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="211547168"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="it-IT"/>
-    </a:p>
-  </c:txPr>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -6678,6 +7316,46 @@
 </file>
 
 <file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -7554,6 +8232,522 @@
 </file>
 
 <file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -12198,12 +13392,12 @@
 </file>
 
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{2699C652-C670-4639-A440-E9ACA3BFDEFE}">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{16843318-C76D-4E9A-A296-0BE4F933F0E0}">
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="116" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="121" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -12211,6 +13405,19 @@
 </file>
 
 <file path=xl/chartsheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{0867B63D-DA25-4316-A01F-4819A0895E7C}">
+  <sheetPr>
+    <tabColor theme="9"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView zoomScale="121" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{60A1EAB3-EF49-4BCE-A2D3-73312D67A9DB}">
   <sheetPr>
     <tabColor theme="9"/>
@@ -12224,6 +13431,19 @@
 </file>
 
 <file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{2699C652-C670-4639-A440-E9ACA3BFDEFE}">
+  <sheetPr>
+    <tabColor theme="9"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView zoomScale="121" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{E86A2FCD-8547-4EDC-ABA7-D8249DD5E08B}">
   <sheetPr>
     <tabColor theme="9"/>
@@ -12236,7 +13456,7 @@
 </chartsheet>
 </file>
 
-<file path=xl/chartsheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/chartsheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{0D09F622-3B08-4016-A6DB-2E26D8D0634E}">
   <sheetPr>
     <tabColor theme="9"/>
@@ -12249,7 +13469,7 @@
 </chartsheet>
 </file>
 
-<file path=xl/chartsheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/chartsheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{DB54D20F-8F6B-4BF5-A75C-7060A9A7A4A5}">
   <sheetPr>
     <tabColor theme="9"/>
@@ -12262,7 +13482,7 @@
 </chartsheet>
 </file>
 
-<file path=xl/chartsheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/chartsheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{DDB96DAD-48A1-4D35-9701-6E7BA71EE9E0}">
   <sheetPr>
     <tabColor theme="9"/>
@@ -12275,7 +13495,7 @@
 </chartsheet>
 </file>
 
-<file path=xl/chartsheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/chartsheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{8F8AC3FF-F7F6-43AE-B599-2987677BDD39}">
   <sheetPr>
     <tabColor theme="9"/>
@@ -12288,7 +13508,7 @@
 </chartsheet>
 </file>
 
-<file path=xl/chartsheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/chartsheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{6163AFED-0AB9-413A-8E5D-55C1877518F7}">
   <sheetPr>
     <tabColor theme="9"/>
@@ -12301,21 +13521,8 @@
 </chartsheet>
 </file>
 
-<file path=xl/chartsheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/chartsheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{946A6D0C-2D9E-4A64-9F48-50B14521F1E0}">
-  <sheetPr>
-    <tabColor theme="9"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView zoomScale="121" workbookViewId="0" zoomToFit="1"/>
-  </sheetViews>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</chartsheet>
-</file>
-
-<file path=xl/chartsheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{0867B63D-DA25-4316-A01F-4819A0895E7C}">
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
@@ -12337,7 +13544,7 @@
         <xdr:cNvPr id="2" name="Grafico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{111C1B27-0E7A-4CB7-8631-7D0056B2EFA7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CA18325-A5CE-4D93-AF0A-0D96851F2DD6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12361,6 +13568,39 @@
 </file>
 
 <file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9304587" cy="6077107"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Grafico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB3AD767-CB7D-403F-83A9-E00AA209B994}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
@@ -12403,7 +13643,7 @@
         <xdr:cNvPr id="2" name="Grafico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B8E84AA-613D-4DBC-9468-85613EE98249}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{111C1B27-0E7A-4CB7-8631-7D0056B2EFA7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12436,6 +13676,39 @@
         <xdr:cNvPr id="2" name="Grafico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B8E84AA-613D-4DBC-9468-85613EE98249}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9303297" cy="6076293"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Grafico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66A49C33-4C79-4C88-98D9-06F8680FF603}"/>
             </a:ext>
           </a:extLst>
@@ -12459,7 +13732,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
@@ -12492,7 +13765,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
@@ -12525,7 +13798,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
@@ -12558,7 +13831,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
@@ -12591,7 +13864,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
@@ -12602,39 +13875,6 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB05902A-D3BB-426E-A1C2-0BFE4454B7DE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks noGrp="1"/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:absoluteAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:absoluteAnchor>
-    <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9304587" cy="6077107"/>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Grafico 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB3AD767-CB7D-403F-83A9-E00AA209B994}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12978,10 +14218,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C81204A6-BF5F-4707-8639-B58903F8FBA7}">
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13175,7 +14415,7 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
+      <c r="A7" s="10">
         <v>43914</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -13198,12 +14438,12 @@
         <v>20</v>
       </c>
       <c r="I7" s="8">
-        <f t="shared" ref="I7:I11" si="1">A7-10+H7</f>
+        <f t="shared" ref="I7:I9" si="1">A7-10+H7</f>
         <v>43924</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="9"/>
+      <c r="A8" s="10"/>
       <c r="B8" s="7" t="s">
         <v>75</v>
       </c>
@@ -13231,7 +14471,7 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="9">
+      <c r="A9" s="10">
         <v>43915</v>
       </c>
       <c r="B9" s="7" t="s">
@@ -13256,7 +14496,7 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="9"/>
+      <c r="A10" s="10"/>
       <c r="B10" s="7" t="s">
         <v>80</v>
       </c>
@@ -13284,12 +14524,52 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="I11" s="8"/>
+      <c r="A11" s="8">
+        <v>43916</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="H11" s="7">
+        <v>154</v>
+      </c>
+      <c r="I11" s="8">
+        <f>A11-10+H11</f>
+        <v>44060</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
+        <v>43917</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12" s="7">
+        <v>-1.7949999999999999</v>
+      </c>
+      <c r="D12" s="7">
+        <v>7.5030000000000001</v>
+      </c>
+      <c r="G12" s="7">
+        <v>0.98519999999999996</v>
+      </c>
+      <c r="H12" s="7">
+        <f>INT(0.5+EXP((1-D12)/C12))</f>
+        <v>37</v>
+      </c>
+      <c r="I12" s="8">
+        <f>A12-10+H12</f>
+        <v>43944</v>
+      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C14" s="10"/>
+      <c r="C14" s="9"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B16" s="7" t="s">
+        <v>88</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -13300,7 +14580,4600 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE508726-679D-4A30-B1B9-70AA2F25C071}">
+  <sheetPr>
+    <tabColor theme="6"/>
+  </sheetPr>
+  <dimension ref="A1:W44"/>
+  <sheetViews>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17:M26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="13" max="13" width="39.85546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" t="s">
+        <v>16</v>
+      </c>
+      <c r="T1" t="s">
+        <v>17</v>
+      </c>
+      <c r="U1" t="s">
+        <v>18</v>
+      </c>
+      <c r="V1" t="s">
+        <v>19</v>
+      </c>
+      <c r="W1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2">
+        <v>19</v>
+      </c>
+      <c r="C2">
+        <v>166</v>
+      </c>
+      <c r="D2">
+        <v>1463</v>
+      </c>
+      <c r="E2">
+        <v>172</v>
+      </c>
+      <c r="F2">
+        <v>76</v>
+      </c>
+      <c r="G2">
+        <v>166</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>95</v>
+      </c>
+      <c r="J2">
+        <v>6</v>
+      </c>
+      <c r="K2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3">
+        <v>25</v>
+      </c>
+      <c r="C3">
+        <v>65</v>
+      </c>
+      <c r="D3">
+        <v>3700</v>
+      </c>
+      <c r="E3">
+        <v>240</v>
+      </c>
+      <c r="F3">
+        <v>79</v>
+      </c>
+      <c r="G3">
+        <v>231</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>104</v>
+      </c>
+      <c r="J3">
+        <v>9</v>
+      </c>
+      <c r="K3">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4">
+        <v>25</v>
+      </c>
+      <c r="C4">
+        <v>18</v>
+      </c>
+      <c r="D4">
+        <v>3208</v>
+      </c>
+      <c r="E4">
+        <v>258</v>
+      </c>
+      <c r="F4">
+        <v>79</v>
+      </c>
+      <c r="G4">
+        <v>249</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>104</v>
+      </c>
+      <c r="J4">
+        <v>9</v>
+      </c>
+      <c r="K4">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5">
+        <v>41</v>
+      </c>
+      <c r="C5">
+        <v>100</v>
+      </c>
+      <c r="D5">
+        <v>3320</v>
+      </c>
+      <c r="E5">
+        <v>403</v>
+      </c>
+      <c r="F5">
+        <v>172</v>
+      </c>
+      <c r="G5">
+        <v>349</v>
+      </c>
+      <c r="H5">
+        <v>40</v>
+      </c>
+      <c r="I5">
+        <v>213</v>
+      </c>
+      <c r="J5">
+        <v>14</v>
+      </c>
+      <c r="K5">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6">
+        <v>47</v>
+      </c>
+      <c r="C6">
+        <v>125</v>
+      </c>
+      <c r="D6">
+        <v>4835</v>
+      </c>
+      <c r="E6">
+        <v>531</v>
+      </c>
+      <c r="F6">
+        <v>235</v>
+      </c>
+      <c r="G6">
+        <v>474</v>
+      </c>
+      <c r="H6">
+        <v>40</v>
+      </c>
+      <c r="I6">
+        <v>282</v>
+      </c>
+      <c r="J6">
+        <v>17</v>
+      </c>
+      <c r="K6">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7">
+        <v>80</v>
+      </c>
+      <c r="C7">
+        <v>78</v>
+      </c>
+      <c r="D7">
+        <v>5723</v>
+      </c>
+      <c r="E7">
+        <v>615</v>
+      </c>
+      <c r="F7">
+        <v>256</v>
+      </c>
+      <c r="G7">
+        <v>552</v>
+      </c>
+      <c r="H7">
+        <v>40</v>
+      </c>
+      <c r="I7">
+        <v>336</v>
+      </c>
+      <c r="J7">
+        <v>23</v>
+      </c>
+      <c r="K7">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8">
+        <v>106</v>
+      </c>
+      <c r="C8">
+        <v>335</v>
+      </c>
+      <c r="D8">
+        <v>6879</v>
+      </c>
+      <c r="E8">
+        <v>984</v>
+      </c>
+      <c r="F8">
+        <v>406</v>
+      </c>
+      <c r="G8">
+        <v>887</v>
+      </c>
+      <c r="H8">
+        <v>73</v>
+      </c>
+      <c r="I8">
+        <v>512</v>
+      </c>
+      <c r="J8">
+        <v>24</v>
+      </c>
+      <c r="K8">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9">
+        <v>127</v>
+      </c>
+      <c r="C9">
+        <v>190</v>
+      </c>
+      <c r="D9">
+        <v>7925</v>
+      </c>
+      <c r="E9">
+        <v>1254</v>
+      </c>
+      <c r="F9">
+        <v>478</v>
+      </c>
+      <c r="G9">
+        <v>1077</v>
+      </c>
+      <c r="H9">
+        <v>139</v>
+      </c>
+      <c r="I9">
+        <v>605</v>
+      </c>
+      <c r="J9">
+        <v>38</v>
+      </c>
+      <c r="K9">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10">
+        <v>167</v>
+      </c>
+      <c r="C10">
+        <v>249</v>
+      </c>
+      <c r="D10">
+        <v>9577</v>
+      </c>
+      <c r="E10">
+        <v>1520</v>
+      </c>
+      <c r="F10">
+        <v>698</v>
+      </c>
+      <c r="G10">
+        <v>1326</v>
+      </c>
+      <c r="H10">
+        <v>139</v>
+      </c>
+      <c r="I10">
+        <v>865</v>
+      </c>
+      <c r="J10">
+        <v>55</v>
+      </c>
+      <c r="K10">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11">
+        <v>209</v>
+      </c>
+      <c r="C11">
+        <v>171</v>
+      </c>
+      <c r="D11">
+        <v>12138</v>
+      </c>
+      <c r="E11">
+        <v>1820</v>
+      </c>
+      <c r="F11">
+        <v>877</v>
+      </c>
+      <c r="G11">
+        <v>1497</v>
+      </c>
+      <c r="H11">
+        <v>250</v>
+      </c>
+      <c r="I11">
+        <v>1086</v>
+      </c>
+      <c r="J11">
+        <v>73</v>
+      </c>
+      <c r="K11">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12">
+        <v>244</v>
+      </c>
+      <c r="C12">
+        <v>280</v>
+      </c>
+      <c r="D12">
+        <v>12354</v>
+      </c>
+      <c r="E12">
+        <v>2251</v>
+      </c>
+      <c r="F12">
+        <v>1169</v>
+      </c>
+      <c r="G12">
+        <v>1777</v>
+      </c>
+      <c r="H12">
+        <v>376</v>
+      </c>
+      <c r="I12">
+        <v>1413</v>
+      </c>
+      <c r="J12">
+        <v>98</v>
+      </c>
+      <c r="K12">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13">
+        <v>309</v>
+      </c>
+      <c r="C13">
+        <v>231</v>
+      </c>
+      <c r="D13">
+        <v>13556</v>
+      </c>
+      <c r="E13">
+        <v>2612</v>
+      </c>
+      <c r="F13">
+        <v>1622</v>
+      </c>
+      <c r="G13">
+        <v>2008</v>
+      </c>
+      <c r="H13">
+        <v>469</v>
+      </c>
+      <c r="I13">
+        <v>1931</v>
+      </c>
+      <c r="J13">
+        <v>135</v>
+      </c>
+      <c r="K13">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14">
+        <v>359</v>
+      </c>
+      <c r="C14">
+        <v>734</v>
+      </c>
+      <c r="D14">
+        <v>15778</v>
+      </c>
+      <c r="E14">
+        <v>3420</v>
+      </c>
+      <c r="F14">
+        <v>1661</v>
+      </c>
+      <c r="G14">
+        <v>2742</v>
+      </c>
+      <c r="H14">
+        <v>524</v>
+      </c>
+      <c r="I14">
+        <v>2020</v>
+      </c>
+      <c r="J14">
+        <v>154</v>
+      </c>
+      <c r="K14">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15">
+        <v>399</v>
+      </c>
+      <c r="C15">
+        <v>630</v>
+      </c>
+      <c r="D15">
+        <v>18534</v>
+      </c>
+      <c r="E15">
+        <v>4189</v>
+      </c>
+      <c r="F15">
+        <v>2217</v>
+      </c>
+      <c r="G15">
+        <v>3372</v>
+      </c>
+      <c r="H15">
+        <v>550</v>
+      </c>
+      <c r="I15">
+        <v>2616</v>
+      </c>
+      <c r="J15">
+        <v>267</v>
+      </c>
+      <c r="K15">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16">
+        <v>440</v>
+      </c>
+      <c r="C16">
+        <v>1118</v>
+      </c>
+      <c r="D16">
+        <v>20135</v>
+      </c>
+      <c r="E16">
+        <v>5469</v>
+      </c>
+      <c r="F16">
+        <v>2802</v>
+      </c>
+      <c r="G16">
+        <v>4490</v>
+      </c>
+      <c r="H16">
+        <v>646</v>
+      </c>
+      <c r="I16">
+        <v>3242</v>
+      </c>
+      <c r="J16">
+        <v>333</v>
+      </c>
+      <c r="K16">
+        <v>1248</v>
+      </c>
+      <c r="N16" s="1">
+        <f t="shared" ref="N16:N26" si="0">J16/J15</f>
+        <v>1.247191011235955</v>
+      </c>
+      <c r="O16" s="1">
+        <f t="shared" ref="O16:O26" si="1">J16/J14</f>
+        <v>2.1623376623376624</v>
+      </c>
+      <c r="P16" s="1">
+        <f t="shared" ref="P16:P26" si="2">J16/J13</f>
+        <v>2.4666666666666668</v>
+      </c>
+      <c r="Q16" s="1">
+        <f t="shared" ref="Q16:Q26" si="3">J16/J12</f>
+        <v>3.3979591836734695</v>
+      </c>
+      <c r="R16" s="1">
+        <f t="shared" ref="R16:R26" si="4">J16/J11</f>
+        <v>4.5616438356164384</v>
+      </c>
+      <c r="S16" s="1">
+        <f t="shared" ref="S16:S26" si="5">J16/J10</f>
+        <v>6.0545454545454547</v>
+      </c>
+      <c r="T16" s="1">
+        <f t="shared" ref="T16:T26" si="6">J16/J9</f>
+        <v>8.7631578947368425</v>
+      </c>
+      <c r="U16" s="1">
+        <f t="shared" ref="U16:U26" si="7">J16/J8</f>
+        <v>13.875</v>
+      </c>
+      <c r="V16" s="1">
+        <f t="shared" ref="V16:V26" si="8">J16/J7</f>
+        <v>14.478260869565217</v>
+      </c>
+      <c r="W16" s="1">
+        <f t="shared" ref="W16:W26" si="9">J16/J6</f>
+        <v>19.588235294117649</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17">
+        <v>466</v>
+      </c>
+      <c r="C17">
+        <v>-63</v>
+      </c>
+      <c r="D17">
+        <v>21479</v>
+      </c>
+      <c r="E17">
+        <v>5791</v>
+      </c>
+      <c r="F17">
+        <v>3319</v>
+      </c>
+      <c r="G17">
+        <v>4427</v>
+      </c>
+      <c r="H17">
+        <v>896</v>
+      </c>
+      <c r="I17">
+        <v>3785</v>
+      </c>
+      <c r="J17">
+        <v>468</v>
+      </c>
+      <c r="K17">
+        <v>642</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+      <c r="N17" s="1">
+        <f t="shared" si="0"/>
+        <v>1.4054054054054055</v>
+      </c>
+      <c r="O17" s="1">
+        <f t="shared" si="1"/>
+        <v>1.752808988764045</v>
+      </c>
+      <c r="P17" s="1">
+        <f t="shared" si="2"/>
+        <v>3.0389610389610389</v>
+      </c>
+      <c r="Q17" s="1">
+        <f t="shared" si="3"/>
+        <v>3.4666666666666668</v>
+      </c>
+      <c r="R17" s="1">
+        <f t="shared" si="4"/>
+        <v>4.7755102040816331</v>
+      </c>
+      <c r="S17" s="1">
+        <f t="shared" si="5"/>
+        <v>6.4109589041095889</v>
+      </c>
+      <c r="T17" s="1">
+        <f t="shared" si="6"/>
+        <v>8.5090909090909097</v>
+      </c>
+      <c r="U17" s="1">
+        <f t="shared" si="7"/>
+        <v>12.315789473684211</v>
+      </c>
+      <c r="V17" s="1">
+        <f t="shared" si="8"/>
+        <v>19.5</v>
+      </c>
+      <c r="W17" s="1">
+        <f t="shared" si="9"/>
+        <v>20.347826086956523</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18">
+        <v>560</v>
+      </c>
+      <c r="C18">
+        <v>1336</v>
+      </c>
+      <c r="D18">
+        <v>25629</v>
+      </c>
+      <c r="E18">
+        <v>7280</v>
+      </c>
+      <c r="F18">
+        <v>3852</v>
+      </c>
+      <c r="G18">
+        <v>5763</v>
+      </c>
+      <c r="H18">
+        <v>900</v>
+      </c>
+      <c r="I18">
+        <v>4412</v>
+      </c>
+      <c r="J18">
+        <v>617</v>
+      </c>
+      <c r="K18">
+        <v>1351</v>
+      </c>
+      <c r="M18">
+        <v>2</v>
+      </c>
+      <c r="N18" s="1">
+        <f t="shared" si="0"/>
+        <v>1.3183760683760684</v>
+      </c>
+      <c r="O18" s="1">
+        <f t="shared" si="1"/>
+        <v>1.8528528528528529</v>
+      </c>
+      <c r="P18" s="1">
+        <f t="shared" si="2"/>
+        <v>2.3108614232209739</v>
+      </c>
+      <c r="Q18" s="1">
+        <f t="shared" si="3"/>
+        <v>4.0064935064935066</v>
+      </c>
+      <c r="R18" s="1">
+        <f t="shared" si="4"/>
+        <v>4.5703703703703704</v>
+      </c>
+      <c r="S18" s="1">
+        <f t="shared" si="5"/>
+        <v>6.295918367346939</v>
+      </c>
+      <c r="T18" s="1">
+        <f t="shared" si="6"/>
+        <v>8.4520547945205475</v>
+      </c>
+      <c r="U18" s="1">
+        <f t="shared" si="7"/>
+        <v>11.218181818181819</v>
+      </c>
+      <c r="V18" s="1">
+        <f t="shared" si="8"/>
+        <v>16.236842105263158</v>
+      </c>
+      <c r="W18" s="1">
+        <f t="shared" si="9"/>
+        <v>25.708333333333332</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19">
+        <v>605</v>
+      </c>
+      <c r="C19">
+        <v>1133</v>
+      </c>
+      <c r="D19">
+        <v>29534</v>
+      </c>
+      <c r="E19">
+        <v>8725</v>
+      </c>
+      <c r="F19">
+        <v>4247</v>
+      </c>
+      <c r="G19">
+        <v>6896</v>
+      </c>
+      <c r="H19">
+        <v>1085</v>
+      </c>
+      <c r="I19">
+        <v>4852</v>
+      </c>
+      <c r="J19">
+        <v>744</v>
+      </c>
+      <c r="K19">
+        <v>2044</v>
+      </c>
+      <c r="M19">
+        <v>3</v>
+      </c>
+      <c r="N19" s="1">
+        <f t="shared" si="0"/>
+        <v>1.2058346839546192</v>
+      </c>
+      <c r="O19" s="1">
+        <f t="shared" si="1"/>
+        <v>1.5897435897435896</v>
+      </c>
+      <c r="P19" s="1">
+        <f t="shared" si="2"/>
+        <v>2.2342342342342341</v>
+      </c>
+      <c r="Q19" s="1">
+        <f t="shared" si="3"/>
+        <v>2.7865168539325844</v>
+      </c>
+      <c r="R19" s="1">
+        <f t="shared" si="4"/>
+        <v>4.8311688311688314</v>
+      </c>
+      <c r="S19" s="1">
+        <f t="shared" si="5"/>
+        <v>5.5111111111111111</v>
+      </c>
+      <c r="T19" s="1">
+        <f t="shared" si="6"/>
+        <v>7.591836734693878</v>
+      </c>
+      <c r="U19" s="1">
+        <f t="shared" si="7"/>
+        <v>10.191780821917808</v>
+      </c>
+      <c r="V19" s="1">
+        <f t="shared" si="8"/>
+        <v>13.527272727272727</v>
+      </c>
+      <c r="W19" s="1">
+        <f t="shared" si="9"/>
+        <v>19.578947368421051</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20">
+        <v>650</v>
+      </c>
+      <c r="C20">
+        <v>836</v>
+      </c>
+      <c r="D20">
+        <v>32700</v>
+      </c>
+      <c r="E20">
+        <v>9820</v>
+      </c>
+      <c r="F20">
+        <v>4435</v>
+      </c>
+      <c r="G20">
+        <v>7732</v>
+      </c>
+      <c r="H20">
+        <v>1198</v>
+      </c>
+      <c r="I20">
+        <v>5085</v>
+      </c>
+      <c r="J20">
+        <v>890</v>
+      </c>
+      <c r="K20">
+        <v>2647</v>
+      </c>
+      <c r="M20">
+        <v>4</v>
+      </c>
+      <c r="N20" s="1">
+        <f t="shared" si="0"/>
+        <v>1.196236559139785</v>
+      </c>
+      <c r="O20" s="1">
+        <f t="shared" si="1"/>
+        <v>1.4424635332252835</v>
+      </c>
+      <c r="P20" s="1">
+        <f t="shared" si="2"/>
+        <v>1.9017094017094016</v>
+      </c>
+      <c r="Q20" s="1">
+        <f t="shared" si="3"/>
+        <v>2.6726726726726726</v>
+      </c>
+      <c r="R20" s="1">
+        <f t="shared" si="4"/>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="S20" s="1">
+        <f t="shared" si="5"/>
+        <v>5.779220779220779</v>
+      </c>
+      <c r="T20" s="1">
+        <f t="shared" si="6"/>
+        <v>6.5925925925925926</v>
+      </c>
+      <c r="U20" s="1">
+        <f t="shared" si="7"/>
+        <v>9.0816326530612237</v>
+      </c>
+      <c r="V20" s="1">
+        <f t="shared" si="8"/>
+        <v>12.191780821917808</v>
+      </c>
+      <c r="W20" s="1">
+        <f t="shared" si="9"/>
+        <v>16.181818181818183</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21">
+        <v>732</v>
+      </c>
+      <c r="C21">
+        <v>1327</v>
+      </c>
+      <c r="D21">
+        <v>37138</v>
+      </c>
+      <c r="E21">
+        <v>11685</v>
+      </c>
+      <c r="F21">
+        <v>4898</v>
+      </c>
+      <c r="G21">
+        <v>9059</v>
+      </c>
+      <c r="H21">
+        <v>1660</v>
+      </c>
+      <c r="I21">
+        <v>5630</v>
+      </c>
+      <c r="J21">
+        <v>966</v>
+      </c>
+      <c r="K21">
+        <v>3429</v>
+      </c>
+      <c r="M21">
+        <v>5</v>
+      </c>
+      <c r="N21" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0853932584269663</v>
+      </c>
+      <c r="O21" s="1">
+        <f t="shared" si="1"/>
+        <v>1.2983870967741935</v>
+      </c>
+      <c r="P21" s="1">
+        <f t="shared" si="2"/>
+        <v>1.5656401944894651</v>
+      </c>
+      <c r="Q21" s="1">
+        <f t="shared" si="3"/>
+        <v>2.0641025641025643</v>
+      </c>
+      <c r="R21" s="1">
+        <f t="shared" si="4"/>
+        <v>2.900900900900901</v>
+      </c>
+      <c r="S21" s="1">
+        <f t="shared" si="5"/>
+        <v>3.6179775280898876</v>
+      </c>
+      <c r="T21" s="1">
+        <f t="shared" si="6"/>
+        <v>6.2727272727272725</v>
+      </c>
+      <c r="U21" s="1">
+        <f t="shared" si="7"/>
+        <v>7.1555555555555559</v>
+      </c>
+      <c r="V21" s="1">
+        <f t="shared" si="8"/>
+        <v>9.8571428571428577</v>
+      </c>
+      <c r="W21" s="1">
+        <f t="shared" si="9"/>
+        <v>13.232876712328768</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22">
+        <v>767</v>
+      </c>
+      <c r="C22">
+        <v>984</v>
+      </c>
+      <c r="D22">
+        <v>40369</v>
+      </c>
+      <c r="E22">
+        <v>13272</v>
+      </c>
+      <c r="F22">
+        <v>5500</v>
+      </c>
+      <c r="G22">
+        <v>10043</v>
+      </c>
+      <c r="H22">
+        <v>2011</v>
+      </c>
+      <c r="I22">
+        <v>6267</v>
+      </c>
+      <c r="J22">
+        <v>1218</v>
+      </c>
+      <c r="K22">
+        <v>3776</v>
+      </c>
+      <c r="M22">
+        <v>6</v>
+      </c>
+      <c r="N22" s="1">
+        <f t="shared" si="0"/>
+        <v>1.2608695652173914</v>
+      </c>
+      <c r="O22" s="1">
+        <f t="shared" si="1"/>
+        <v>1.3685393258426966</v>
+      </c>
+      <c r="P22" s="1">
+        <f t="shared" si="2"/>
+        <v>1.6370967741935485</v>
+      </c>
+      <c r="Q22" s="1">
+        <f t="shared" si="3"/>
+        <v>1.9740680713128038</v>
+      </c>
+      <c r="R22" s="1">
+        <f t="shared" si="4"/>
+        <v>2.6025641025641026</v>
+      </c>
+      <c r="S22" s="1">
+        <f t="shared" si="5"/>
+        <v>3.6576576576576576</v>
+      </c>
+      <c r="T22" s="1">
+        <f t="shared" si="6"/>
+        <v>4.5617977528089888</v>
+      </c>
+      <c r="U22" s="1">
+        <f t="shared" si="7"/>
+        <v>7.9090909090909092</v>
+      </c>
+      <c r="V22" s="1">
+        <f t="shared" si="8"/>
+        <v>9.0222222222222221</v>
+      </c>
+      <c r="W22" s="1">
+        <f t="shared" si="9"/>
+        <v>12.428571428571429</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23">
+        <v>823</v>
+      </c>
+      <c r="C23">
+        <v>818</v>
+      </c>
+      <c r="D23">
+        <v>43565</v>
+      </c>
+      <c r="E23">
+        <v>14649</v>
+      </c>
+      <c r="F23">
+        <v>6171</v>
+      </c>
+      <c r="G23">
+        <v>10861</v>
+      </c>
+      <c r="H23">
+        <v>2368</v>
+      </c>
+      <c r="I23">
+        <v>6994</v>
+      </c>
+      <c r="J23">
+        <v>1420</v>
+      </c>
+      <c r="K23">
+        <v>3867</v>
+      </c>
+      <c r="M23">
+        <v>7</v>
+      </c>
+      <c r="N23" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1658456486042692</v>
+      </c>
+      <c r="O23" s="1">
+        <f t="shared" si="1"/>
+        <v>1.4699792960662525</v>
+      </c>
+      <c r="P23" s="1">
+        <f t="shared" si="2"/>
+        <v>1.595505617977528</v>
+      </c>
+      <c r="Q23" s="1">
+        <f t="shared" si="3"/>
+        <v>1.9086021505376345</v>
+      </c>
+      <c r="R23" s="1">
+        <f t="shared" si="4"/>
+        <v>2.3014586709886546</v>
+      </c>
+      <c r="S23" s="1">
+        <f t="shared" si="5"/>
+        <v>3.0341880341880341</v>
+      </c>
+      <c r="T23" s="1">
+        <f t="shared" si="6"/>
+        <v>4.2642642642642645</v>
+      </c>
+      <c r="U23" s="1">
+        <f t="shared" si="7"/>
+        <v>5.3183520599250933</v>
+      </c>
+      <c r="V23" s="1">
+        <f t="shared" si="8"/>
+        <v>9.220779220779221</v>
+      </c>
+      <c r="W23" s="1">
+        <f t="shared" si="9"/>
+        <v>10.518518518518519</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24">
+        <v>879</v>
+      </c>
+      <c r="C24">
+        <v>1234</v>
+      </c>
+      <c r="D24">
+        <v>46449</v>
+      </c>
+      <c r="E24">
+        <v>16220</v>
+      </c>
+      <c r="F24">
+        <v>6953</v>
+      </c>
+      <c r="G24">
+        <v>12095</v>
+      </c>
+      <c r="H24">
+        <v>2485</v>
+      </c>
+      <c r="I24">
+        <v>7832</v>
+      </c>
+      <c r="J24">
+        <v>1640</v>
+      </c>
+      <c r="K24">
+        <v>4263</v>
+      </c>
+      <c r="M24">
+        <v>8</v>
+      </c>
+      <c r="N24" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1549295774647887</v>
+      </c>
+      <c r="O24" s="1">
+        <f t="shared" si="1"/>
+        <v>1.3464696223316912</v>
+      </c>
+      <c r="P24" s="1">
+        <f t="shared" si="2"/>
+        <v>1.6977225672877847</v>
+      </c>
+      <c r="Q24" s="1">
+        <f t="shared" si="3"/>
+        <v>1.8426966292134832</v>
+      </c>
+      <c r="R24" s="1">
+        <f t="shared" si="4"/>
+        <v>2.204301075268817</v>
+      </c>
+      <c r="S24" s="1">
+        <f t="shared" si="5"/>
+        <v>2.6580226904376012</v>
+      </c>
+      <c r="T24" s="1">
+        <f t="shared" si="6"/>
+        <v>3.5042735042735043</v>
+      </c>
+      <c r="U24" s="1">
+        <f t="shared" si="7"/>
+        <v>4.924924924924925</v>
+      </c>
+      <c r="V24" s="1">
+        <f t="shared" si="8"/>
+        <v>6.1423220973782771</v>
+      </c>
+      <c r="W24" s="1">
+        <f t="shared" si="9"/>
+        <v>10.64935064935065</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25">
+        <v>924</v>
+      </c>
+      <c r="C25">
+        <v>171</v>
+      </c>
+      <c r="D25">
+        <v>48983</v>
+      </c>
+      <c r="E25">
+        <v>17713</v>
+      </c>
+      <c r="F25">
+        <v>7285</v>
+      </c>
+      <c r="G25">
+        <v>12266</v>
+      </c>
+      <c r="H25">
+        <v>3488</v>
+      </c>
+      <c r="I25">
+        <v>8209</v>
+      </c>
+      <c r="J25">
+        <v>1959</v>
+      </c>
+      <c r="K25">
+        <v>4057</v>
+      </c>
+      <c r="M25">
+        <v>9</v>
+      </c>
+      <c r="N25" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1945121951219513</v>
+      </c>
+      <c r="O25" s="1">
+        <f t="shared" si="1"/>
+        <v>1.3795774647887324</v>
+      </c>
+      <c r="P25" s="1">
+        <f t="shared" si="2"/>
+        <v>1.6083743842364533</v>
+      </c>
+      <c r="Q25" s="1">
+        <f t="shared" si="3"/>
+        <v>2.0279503105590062</v>
+      </c>
+      <c r="R25" s="1">
+        <f t="shared" si="4"/>
+        <v>2.2011235955056181</v>
+      </c>
+      <c r="S25" s="1">
+        <f t="shared" si="5"/>
+        <v>2.6330645161290325</v>
+      </c>
+      <c r="T25" s="1">
+        <f t="shared" si="6"/>
+        <v>3.1750405186385739</v>
+      </c>
+      <c r="U25" s="1">
+        <f t="shared" si="7"/>
+        <v>4.1858974358974361</v>
+      </c>
+      <c r="V25" s="1">
+        <f t="shared" si="8"/>
+        <v>5.8828828828828827</v>
+      </c>
+      <c r="W25" s="1">
+        <f t="shared" si="9"/>
+        <v>7.3370786516853936</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26">
+        <v>1006</v>
+      </c>
+      <c r="C26">
+        <v>1672</v>
+      </c>
+      <c r="D26">
+        <v>52244</v>
+      </c>
+      <c r="E26">
+        <v>19884</v>
+      </c>
+      <c r="F26">
+        <v>7387</v>
+      </c>
+      <c r="G26">
+        <v>13938</v>
+      </c>
+      <c r="H26">
+        <v>3778</v>
+      </c>
+      <c r="I26">
+        <v>8393</v>
+      </c>
+      <c r="J26">
+        <v>2168</v>
+      </c>
+      <c r="K26">
+        <v>5545</v>
+      </c>
+      <c r="M26">
+        <v>10</v>
+      </c>
+      <c r="N26" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1066870852475752</v>
+      </c>
+      <c r="O26" s="1">
+        <f t="shared" si="1"/>
+        <v>1.3219512195121952</v>
+      </c>
+      <c r="P26" s="1">
+        <f t="shared" si="2"/>
+        <v>1.5267605633802817</v>
+      </c>
+      <c r="Q26" s="1">
+        <f t="shared" si="3"/>
+        <v>1.7799671592775042</v>
+      </c>
+      <c r="R26" s="1">
+        <f t="shared" si="4"/>
+        <v>2.2443064182194616</v>
+      </c>
+      <c r="S26" s="1">
+        <f t="shared" si="5"/>
+        <v>2.4359550561797754</v>
+      </c>
+      <c r="T26" s="1">
+        <f t="shared" si="6"/>
+        <v>2.913978494623656</v>
+      </c>
+      <c r="U26" s="1">
+        <f t="shared" si="7"/>
+        <v>3.5137763371150728</v>
+      </c>
+      <c r="V26" s="1">
+        <f t="shared" si="8"/>
+        <v>4.6324786324786329</v>
+      </c>
+      <c r="W26" s="1">
+        <f t="shared" si="9"/>
+        <v>6.5105105105105103</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="K29" t="s">
+        <v>50</v>
+      </c>
+      <c r="M29" t="s">
+        <v>51</v>
+      </c>
+      <c r="N29">
+        <f>EXP(INDEX(LINEST(LN(N17:N26),M17:M26),1,2))</f>
+        <v>1.332179617203501</v>
+      </c>
+      <c r="O29">
+        <f>EXP(INDEX(LINEST(LN(O17:O26),M17:M26),1,2))</f>
+        <v>1.7579143558117827</v>
+      </c>
+      <c r="P29">
+        <f>EXP(INDEX(LINEST(LN(P17:P26),M17:M26),1,2))</f>
+        <v>2.6540644756328993</v>
+      </c>
+      <c r="Q29">
+        <f>EXP(INDEX(LINEST(LN(Q17:Q26),M17:M26),1,2))</f>
+        <v>3.748808581578039</v>
+      </c>
+      <c r="R29">
+        <f>EXP(INDEX(LINEST(LN(R17:R26),M17:M26),1,2))</f>
+        <v>5.3599258561994247</v>
+      </c>
+      <c r="S29">
+        <f>EXP(INDEX(LINEST(LN(S17:S26),M17:M26),1,2))</f>
+        <v>7.7529957772168823</v>
+      </c>
+      <c r="T29">
+        <f>EXP(INDEX(LINEST(LN(T17:T26),M17:M26),1,2))</f>
+        <v>10.806307673813693</v>
+      </c>
+      <c r="U29">
+        <f>EXP(INDEX(LINEST(LN(U17:U26),M17:M26),1,2))</f>
+        <v>15.214796377733535</v>
+      </c>
+      <c r="V29">
+        <f>EXP(INDEX(LINEST(LN(V17:V26),M17:M26),1,2))</f>
+        <v>22.194294899432716</v>
+      </c>
+      <c r="W29" s="3">
+        <f>EXP(INDEX(LINEST(LN(W17:W26),M17:M26),1,2))</f>
+        <v>28.5506156199957</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="M30" t="s">
+        <v>52</v>
+      </c>
+      <c r="N30">
+        <f>INDEX(LINEST(LN(N17:N26),M17:M26),1)</f>
+        <v>-1.8086295185367904E-2</v>
+      </c>
+      <c r="O30">
+        <f>INDEX(LINEST(LN(O17:O26),M17:M26),1)</f>
+        <v>-3.2271312369696513E-2</v>
+      </c>
+      <c r="P30">
+        <f>INDEX(LINEST(LN(P17:P26),M17:M26),1)</f>
+        <v>-6.4164813512693389E-2</v>
+      </c>
+      <c r="Q30">
+        <f>INDEX(LINEST(LN(Q17:Q26),M17:M26),1)</f>
+        <v>-8.4170651937022889E-2</v>
+      </c>
+      <c r="R30">
+        <f>INDEX(LINEST(LN(R17:R26),M17:M26),1)</f>
+        <v>-0.1033547005381831</v>
+      </c>
+      <c r="S30">
+        <f>INDEX(LINEST(LN(S17:S26),M17:M26),1)</f>
+        <v>-0.12351083491589877</v>
+      </c>
+      <c r="T30">
+        <f>INDEX(LINEST(LN(T17:T26),M17:M26),1)</f>
+        <v>-0.13326753658733989</v>
+      </c>
+      <c r="U30">
+        <f>INDEX(LINEST(LN(U17:U26),M17:M26),1)</f>
+        <v>-0.14139351935812253</v>
+      </c>
+      <c r="V30">
+        <f>INDEX(LINEST(LN(V17:V26),M17:M26),1)</f>
+        <v>-0.15100903748888886</v>
+      </c>
+      <c r="W30" s="3">
+        <f>INDEX(LINEST(LN(W17:W26),M17:M26),1)</f>
+        <v>-0.14201736865310621</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="M31" t="s">
+        <v>53</v>
+      </c>
+      <c r="N31">
+        <f t="shared" ref="N31:W31" si="10">PEARSON(N17:N26,N35:N44)</f>
+        <v>0.71567557838804075</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="10"/>
+        <v>0.81216646828975403</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="10"/>
+        <v>0.8715252705933999</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="10"/>
+        <v>0.89587930112595515</v>
+      </c>
+      <c r="R31">
+        <f t="shared" si="10"/>
+        <v>0.94242782993434548</v>
+      </c>
+      <c r="S31">
+        <f t="shared" si="10"/>
+        <v>0.96001705799911607</v>
+      </c>
+      <c r="T31">
+        <f t="shared" si="10"/>
+        <v>0.97966664440493856</v>
+      </c>
+      <c r="U31">
+        <f t="shared" si="10"/>
+        <v>0.98180716874696894</v>
+      </c>
+      <c r="V31">
+        <f t="shared" si="10"/>
+        <v>0.99144158320502351</v>
+      </c>
+      <c r="W31" s="3">
+        <f t="shared" si="10"/>
+        <v>0.93750818076259057</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="M32" t="s">
+        <v>68</v>
+      </c>
+      <c r="N32">
+        <f t="shared" ref="N32:W32" si="11">INT(0.5-LN(N29)/N30)</f>
+        <v>16</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="11"/>
+        <v>17</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="11"/>
+        <v>15</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" si="11"/>
+        <v>16</v>
+      </c>
+      <c r="R32">
+        <f t="shared" si="11"/>
+        <v>16</v>
+      </c>
+      <c r="S32">
+        <f t="shared" si="11"/>
+        <v>17</v>
+      </c>
+      <c r="T32">
+        <f t="shared" si="11"/>
+        <v>18</v>
+      </c>
+      <c r="U32">
+        <f t="shared" si="11"/>
+        <v>19</v>
+      </c>
+      <c r="V32">
+        <f t="shared" si="11"/>
+        <v>21</v>
+      </c>
+      <c r="W32">
+        <f t="shared" si="11"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="13:23" x14ac:dyDescent="0.25">
+      <c r="M33" t="s">
+        <v>55</v>
+      </c>
+      <c r="N33" s="2">
+        <f>N32+A16</f>
+        <v>43915</v>
+      </c>
+      <c r="O33" s="2">
+        <f>O32+A16</f>
+        <v>43916</v>
+      </c>
+      <c r="P33" s="2">
+        <f>P32+A16</f>
+        <v>43914</v>
+      </c>
+      <c r="Q33" s="2">
+        <f>Q32+A16</f>
+        <v>43915</v>
+      </c>
+      <c r="R33" s="2">
+        <f>R32+A16</f>
+        <v>43915</v>
+      </c>
+      <c r="S33" s="2">
+        <f>S32+A16</f>
+        <v>43916</v>
+      </c>
+      <c r="T33" s="2">
+        <f>T32+A16</f>
+        <v>43917</v>
+      </c>
+      <c r="U33" s="2">
+        <f>U32+A16</f>
+        <v>43918</v>
+      </c>
+      <c r="V33" s="2">
+        <f>V32+A16</f>
+        <v>43920</v>
+      </c>
+      <c r="W33" s="2">
+        <f>W32+A16</f>
+        <v>43923</v>
+      </c>
+    </row>
+    <row r="35" spans="13:23" x14ac:dyDescent="0.25">
+      <c r="N35">
+        <f>N29*EXP(N30*M17)</f>
+        <v>1.3083020030838928</v>
+      </c>
+      <c r="O35">
+        <f>O29*EXP(O30*M17)</f>
+        <v>1.702089763676583</v>
+      </c>
+      <c r="P35">
+        <f>P29*EXP(P30*M17)</f>
+        <v>2.489115473547475</v>
+      </c>
+      <c r="Q35">
+        <f>Q29*EXP(Q30*M17)</f>
+        <v>3.4461836349249642</v>
+      </c>
+      <c r="R35">
+        <f>R29*EXP(R30*M17)</f>
+        <v>4.8336188994127953</v>
+      </c>
+      <c r="S35">
+        <f>S29*EXP(S30*M17)</f>
+        <v>6.8521912090605523</v>
+      </c>
+      <c r="T35">
+        <f>T29*EXP(T30*M17)</f>
+        <v>9.4580144395920627</v>
+      </c>
+      <c r="U35">
+        <f>U29*EXP(U30*M17)</f>
+        <v>13.208689135981178</v>
+      </c>
+      <c r="V35">
+        <f>V29*EXP(V30*M17)</f>
+        <v>19.08354092457256</v>
+      </c>
+      <c r="W35">
+        <f>W29*EXP(W30*M17)</f>
+        <v>24.770690760395706</v>
+      </c>
+    </row>
+    <row r="36" spans="13:23" x14ac:dyDescent="0.25">
+      <c r="N36">
+        <f>N29*EXP(N30*M18)</f>
+        <v>1.284852364628138</v>
+      </c>
+      <c r="O36">
+        <f>O29*EXP(O30*M18)</f>
+        <v>1.6480379456681538</v>
+      </c>
+      <c r="P36">
+        <f>P29*EXP(P30*M18)</f>
+        <v>2.3344179832616985</v>
+      </c>
+      <c r="Q36">
+        <f>Q29*EXP(Q30*M18)</f>
+        <v>3.1679882787254581</v>
+      </c>
+      <c r="R36">
+        <f>R29*EXP(R30*M18)</f>
+        <v>4.3589915777915689</v>
+      </c>
+      <c r="S36">
+        <f>S29*EXP(S30*M18)</f>
+        <v>6.0560492633702188</v>
+      </c>
+      <c r="T36">
+        <f>T29*EXP(T30*M18)</f>
+        <v>8.2779465326811668</v>
+      </c>
+      <c r="U36">
+        <f>U29*EXP(U30*M18)</f>
+        <v>11.46709192548372</v>
+      </c>
+      <c r="V36">
+        <f>V29*EXP(V30*M18)</f>
+        <v>16.408790451330994</v>
+      </c>
+      <c r="W36">
+        <f>W29*EXP(W30*M18)</f>
+        <v>21.491204565039968</v>
+      </c>
+    </row>
+    <row r="37" spans="13:23" x14ac:dyDescent="0.25">
+      <c r="N37">
+        <f>N29*EXP(N30*M19)</f>
+        <v>1.2618230309203768</v>
+      </c>
+      <c r="O37">
+        <f>O29*EXP(O30*M19)</f>
+        <v>1.595702605305243</v>
+      </c>
+      <c r="P37">
+        <f>P29*EXP(P30*M19)</f>
+        <v>2.1893348775856527</v>
+      </c>
+      <c r="Q37">
+        <f>Q29*EXP(Q30*M19)</f>
+        <v>2.9122504188203</v>
+      </c>
+      <c r="R37">
+        <f>R29*EXP(R30*M19)</f>
+        <v>3.9309693152611009</v>
+      </c>
+      <c r="S37">
+        <f>S29*EXP(S30*M19)</f>
+        <v>5.3524094061869123</v>
+      </c>
+      <c r="T37">
+        <f>T29*EXP(T30*M19)</f>
+        <v>7.2451146311512407</v>
+      </c>
+      <c r="U37">
+        <f>U29*EXP(U30*M19)</f>
+        <v>9.9551284668587368</v>
+      </c>
+      <c r="V37">
+        <f>V29*EXP(V30*M19)</f>
+        <v>14.10893319745491</v>
+      </c>
+      <c r="W37">
+        <f>W29*EXP(W30*M19)</f>
+        <v>18.645902051098741</v>
+      </c>
+    </row>
+    <row r="38" spans="13:23" x14ac:dyDescent="0.25">
+      <c r="N38">
+        <f>N29*EXP(N30*M20)</f>
+        <v>1.2392064685360951</v>
+      </c>
+      <c r="O38">
+        <f>O29*EXP(O30*M20)</f>
+        <v>1.5450292338661065</v>
+      </c>
+      <c r="P38">
+        <f>P29*EXP(P30*M20)</f>
+        <v>2.0532686265189932</v>
+      </c>
+      <c r="Q38">
+        <f>Q29*EXP(Q30*M20)</f>
+        <v>2.6771571596000858</v>
+      </c>
+      <c r="R38">
+        <f>R29*EXP(R30*M20)</f>
+        <v>3.5449758233653585</v>
+      </c>
+      <c r="S38">
+        <f>S29*EXP(S30*M20)</f>
+        <v>4.730524010878872</v>
+      </c>
+      <c r="T38">
+        <f>T29*EXP(T30*M20)</f>
+        <v>6.3411482317849792</v>
+      </c>
+      <c r="U38">
+        <f>U29*EXP(U30*M20)</f>
+        <v>8.6425210014596274</v>
+      </c>
+      <c r="V38">
+        <f>V29*EXP(V30*M20)</f>
+        <v>12.131424102262114</v>
+      </c>
+      <c r="W38">
+        <f>W29*EXP(W30*M20)</f>
+        <v>16.177299985535811</v>
+      </c>
+    </row>
+    <row r="39" spans="13:23" x14ac:dyDescent="0.25">
+      <c r="N39">
+        <f>N29*EXP(N30*M21)</f>
+        <v>1.2169952790777689</v>
+      </c>
+      <c r="O39">
+        <f>O29*EXP(O30*M21)</f>
+        <v>1.49596505361615</v>
+      </c>
+      <c r="P39">
+        <f>P29*EXP(P30*M21)</f>
+        <v>1.9256588363021019</v>
+      </c>
+      <c r="Q39">
+        <f>Q29*EXP(Q30*M21)</f>
+        <v>2.4610419526014837</v>
+      </c>
+      <c r="R39">
+        <f>R29*EXP(R30*M21)</f>
+        <v>3.1968841729333604</v>
+      </c>
+      <c r="S39">
+        <f>S29*EXP(S30*M21)</f>
+        <v>4.1808941953570873</v>
+      </c>
+      <c r="T39">
+        <f>T29*EXP(T30*M21)</f>
+        <v>5.5499689024354906</v>
+      </c>
+      <c r="U39">
+        <f>U29*EXP(U30*M21)</f>
+        <v>7.5029839654334047</v>
+      </c>
+      <c r="V39">
+        <f>V29*EXP(V30*M21)</f>
+        <v>10.431082824567785</v>
+      </c>
+      <c r="W39">
+        <f>W29*EXP(W30*M21)</f>
+        <v>14.035525559708466</v>
+      </c>
+    </row>
+    <row r="40" spans="13:23" x14ac:dyDescent="0.25">
+      <c r="N40">
+        <f>N29*EXP(N30*M22)</f>
+        <v>1.1951821967546779</v>
+      </c>
+      <c r="O40">
+        <f>O29*EXP(O30*M22)</f>
+        <v>1.4484589628384403</v>
+      </c>
+      <c r="P40">
+        <f>P29*EXP(P30*M22)</f>
+        <v>1.8059799414141895</v>
+      </c>
+      <c r="Q40">
+        <f>Q29*EXP(Q30*M22)</f>
+        <v>2.2623727825411937</v>
+      </c>
+      <c r="R40">
+        <f>R29*EXP(R30*M22)</f>
+        <v>2.8829726701632561</v>
+      </c>
+      <c r="S40">
+        <f>S29*EXP(S30*M22)</f>
+        <v>3.6951247330257275</v>
+      </c>
+      <c r="T40">
+        <f>T29*EXP(T30*M22)</f>
+        <v>4.8575043023920079</v>
+      </c>
+      <c r="U40">
+        <f>U29*EXP(U30*M22)</f>
+        <v>6.5136976093021</v>
+      </c>
+      <c r="V40">
+        <f>V29*EXP(V30*M22)</f>
+        <v>8.9690615030682146</v>
+      </c>
+      <c r="W40">
+        <f>W29*EXP(W30*M22)</f>
+        <v>12.177308816265048</v>
+      </c>
+    </row>
+    <row r="41" spans="13:23" x14ac:dyDescent="0.25">
+      <c r="N41">
+        <f>N29*EXP(N30*M23)</f>
+        <v>1.1737600860060982</v>
+      </c>
+      <c r="O41">
+        <f>O29*EXP(O30*M23)</f>
+        <v>1.4024614826098372</v>
+      </c>
+      <c r="P41">
+        <f>P29*EXP(P30*M23)</f>
+        <v>1.6937390400127543</v>
+      </c>
+      <c r="Q41">
+        <f>Q29*EXP(Q30*M23)</f>
+        <v>2.0797413070397961</v>
+      </c>
+      <c r="R41">
+        <f>R29*EXP(R30*M23)</f>
+        <v>2.5998850653640835</v>
+      </c>
+      <c r="S41">
+        <f>S29*EXP(S30*M23)</f>
+        <v>3.2657958213296236</v>
+      </c>
+      <c r="T41">
+        <f>T29*EXP(T30*M23)</f>
+        <v>4.2514378841658962</v>
+      </c>
+      <c r="U41">
+        <f>U29*EXP(U30*M23)</f>
+        <v>5.6548510220596029</v>
+      </c>
+      <c r="V41">
+        <f>V29*EXP(V30*M23)</f>
+        <v>7.7119571955036719</v>
+      </c>
+      <c r="W41">
+        <f>W29*EXP(W30*M23)</f>
+        <v>10.565108472487193</v>
+      </c>
+    </row>
+    <row r="42" spans="13:23" x14ac:dyDescent="0.25">
+      <c r="N42">
+        <f>N29*EXP(N30*M24)</f>
+        <v>1.1527219391670966</v>
+      </c>
+      <c r="O42">
+        <f>O29*EXP(O30*M24)</f>
+        <v>1.3579247052673098</v>
+      </c>
+      <c r="P42">
+        <f>P29*EXP(P30*M24)</f>
+        <v>1.5884738638995755</v>
+      </c>
+      <c r="Q42">
+        <f>Q29*EXP(Q30*M24)</f>
+        <v>1.9118528730482744</v>
+      </c>
+      <c r="R42">
+        <f>R29*EXP(R30*M24)</f>
+        <v>2.3445946689187434</v>
+      </c>
+      <c r="S42">
+        <f>S29*EXP(S30*M24)</f>
+        <v>2.886349749249391</v>
+      </c>
+      <c r="T42">
+        <f>T29*EXP(T30*M24)</f>
+        <v>3.720989824758437</v>
+      </c>
+      <c r="U42">
+        <f>U29*EXP(U30*M24)</f>
+        <v>4.9092454086327626</v>
+      </c>
+      <c r="V42">
+        <f>V29*EXP(V30*M24)</f>
+        <v>6.6310487184122184</v>
+      </c>
+      <c r="W42">
+        <f>W29*EXP(W30*M24)</f>
+        <v>9.1663534792128694</v>
+      </c>
+    </row>
+    <row r="43" spans="13:23" x14ac:dyDescent="0.25">
+      <c r="N43">
+        <f>N29*EXP(N30*M25)</f>
+        <v>1.1320608741761631</v>
+      </c>
+      <c r="O43">
+        <f>O29*EXP(O30*M25)</f>
+        <v>1.3148022445107659</v>
+      </c>
+      <c r="P43">
+        <f>P29*EXP(P30*M25)</f>
+        <v>1.4897508746524766</v>
+      </c>
+      <c r="Q43">
+        <f>Q29*EXP(Q30*M25)</f>
+        <v>1.757517339204822</v>
+      </c>
+      <c r="R43">
+        <f>R29*EXP(R30*M25)</f>
+        <v>2.1143719908065952</v>
+      </c>
+      <c r="S43">
+        <f>S29*EXP(S30*M25)</f>
+        <v>2.550990732666246</v>
+      </c>
+      <c r="T43">
+        <f>T29*EXP(T30*M25)</f>
+        <v>3.2567252899361772</v>
+      </c>
+      <c r="U43">
+        <f>U29*EXP(U30*M25)</f>
+        <v>4.2619496761567968</v>
+      </c>
+      <c r="V43">
+        <f>V29*EXP(V30*M25)</f>
+        <v>5.7016404514787462</v>
+      </c>
+      <c r="W43">
+        <f>W29*EXP(W30*M25)</f>
+        <v>7.9527849926653689</v>
+      </c>
+    </row>
+    <row r="44" spans="13:23" x14ac:dyDescent="0.25">
+      <c r="N44">
+        <f>N29*EXP(N30*M26)</f>
+        <v>1.1117701323239286</v>
+      </c>
+      <c r="O44">
+        <f>O29*EXP(O30*M26)</f>
+        <v>1.2730491870904208</v>
+      </c>
+      <c r="P44">
+        <f>P29*EXP(P30*M26)</f>
+        <v>1.3971634780817075</v>
+      </c>
+      <c r="Q44">
+        <f>Q29*EXP(Q30*M26)</f>
+        <v>1.6156406390627127</v>
+      </c>
+      <c r="R44">
+        <f>R29*EXP(R30*M26)</f>
+        <v>1.9067555576969462</v>
+      </c>
+      <c r="S44">
+        <f>S29*EXP(S30*M26)</f>
+        <v>2.2545963876489297</v>
+      </c>
+      <c r="T44">
+        <f>T29*EXP(T30*M26)</f>
+        <v>2.850386621199219</v>
+      </c>
+      <c r="U44">
+        <f>U29*EXP(U30*M26)</f>
+        <v>3.7000014320228916</v>
+      </c>
+      <c r="V44">
+        <f>V29*EXP(V30*M26)</f>
+        <v>4.9024981143137891</v>
+      </c>
+      <c r="W44">
+        <f>W29*EXP(W30*M26)</f>
+        <v>6.8998854651407804</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B1838E7-B707-440C-8F5F-A1F222BC69A0}">
+  <dimension ref="A1:W52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M34" sqref="M34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" t="s">
+        <v>16</v>
+      </c>
+      <c r="T1" t="s">
+        <v>17</v>
+      </c>
+      <c r="U1" t="s">
+        <v>18</v>
+      </c>
+      <c r="V1" t="s">
+        <v>19</v>
+      </c>
+      <c r="W1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2">
+        <v>19</v>
+      </c>
+      <c r="C2">
+        <v>166</v>
+      </c>
+      <c r="D2">
+        <v>1463</v>
+      </c>
+      <c r="E2">
+        <v>172</v>
+      </c>
+      <c r="F2">
+        <v>76</v>
+      </c>
+      <c r="G2">
+        <v>166</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>95</v>
+      </c>
+      <c r="J2">
+        <v>6</v>
+      </c>
+      <c r="K2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3">
+        <v>25</v>
+      </c>
+      <c r="C3">
+        <v>65</v>
+      </c>
+      <c r="D3">
+        <v>3700</v>
+      </c>
+      <c r="E3">
+        <v>240</v>
+      </c>
+      <c r="F3">
+        <v>79</v>
+      </c>
+      <c r="G3">
+        <v>231</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>104</v>
+      </c>
+      <c r="J3">
+        <v>9</v>
+      </c>
+      <c r="K3">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4">
+        <v>25</v>
+      </c>
+      <c r="C4">
+        <v>18</v>
+      </c>
+      <c r="D4">
+        <v>3208</v>
+      </c>
+      <c r="E4">
+        <v>258</v>
+      </c>
+      <c r="F4">
+        <v>79</v>
+      </c>
+      <c r="G4">
+        <v>249</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>104</v>
+      </c>
+      <c r="J4">
+        <v>9</v>
+      </c>
+      <c r="K4">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5">
+        <v>41</v>
+      </c>
+      <c r="C5">
+        <v>100</v>
+      </c>
+      <c r="D5">
+        <v>3320</v>
+      </c>
+      <c r="E5">
+        <v>403</v>
+      </c>
+      <c r="F5">
+        <v>172</v>
+      </c>
+      <c r="G5">
+        <v>349</v>
+      </c>
+      <c r="H5">
+        <v>40</v>
+      </c>
+      <c r="I5">
+        <v>213</v>
+      </c>
+      <c r="J5">
+        <v>14</v>
+      </c>
+      <c r="K5">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6">
+        <v>47</v>
+      </c>
+      <c r="C6">
+        <v>125</v>
+      </c>
+      <c r="D6">
+        <v>4835</v>
+      </c>
+      <c r="E6">
+        <v>531</v>
+      </c>
+      <c r="F6">
+        <v>235</v>
+      </c>
+      <c r="G6">
+        <v>474</v>
+      </c>
+      <c r="H6">
+        <v>40</v>
+      </c>
+      <c r="I6">
+        <v>282</v>
+      </c>
+      <c r="J6">
+        <v>17</v>
+      </c>
+      <c r="K6">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7">
+        <v>80</v>
+      </c>
+      <c r="C7">
+        <v>78</v>
+      </c>
+      <c r="D7">
+        <v>5723</v>
+      </c>
+      <c r="E7">
+        <v>615</v>
+      </c>
+      <c r="F7">
+        <v>256</v>
+      </c>
+      <c r="G7">
+        <v>552</v>
+      </c>
+      <c r="H7">
+        <v>40</v>
+      </c>
+      <c r="I7">
+        <v>336</v>
+      </c>
+      <c r="J7">
+        <v>23</v>
+      </c>
+      <c r="K7">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8">
+        <v>106</v>
+      </c>
+      <c r="C8">
+        <v>335</v>
+      </c>
+      <c r="D8">
+        <v>6879</v>
+      </c>
+      <c r="E8">
+        <v>984</v>
+      </c>
+      <c r="F8">
+        <v>406</v>
+      </c>
+      <c r="G8">
+        <v>887</v>
+      </c>
+      <c r="H8">
+        <v>73</v>
+      </c>
+      <c r="I8">
+        <v>512</v>
+      </c>
+      <c r="J8">
+        <v>24</v>
+      </c>
+      <c r="K8">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9">
+        <v>127</v>
+      </c>
+      <c r="C9">
+        <v>190</v>
+      </c>
+      <c r="D9">
+        <v>7925</v>
+      </c>
+      <c r="E9">
+        <v>1254</v>
+      </c>
+      <c r="F9">
+        <v>478</v>
+      </c>
+      <c r="G9">
+        <v>1077</v>
+      </c>
+      <c r="H9">
+        <v>139</v>
+      </c>
+      <c r="I9">
+        <v>605</v>
+      </c>
+      <c r="J9">
+        <v>38</v>
+      </c>
+      <c r="K9">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10">
+        <v>167</v>
+      </c>
+      <c r="C10">
+        <v>249</v>
+      </c>
+      <c r="D10">
+        <v>9577</v>
+      </c>
+      <c r="E10">
+        <v>1520</v>
+      </c>
+      <c r="F10">
+        <v>698</v>
+      </c>
+      <c r="G10">
+        <v>1326</v>
+      </c>
+      <c r="H10">
+        <v>139</v>
+      </c>
+      <c r="I10">
+        <v>865</v>
+      </c>
+      <c r="J10">
+        <v>55</v>
+      </c>
+      <c r="K10">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11">
+        <v>209</v>
+      </c>
+      <c r="C11">
+        <v>171</v>
+      </c>
+      <c r="D11">
+        <v>12138</v>
+      </c>
+      <c r="E11">
+        <v>1820</v>
+      </c>
+      <c r="F11">
+        <v>877</v>
+      </c>
+      <c r="G11">
+        <v>1497</v>
+      </c>
+      <c r="H11">
+        <v>250</v>
+      </c>
+      <c r="I11">
+        <v>1086</v>
+      </c>
+      <c r="J11">
+        <v>73</v>
+      </c>
+      <c r="K11">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12">
+        <v>244</v>
+      </c>
+      <c r="C12">
+        <v>280</v>
+      </c>
+      <c r="D12">
+        <v>12354</v>
+      </c>
+      <c r="E12">
+        <v>2251</v>
+      </c>
+      <c r="F12">
+        <v>1169</v>
+      </c>
+      <c r="G12">
+        <v>1777</v>
+      </c>
+      <c r="H12">
+        <v>376</v>
+      </c>
+      <c r="I12">
+        <v>1413</v>
+      </c>
+      <c r="J12">
+        <v>98</v>
+      </c>
+      <c r="K12">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13">
+        <v>309</v>
+      </c>
+      <c r="C13">
+        <v>231</v>
+      </c>
+      <c r="D13">
+        <v>13556</v>
+      </c>
+      <c r="E13">
+        <v>2612</v>
+      </c>
+      <c r="F13">
+        <v>1622</v>
+      </c>
+      <c r="G13">
+        <v>2008</v>
+      </c>
+      <c r="H13">
+        <v>469</v>
+      </c>
+      <c r="I13">
+        <v>1931</v>
+      </c>
+      <c r="J13">
+        <v>135</v>
+      </c>
+      <c r="K13">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14">
+        <v>359</v>
+      </c>
+      <c r="C14">
+        <v>734</v>
+      </c>
+      <c r="D14">
+        <v>15778</v>
+      </c>
+      <c r="E14">
+        <v>3420</v>
+      </c>
+      <c r="F14">
+        <v>1661</v>
+      </c>
+      <c r="G14">
+        <v>2742</v>
+      </c>
+      <c r="H14">
+        <v>524</v>
+      </c>
+      <c r="I14">
+        <v>2020</v>
+      </c>
+      <c r="J14">
+        <v>154</v>
+      </c>
+      <c r="K14">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15">
+        <v>399</v>
+      </c>
+      <c r="C15">
+        <v>630</v>
+      </c>
+      <c r="D15">
+        <v>18534</v>
+      </c>
+      <c r="E15">
+        <v>4189</v>
+      </c>
+      <c r="F15">
+        <v>2217</v>
+      </c>
+      <c r="G15">
+        <v>3372</v>
+      </c>
+      <c r="H15">
+        <v>550</v>
+      </c>
+      <c r="I15">
+        <v>2616</v>
+      </c>
+      <c r="J15">
+        <v>267</v>
+      </c>
+      <c r="K15">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16">
+        <v>440</v>
+      </c>
+      <c r="C16">
+        <v>1118</v>
+      </c>
+      <c r="D16">
+        <v>20135</v>
+      </c>
+      <c r="E16">
+        <v>5469</v>
+      </c>
+      <c r="F16">
+        <v>2802</v>
+      </c>
+      <c r="G16">
+        <v>4490</v>
+      </c>
+      <c r="H16">
+        <v>646</v>
+      </c>
+      <c r="I16">
+        <v>3242</v>
+      </c>
+      <c r="J16">
+        <v>333</v>
+      </c>
+      <c r="K16">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17">
+        <v>466</v>
+      </c>
+      <c r="C17">
+        <v>-63</v>
+      </c>
+      <c r="D17">
+        <v>21479</v>
+      </c>
+      <c r="E17">
+        <v>5791</v>
+      </c>
+      <c r="F17">
+        <v>3319</v>
+      </c>
+      <c r="G17">
+        <v>4427</v>
+      </c>
+      <c r="H17">
+        <v>896</v>
+      </c>
+      <c r="I17">
+        <v>3785</v>
+      </c>
+      <c r="J17">
+        <v>468</v>
+      </c>
+      <c r="K17">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18">
+        <v>560</v>
+      </c>
+      <c r="C18">
+        <v>1336</v>
+      </c>
+      <c r="D18">
+        <v>25629</v>
+      </c>
+      <c r="E18">
+        <v>7280</v>
+      </c>
+      <c r="F18">
+        <v>3852</v>
+      </c>
+      <c r="G18">
+        <v>5763</v>
+      </c>
+      <c r="H18">
+        <v>900</v>
+      </c>
+      <c r="I18">
+        <v>4412</v>
+      </c>
+      <c r="J18">
+        <v>617</v>
+      </c>
+      <c r="K18">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19">
+        <v>605</v>
+      </c>
+      <c r="C19">
+        <v>1133</v>
+      </c>
+      <c r="D19">
+        <v>29534</v>
+      </c>
+      <c r="E19">
+        <v>8725</v>
+      </c>
+      <c r="F19">
+        <v>4247</v>
+      </c>
+      <c r="G19">
+        <v>6896</v>
+      </c>
+      <c r="H19">
+        <v>1085</v>
+      </c>
+      <c r="I19">
+        <v>4852</v>
+      </c>
+      <c r="J19">
+        <v>744</v>
+      </c>
+      <c r="K19">
+        <v>2044</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20">
+        <v>650</v>
+      </c>
+      <c r="C20">
+        <v>836</v>
+      </c>
+      <c r="D20">
+        <v>32700</v>
+      </c>
+      <c r="E20">
+        <v>9820</v>
+      </c>
+      <c r="F20">
+        <v>4435</v>
+      </c>
+      <c r="G20">
+        <v>7732</v>
+      </c>
+      <c r="H20">
+        <v>1198</v>
+      </c>
+      <c r="I20">
+        <v>5085</v>
+      </c>
+      <c r="J20">
+        <v>890</v>
+      </c>
+      <c r="K20">
+        <v>2647</v>
+      </c>
+      <c r="N20" s="1">
+        <f t="shared" ref="N20:N34" si="0">J20/J19</f>
+        <v>1.196236559139785</v>
+      </c>
+      <c r="O20" s="1">
+        <f t="shared" ref="O20:O34" si="1">J20/J18</f>
+        <v>1.4424635332252835</v>
+      </c>
+      <c r="P20" s="1">
+        <f t="shared" ref="P20:P34" si="2">J20/J17</f>
+        <v>1.9017094017094016</v>
+      </c>
+      <c r="Q20" s="1">
+        <f t="shared" ref="Q20:Q34" si="3">J20/J16</f>
+        <v>2.6726726726726726</v>
+      </c>
+      <c r="R20" s="1">
+        <f t="shared" ref="R20:R34" si="4">J20/J15</f>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="S20" s="1">
+        <f t="shared" ref="S20:S34" si="5">J20/J14</f>
+        <v>5.779220779220779</v>
+      </c>
+      <c r="T20" s="1">
+        <f t="shared" ref="T20:T34" si="6">J20/J13</f>
+        <v>6.5925925925925926</v>
+      </c>
+      <c r="U20" s="1">
+        <f t="shared" ref="U20:U34" si="7">J20/J12</f>
+        <v>9.0816326530612237</v>
+      </c>
+      <c r="V20" s="1">
+        <f t="shared" ref="V20:V34" si="8">J20/J11</f>
+        <v>12.191780821917808</v>
+      </c>
+      <c r="W20" s="1">
+        <f t="shared" ref="W20:W34" si="9">J20/J10</f>
+        <v>16.181818181818183</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21">
+        <v>732</v>
+      </c>
+      <c r="C21">
+        <v>1327</v>
+      </c>
+      <c r="D21">
+        <v>37138</v>
+      </c>
+      <c r="E21">
+        <v>11685</v>
+      </c>
+      <c r="F21">
+        <v>4898</v>
+      </c>
+      <c r="G21">
+        <v>9059</v>
+      </c>
+      <c r="H21">
+        <v>1660</v>
+      </c>
+      <c r="I21">
+        <v>5630</v>
+      </c>
+      <c r="J21">
+        <v>966</v>
+      </c>
+      <c r="K21">
+        <v>3429</v>
+      </c>
+      <c r="N21" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0853932584269663</v>
+      </c>
+      <c r="O21" s="1">
+        <f t="shared" si="1"/>
+        <v>1.2983870967741935</v>
+      </c>
+      <c r="P21" s="1">
+        <f t="shared" si="2"/>
+        <v>1.5656401944894651</v>
+      </c>
+      <c r="Q21" s="1">
+        <f t="shared" si="3"/>
+        <v>2.0641025641025643</v>
+      </c>
+      <c r="R21" s="1">
+        <f t="shared" si="4"/>
+        <v>2.900900900900901</v>
+      </c>
+      <c r="S21" s="1">
+        <f t="shared" si="5"/>
+        <v>3.6179775280898876</v>
+      </c>
+      <c r="T21" s="1">
+        <f t="shared" si="6"/>
+        <v>6.2727272727272725</v>
+      </c>
+      <c r="U21" s="1">
+        <f t="shared" si="7"/>
+        <v>7.1555555555555559</v>
+      </c>
+      <c r="V21" s="1">
+        <f t="shared" si="8"/>
+        <v>9.8571428571428577</v>
+      </c>
+      <c r="W21" s="1">
+        <f t="shared" si="9"/>
+        <v>13.232876712328768</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22">
+        <v>767</v>
+      </c>
+      <c r="C22">
+        <v>984</v>
+      </c>
+      <c r="D22">
+        <v>40369</v>
+      </c>
+      <c r="E22">
+        <v>13272</v>
+      </c>
+      <c r="F22">
+        <v>5500</v>
+      </c>
+      <c r="G22">
+        <v>10043</v>
+      </c>
+      <c r="H22">
+        <v>2011</v>
+      </c>
+      <c r="I22">
+        <v>6267</v>
+      </c>
+      <c r="J22">
+        <v>1218</v>
+      </c>
+      <c r="K22">
+        <v>3776</v>
+      </c>
+      <c r="N22" s="1">
+        <f t="shared" si="0"/>
+        <v>1.2608695652173914</v>
+      </c>
+      <c r="O22" s="1">
+        <f t="shared" si="1"/>
+        <v>1.3685393258426966</v>
+      </c>
+      <c r="P22" s="1">
+        <f t="shared" si="2"/>
+        <v>1.6370967741935485</v>
+      </c>
+      <c r="Q22" s="1">
+        <f t="shared" si="3"/>
+        <v>1.9740680713128038</v>
+      </c>
+      <c r="R22" s="1">
+        <f t="shared" si="4"/>
+        <v>2.6025641025641026</v>
+      </c>
+      <c r="S22" s="1">
+        <f t="shared" si="5"/>
+        <v>3.6576576576576576</v>
+      </c>
+      <c r="T22" s="1">
+        <f t="shared" si="6"/>
+        <v>4.5617977528089888</v>
+      </c>
+      <c r="U22" s="1">
+        <f t="shared" si="7"/>
+        <v>7.9090909090909092</v>
+      </c>
+      <c r="V22" s="1">
+        <f t="shared" si="8"/>
+        <v>9.0222222222222221</v>
+      </c>
+      <c r="W22" s="1">
+        <f t="shared" si="9"/>
+        <v>12.428571428571429</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23">
+        <v>823</v>
+      </c>
+      <c r="C23">
+        <v>818</v>
+      </c>
+      <c r="D23">
+        <v>43565</v>
+      </c>
+      <c r="E23">
+        <v>14649</v>
+      </c>
+      <c r="F23">
+        <v>6171</v>
+      </c>
+      <c r="G23">
+        <v>10861</v>
+      </c>
+      <c r="H23">
+        <v>2368</v>
+      </c>
+      <c r="I23">
+        <v>6994</v>
+      </c>
+      <c r="J23">
+        <v>1420</v>
+      </c>
+      <c r="K23">
+        <v>3867</v>
+      </c>
+      <c r="N23" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1658456486042692</v>
+      </c>
+      <c r="O23" s="1">
+        <f t="shared" si="1"/>
+        <v>1.4699792960662525</v>
+      </c>
+      <c r="P23" s="1">
+        <f t="shared" si="2"/>
+        <v>1.595505617977528</v>
+      </c>
+      <c r="Q23" s="1">
+        <f t="shared" si="3"/>
+        <v>1.9086021505376345</v>
+      </c>
+      <c r="R23" s="1">
+        <f t="shared" si="4"/>
+        <v>2.3014586709886546</v>
+      </c>
+      <c r="S23" s="1">
+        <f t="shared" si="5"/>
+        <v>3.0341880341880341</v>
+      </c>
+      <c r="T23" s="1">
+        <f t="shared" si="6"/>
+        <v>4.2642642642642645</v>
+      </c>
+      <c r="U23" s="1">
+        <f t="shared" si="7"/>
+        <v>5.3183520599250933</v>
+      </c>
+      <c r="V23" s="1">
+        <f t="shared" si="8"/>
+        <v>9.220779220779221</v>
+      </c>
+      <c r="W23" s="1">
+        <f t="shared" si="9"/>
+        <v>10.518518518518519</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24">
+        <v>879</v>
+      </c>
+      <c r="C24">
+        <v>1234</v>
+      </c>
+      <c r="D24">
+        <v>46449</v>
+      </c>
+      <c r="E24">
+        <v>16220</v>
+      </c>
+      <c r="F24">
+        <v>6953</v>
+      </c>
+      <c r="G24">
+        <v>12095</v>
+      </c>
+      <c r="H24">
+        <v>2485</v>
+      </c>
+      <c r="I24">
+        <v>7832</v>
+      </c>
+      <c r="J24">
+        <v>1640</v>
+      </c>
+      <c r="K24">
+        <v>4263</v>
+      </c>
+      <c r="N24" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1549295774647887</v>
+      </c>
+      <c r="O24" s="1">
+        <f t="shared" si="1"/>
+        <v>1.3464696223316912</v>
+      </c>
+      <c r="P24" s="1">
+        <f t="shared" si="2"/>
+        <v>1.6977225672877847</v>
+      </c>
+      <c r="Q24" s="1">
+        <f t="shared" si="3"/>
+        <v>1.8426966292134832</v>
+      </c>
+      <c r="R24" s="1">
+        <f t="shared" si="4"/>
+        <v>2.204301075268817</v>
+      </c>
+      <c r="S24" s="1">
+        <f t="shared" si="5"/>
+        <v>2.6580226904376012</v>
+      </c>
+      <c r="T24" s="1">
+        <f t="shared" si="6"/>
+        <v>3.5042735042735043</v>
+      </c>
+      <c r="U24" s="1">
+        <f t="shared" si="7"/>
+        <v>4.924924924924925</v>
+      </c>
+      <c r="V24" s="1">
+        <f t="shared" si="8"/>
+        <v>6.1423220973782771</v>
+      </c>
+      <c r="W24" s="1">
+        <f t="shared" si="9"/>
+        <v>10.64935064935065</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25">
+        <v>924</v>
+      </c>
+      <c r="C25">
+        <v>171</v>
+      </c>
+      <c r="D25">
+        <v>48983</v>
+      </c>
+      <c r="E25">
+        <v>17713</v>
+      </c>
+      <c r="F25">
+        <v>7285</v>
+      </c>
+      <c r="G25">
+        <v>12266</v>
+      </c>
+      <c r="H25">
+        <v>3488</v>
+      </c>
+      <c r="I25">
+        <v>8209</v>
+      </c>
+      <c r="J25">
+        <v>1959</v>
+      </c>
+      <c r="K25">
+        <v>4057</v>
+      </c>
+      <c r="M25">
+        <v>1</v>
+      </c>
+      <c r="N25" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1945121951219513</v>
+      </c>
+      <c r="O25" s="1">
+        <f t="shared" si="1"/>
+        <v>1.3795774647887324</v>
+      </c>
+      <c r="P25" s="1">
+        <f t="shared" si="2"/>
+        <v>1.6083743842364533</v>
+      </c>
+      <c r="Q25" s="1">
+        <f t="shared" si="3"/>
+        <v>2.0279503105590062</v>
+      </c>
+      <c r="R25" s="1">
+        <f t="shared" si="4"/>
+        <v>2.2011235955056181</v>
+      </c>
+      <c r="S25" s="1">
+        <f t="shared" si="5"/>
+        <v>2.6330645161290325</v>
+      </c>
+      <c r="T25" s="1">
+        <f t="shared" si="6"/>
+        <v>3.1750405186385739</v>
+      </c>
+      <c r="U25" s="1">
+        <f t="shared" si="7"/>
+        <v>4.1858974358974361</v>
+      </c>
+      <c r="V25" s="1">
+        <f t="shared" si="8"/>
+        <v>5.8828828828828827</v>
+      </c>
+      <c r="W25" s="1">
+        <f t="shared" si="9"/>
+        <v>7.3370786516853936</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26">
+        <v>1006</v>
+      </c>
+      <c r="C26">
+        <v>1672</v>
+      </c>
+      <c r="D26">
+        <v>52244</v>
+      </c>
+      <c r="E26">
+        <v>19884</v>
+      </c>
+      <c r="F26">
+        <v>7387</v>
+      </c>
+      <c r="G26">
+        <v>13938</v>
+      </c>
+      <c r="H26">
+        <v>3778</v>
+      </c>
+      <c r="I26">
+        <v>8393</v>
+      </c>
+      <c r="J26">
+        <v>2168</v>
+      </c>
+      <c r="K26">
+        <v>5545</v>
+      </c>
+      <c r="M26">
+        <v>2</v>
+      </c>
+      <c r="N26" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1066870852475752</v>
+      </c>
+      <c r="O26" s="1">
+        <f t="shared" si="1"/>
+        <v>1.3219512195121952</v>
+      </c>
+      <c r="P26" s="1">
+        <f t="shared" si="2"/>
+        <v>1.5267605633802817</v>
+      </c>
+      <c r="Q26" s="1">
+        <f t="shared" si="3"/>
+        <v>1.7799671592775042</v>
+      </c>
+      <c r="R26" s="1">
+        <f t="shared" si="4"/>
+        <v>2.2443064182194616</v>
+      </c>
+      <c r="S26" s="1">
+        <f t="shared" si="5"/>
+        <v>2.4359550561797754</v>
+      </c>
+      <c r="T26" s="1">
+        <f t="shared" si="6"/>
+        <v>2.913978494623656</v>
+      </c>
+      <c r="U26" s="1">
+        <f t="shared" si="7"/>
+        <v>3.5137763371150728</v>
+      </c>
+      <c r="V26" s="1">
+        <f t="shared" si="8"/>
+        <v>4.6324786324786329</v>
+      </c>
+      <c r="W26" s="1">
+        <f t="shared" si="9"/>
+        <v>6.5105105105105103</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27">
+        <v>1050</v>
+      </c>
+      <c r="C27">
+        <v>1482</v>
+      </c>
+      <c r="D27">
+        <v>57174</v>
+      </c>
+      <c r="E27">
+        <v>22264</v>
+      </c>
+      <c r="F27">
+        <v>7735</v>
+      </c>
+      <c r="G27">
+        <v>15420</v>
+      </c>
+      <c r="H27">
+        <v>4295</v>
+      </c>
+      <c r="I27">
+        <v>8785</v>
+      </c>
+      <c r="J27">
+        <v>2549</v>
+      </c>
+      <c r="K27">
+        <v>6635</v>
+      </c>
+      <c r="M27">
+        <v>3</v>
+      </c>
+      <c r="N27" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1757380073800738</v>
+      </c>
+      <c r="O27" s="1">
+        <f t="shared" si="1"/>
+        <v>1.3011740684022461</v>
+      </c>
+      <c r="P27" s="1">
+        <f t="shared" si="2"/>
+        <v>1.5542682926829268</v>
+      </c>
+      <c r="Q27" s="1">
+        <f t="shared" si="3"/>
+        <v>1.7950704225352112</v>
+      </c>
+      <c r="R27" s="1">
+        <f t="shared" si="4"/>
+        <v>2.0927750410509032</v>
+      </c>
+      <c r="S27" s="1">
+        <f t="shared" si="5"/>
+        <v>2.6387163561076603</v>
+      </c>
+      <c r="T27" s="1">
+        <f t="shared" si="6"/>
+        <v>2.8640449438202249</v>
+      </c>
+      <c r="U27" s="1">
+        <f t="shared" si="7"/>
+        <v>3.4260752688172045</v>
+      </c>
+      <c r="V27" s="1">
+        <f t="shared" si="8"/>
+        <v>4.1312803889789302</v>
+      </c>
+      <c r="W27" s="1">
+        <f t="shared" si="9"/>
+        <v>5.4465811965811968</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>47</v>
+      </c>
+      <c r="B28">
+        <v>1093</v>
+      </c>
+      <c r="C28">
+        <v>1950</v>
+      </c>
+      <c r="D28">
+        <v>66730</v>
+      </c>
+      <c r="E28">
+        <v>25515</v>
+      </c>
+      <c r="F28">
+        <v>8258</v>
+      </c>
+      <c r="G28">
+        <v>17370</v>
+      </c>
+      <c r="H28">
+        <v>5050</v>
+      </c>
+      <c r="I28">
+        <v>9351</v>
+      </c>
+      <c r="J28">
+        <v>3095</v>
+      </c>
+      <c r="K28">
+        <v>8019</v>
+      </c>
+      <c r="M28">
+        <v>4</v>
+      </c>
+      <c r="N28" s="1">
+        <f t="shared" si="0"/>
+        <v>1.2142016477049824</v>
+      </c>
+      <c r="O28" s="1">
+        <f t="shared" si="1"/>
+        <v>1.4275830258302582</v>
+      </c>
+      <c r="P28" s="1">
+        <f t="shared" si="2"/>
+        <v>1.5798876978050025</v>
+      </c>
+      <c r="Q28" s="1">
+        <f t="shared" si="3"/>
+        <v>1.8871951219512195</v>
+      </c>
+      <c r="R28" s="1">
+        <f t="shared" si="4"/>
+        <v>2.1795774647887325</v>
+      </c>
+      <c r="S28" s="1">
+        <f t="shared" si="5"/>
+        <v>2.5410509031198685</v>
+      </c>
+      <c r="T28" s="1">
+        <f t="shared" si="6"/>
+        <v>3.2039337474120084</v>
+      </c>
+      <c r="U28" s="1">
+        <f t="shared" si="7"/>
+        <v>3.4775280898876404</v>
+      </c>
+      <c r="V28" s="1">
+        <f t="shared" si="8"/>
+        <v>4.15994623655914</v>
+      </c>
+      <c r="W28" s="1">
+        <f t="shared" si="9"/>
+        <v>5.0162074554294973</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>48</v>
+      </c>
+      <c r="B29">
+        <v>1142</v>
+      </c>
+      <c r="C29">
+        <v>515</v>
+      </c>
+      <c r="D29">
+        <v>70598</v>
+      </c>
+      <c r="E29">
+        <v>27206</v>
+      </c>
+      <c r="F29">
+        <v>9439</v>
+      </c>
+      <c r="G29">
+        <v>17885</v>
+      </c>
+      <c r="H29">
+        <v>5865</v>
+      </c>
+      <c r="I29">
+        <v>10581</v>
+      </c>
+      <c r="J29">
+        <v>3456</v>
+      </c>
+      <c r="K29">
+        <v>7304</v>
+      </c>
+      <c r="M29">
+        <v>5</v>
+      </c>
+      <c r="N29" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1166397415185783</v>
+      </c>
+      <c r="O29" s="1">
+        <f t="shared" si="1"/>
+        <v>1.3558258140447235</v>
+      </c>
+      <c r="P29" s="1">
+        <f t="shared" si="2"/>
+        <v>1.5940959409594095</v>
+      </c>
+      <c r="Q29" s="1">
+        <f t="shared" si="3"/>
+        <v>1.7641653905053598</v>
+      </c>
+      <c r="R29" s="1">
+        <f t="shared" si="4"/>
+        <v>2.1073170731707318</v>
+      </c>
+      <c r="S29" s="1">
+        <f t="shared" si="5"/>
+        <v>2.4338028169014083</v>
+      </c>
+      <c r="T29" s="1">
+        <f t="shared" si="6"/>
+        <v>2.8374384236453203</v>
+      </c>
+      <c r="U29" s="1">
+        <f t="shared" si="7"/>
+        <v>3.5776397515527951</v>
+      </c>
+      <c r="V29" s="1">
+        <f t="shared" si="8"/>
+        <v>3.8831460674157303</v>
+      </c>
+      <c r="W29" s="1">
+        <f t="shared" si="9"/>
+        <v>4.645161290322581</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>49</v>
+      </c>
+      <c r="B30">
+        <v>1183</v>
+      </c>
+      <c r="C30">
+        <v>1025</v>
+      </c>
+      <c r="D30">
+        <v>73242</v>
+      </c>
+      <c r="E30">
+        <v>28761</v>
+      </c>
+      <c r="F30">
+        <v>9266</v>
+      </c>
+      <c r="G30">
+        <v>18910</v>
+      </c>
+      <c r="H30">
+        <v>6075</v>
+      </c>
+      <c r="I30">
+        <v>10449</v>
+      </c>
+      <c r="J30">
+        <v>3776</v>
+      </c>
+      <c r="K30">
+        <v>8461</v>
+      </c>
+      <c r="M30">
+        <v>6</v>
+      </c>
+      <c r="N30" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0925925925925926</v>
+      </c>
+      <c r="O30" s="1">
+        <f t="shared" si="1"/>
+        <v>1.220032310177706</v>
+      </c>
+      <c r="P30" s="1">
+        <f t="shared" si="2"/>
+        <v>1.4813652412710867</v>
+      </c>
+      <c r="Q30" s="1">
+        <f t="shared" si="3"/>
+        <v>1.7416974169741697</v>
+      </c>
+      <c r="R30" s="1">
+        <f t="shared" si="4"/>
+        <v>1.9275140377743747</v>
+      </c>
+      <c r="S30" s="1">
+        <f t="shared" si="5"/>
+        <v>2.3024390243902437</v>
+      </c>
+      <c r="T30" s="1">
+        <f t="shared" si="6"/>
+        <v>2.6591549295774648</v>
+      </c>
+      <c r="U30" s="1">
+        <f t="shared" si="7"/>
+        <v>3.1001642036124797</v>
+      </c>
+      <c r="V30" s="1">
+        <f t="shared" si="8"/>
+        <v>3.9089026915113871</v>
+      </c>
+      <c r="W30" s="1">
+        <f t="shared" si="9"/>
+        <v>4.2426966292134836</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31">
+        <v>1194</v>
+      </c>
+      <c r="C31">
+        <v>958</v>
+      </c>
+      <c r="D31">
+        <v>76695</v>
+      </c>
+      <c r="E31">
+        <v>30703</v>
+      </c>
+      <c r="F31">
+        <v>9711</v>
+      </c>
+      <c r="G31">
+        <v>19868</v>
+      </c>
+      <c r="H31">
+        <v>6657</v>
+      </c>
+      <c r="I31">
+        <v>10905</v>
+      </c>
+      <c r="J31">
+        <v>4178</v>
+      </c>
+      <c r="K31">
+        <v>8963</v>
+      </c>
+      <c r="M31">
+        <v>7</v>
+      </c>
+      <c r="N31" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1064618644067796</v>
+      </c>
+      <c r="O31" s="1">
+        <f t="shared" si="1"/>
+        <v>1.208912037037037</v>
+      </c>
+      <c r="P31" s="1">
+        <f t="shared" si="2"/>
+        <v>1.349919224555735</v>
+      </c>
+      <c r="Q31" s="1">
+        <f t="shared" si="3"/>
+        <v>1.6390741467242056</v>
+      </c>
+      <c r="R31" s="1">
+        <f t="shared" si="4"/>
+        <v>1.9271217712177122</v>
+      </c>
+      <c r="S31" s="1">
+        <f t="shared" si="5"/>
+        <v>2.1327207759060745</v>
+      </c>
+      <c r="T31" s="1">
+        <f t="shared" si="6"/>
+        <v>2.5475609756097559</v>
+      </c>
+      <c r="U31" s="1">
+        <f t="shared" si="7"/>
+        <v>2.9422535211267604</v>
+      </c>
+      <c r="V31" s="1">
+        <f t="shared" si="8"/>
+        <v>3.4302134646962235</v>
+      </c>
+      <c r="W31" s="1">
+        <f t="shared" si="9"/>
+        <v>4.325051759834369</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>72</v>
+      </c>
+      <c r="B32">
+        <v>1236</v>
+      </c>
+      <c r="C32">
+        <v>723</v>
+      </c>
+      <c r="D32">
+        <v>81666</v>
+      </c>
+      <c r="E32">
+        <v>32346</v>
+      </c>
+      <c r="F32">
+        <v>10026</v>
+      </c>
+      <c r="G32">
+        <v>20591</v>
+      </c>
+      <c r="H32">
+        <v>7281</v>
+      </c>
+      <c r="I32">
+        <v>11262</v>
+      </c>
+      <c r="J32">
+        <v>4474</v>
+      </c>
+      <c r="K32">
+        <v>9329</v>
+      </c>
+      <c r="M32">
+        <v>8</v>
+      </c>
+      <c r="N32" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0708472953566299</v>
+      </c>
+      <c r="O32" s="1">
+        <f t="shared" si="1"/>
+        <v>1.1848516949152543</v>
+      </c>
+      <c r="P32" s="1">
+        <f t="shared" si="2"/>
+        <v>1.2945601851851851</v>
+      </c>
+      <c r="Q32" s="1">
+        <f t="shared" si="3"/>
+        <v>1.445557350565428</v>
+      </c>
+      <c r="R32" s="1">
+        <f t="shared" si="4"/>
+        <v>1.7551981169085915</v>
+      </c>
+      <c r="S32" s="1">
+        <f t="shared" si="5"/>
+        <v>2.0636531365313653</v>
+      </c>
+      <c r="T32" s="1">
+        <f t="shared" si="6"/>
+        <v>2.2838182746299132</v>
+      </c>
+      <c r="U32" s="1">
+        <f t="shared" si="7"/>
+        <v>2.7280487804878049</v>
+      </c>
+      <c r="V32" s="1">
+        <f t="shared" si="8"/>
+        <v>3.1507042253521127</v>
+      </c>
+      <c r="W32" s="1">
+        <f t="shared" si="9"/>
+        <v>3.6732348111658455</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>81</v>
+      </c>
+      <c r="B33">
+        <v>1263</v>
+      </c>
+      <c r="C33">
+        <v>1598</v>
+      </c>
+      <c r="D33">
+        <v>87713</v>
+      </c>
+      <c r="E33">
+        <v>34889</v>
+      </c>
+      <c r="F33">
+        <v>10681</v>
+      </c>
+      <c r="G33">
+        <v>22189</v>
+      </c>
+      <c r="H33">
+        <v>7839</v>
+      </c>
+      <c r="I33">
+        <v>11944</v>
+      </c>
+      <c r="J33">
+        <v>4861</v>
+      </c>
+      <c r="K33">
+        <v>10245</v>
+      </c>
+      <c r="M33">
+        <v>9</v>
+      </c>
+      <c r="N33" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0864997764863658</v>
+      </c>
+      <c r="O33" s="1">
+        <f t="shared" si="1"/>
+        <v>1.1634753470560077</v>
+      </c>
+      <c r="P33" s="1">
+        <f t="shared" si="2"/>
+        <v>1.2873411016949152</v>
+      </c>
+      <c r="Q33" s="1">
+        <f t="shared" si="3"/>
+        <v>1.4065393518518519</v>
+      </c>
+      <c r="R33" s="1">
+        <f t="shared" si="4"/>
+        <v>1.5705977382875607</v>
+      </c>
+      <c r="S33" s="1">
+        <f t="shared" si="5"/>
+        <v>1.9070223617104747</v>
+      </c>
+      <c r="T33" s="1">
+        <f t="shared" si="6"/>
+        <v>2.2421586715867159</v>
+      </c>
+      <c r="U33" s="1">
+        <f t="shared" si="7"/>
+        <v>2.4813680449208779</v>
+      </c>
+      <c r="V33" s="1">
+        <f t="shared" si="8"/>
+        <v>2.9640243902439023</v>
+      </c>
+      <c r="W33" s="1">
+        <f t="shared" si="9"/>
+        <v>3.4232394366197183</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>85</v>
+      </c>
+      <c r="B34">
+        <v>1292</v>
+      </c>
+      <c r="C34">
+        <v>1706</v>
+      </c>
+      <c r="D34">
+        <v>95860</v>
+      </c>
+      <c r="E34">
+        <v>37298</v>
+      </c>
+      <c r="F34">
+        <v>11137</v>
+      </c>
+      <c r="G34">
+        <v>23895</v>
+      </c>
+      <c r="H34">
+        <v>8001</v>
+      </c>
+      <c r="I34">
+        <v>12429</v>
+      </c>
+      <c r="J34">
+        <v>5402</v>
+      </c>
+      <c r="K34">
+        <v>11466</v>
+      </c>
+      <c r="M34">
+        <v>10</v>
+      </c>
+      <c r="N34" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1112939724336557</v>
+      </c>
+      <c r="O34" s="1">
+        <f t="shared" si="1"/>
+        <v>1.2074206526598124</v>
+      </c>
+      <c r="P34" s="1">
+        <f t="shared" si="2"/>
+        <v>1.2929631402584969</v>
+      </c>
+      <c r="Q34" s="1">
+        <f t="shared" si="3"/>
+        <v>1.4306144067796611</v>
+      </c>
+      <c r="R34" s="1">
+        <f t="shared" si="4"/>
+        <v>1.5630787037037037</v>
+      </c>
+      <c r="S34" s="1">
+        <f t="shared" si="5"/>
+        <v>1.7453957996768983</v>
+      </c>
+      <c r="T34" s="1">
+        <f t="shared" si="6"/>
+        <v>2.1192624558650452</v>
+      </c>
+      <c r="U34" s="1">
+        <f t="shared" si="7"/>
+        <v>2.4916974169741697</v>
+      </c>
+      <c r="V34" s="1">
+        <f t="shared" si="8"/>
+        <v>2.7575293517100561</v>
+      </c>
+      <c r="W34" s="1">
+        <f t="shared" si="9"/>
+        <v>3.2939024390243903</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="K37" t="s">
+        <v>50</v>
+      </c>
+      <c r="M37" t="s">
+        <v>51</v>
+      </c>
+      <c r="N37">
+        <f>EXP(INDEX(LINEST(LN(N25:N34),M25:M34),1,2))</f>
+        <v>1.1862044311845712</v>
+      </c>
+      <c r="O37">
+        <f>EXP(INDEX(LINEST(LN(O25:O34),M25:M34),1,2))</f>
+        <v>1.4159512214172703</v>
+      </c>
+      <c r="P37">
+        <f>EXP(INDEX(LINEST(LN(P25:P34),M25:M34),1,2))</f>
+        <v>1.6926696913102555</v>
+      </c>
+      <c r="Q37">
+        <f>EXP(INDEX(LINEST(LN(Q25:Q34),M25:M34),1,2))</f>
+        <v>2.0731066290574343</v>
+      </c>
+      <c r="R37">
+        <f>EXP(INDEX(LINEST(LN(R25:R34),M25:M34),1,2))</f>
+        <v>2.4446848255623106</v>
+      </c>
+      <c r="S37">
+        <f>EXP(INDEX(LINEST(LN(S25:S34),M25:M34),1,2))</f>
+        <v>2.8798089489404766</v>
+      </c>
+      <c r="T37">
+        <f>EXP(INDEX(LINEST(LN(T25:T34),M25:M34),1,2))</f>
+        <v>3.398831911924459</v>
+      </c>
+      <c r="U37">
+        <f>EXP(INDEX(LINEST(LN(U25:U34),M25:M34),1,2))</f>
+        <v>4.2373786498479582</v>
+      </c>
+      <c r="V37">
+        <f>EXP(INDEX(LINEST(LN(V25:V34),M25:M34),1,2))</f>
+        <v>5.6449494677007381</v>
+      </c>
+      <c r="W37">
+        <f>EXP(INDEX(LINEST(LN(W25:W34),M25:M34),1,2))</f>
+        <v>7.4489487595780703</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="M38" t="s">
+        <v>52</v>
+      </c>
+      <c r="N38">
+        <f>INDEX(LINEST(LN(N25:N34),M25:M34),1)</f>
+        <v>-9.372973577353283E-3</v>
+      </c>
+      <c r="O38">
+        <f>INDEX(LINEST(LN(O25:O34),M25:M34),1)</f>
+        <v>-1.9188275368742715E-2</v>
+      </c>
+      <c r="P38">
+        <f>INDEX(LINEST(LN(P25:P34),M25:M34),1)</f>
+        <v>-2.7987941844847711E-2</v>
+      </c>
+      <c r="Q38">
+        <f>INDEX(LINEST(LN(Q25:Q34),M25:M34),1)</f>
+        <v>-3.8224101279889997E-2</v>
+      </c>
+      <c r="R38">
+        <f>INDEX(LINEST(LN(R25:R34),M25:M34),1)</f>
+        <v>-4.192374369027365E-2</v>
+      </c>
+      <c r="S38">
+        <f>INDEX(LINEST(LN(S25:S34),M25:M34),1)</f>
+        <v>-4.3782859389841097E-2</v>
+      </c>
+      <c r="T38">
+        <f>INDEX(LINEST(LN(T25:T34),M25:M34),1)</f>
+        <v>-4.4590213277441136E-2</v>
+      </c>
+      <c r="U38">
+        <f>INDEX(LINEST(LN(U25:U34),M25:M34),1)</f>
+        <v>-5.3865523635534762E-2</v>
+      </c>
+      <c r="V38">
+        <f>INDEX(LINEST(LN(V25:V34),M25:M34),1)</f>
+        <v>-7.1951818820902652E-2</v>
+      </c>
+      <c r="W38">
+        <f>INDEX(LINEST(LN(W25:W34),M25:M34),1)</f>
+        <v>-8.6136836005231213E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="M39" t="s">
+        <v>53</v>
+      </c>
+      <c r="N39">
+        <f t="shared" ref="N39:W39" si="10">PEARSON(N25:N34,N43:N52)</f>
+        <v>0.65959830010843556</v>
+      </c>
+      <c r="O39">
+        <f t="shared" si="10"/>
+        <v>0.80260037906947101</v>
+      </c>
+      <c r="P39">
+        <f t="shared" si="10"/>
+        <v>0.8882555175984358</v>
+      </c>
+      <c r="Q39">
+        <f t="shared" si="10"/>
+        <v>0.91962118752501021</v>
+      </c>
+      <c r="R39">
+        <f t="shared" si="10"/>
+        <v>0.93187053576676249</v>
+      </c>
+      <c r="S39">
+        <f t="shared" si="10"/>
+        <v>0.92784865888302126</v>
+      </c>
+      <c r="T39">
+        <f t="shared" si="10"/>
+        <v>0.913180697496493</v>
+      </c>
+      <c r="U39">
+        <f t="shared" si="10"/>
+        <v>0.94484515563444504</v>
+      </c>
+      <c r="V39">
+        <f t="shared" si="10"/>
+        <v>0.95280795095967397</v>
+      </c>
+      <c r="W39">
+        <f t="shared" si="10"/>
+        <v>0.98070292758776278</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="M40" t="s">
+        <v>86</v>
+      </c>
+      <c r="N40">
+        <f t="shared" ref="N40:W40" si="11">INT(0.5-LN(N37)/N38)</f>
+        <v>18</v>
+      </c>
+      <c r="O40">
+        <f t="shared" si="11"/>
+        <v>18</v>
+      </c>
+      <c r="P40">
+        <f t="shared" si="11"/>
+        <v>19</v>
+      </c>
+      <c r="Q40">
+        <f t="shared" si="11"/>
+        <v>19</v>
+      </c>
+      <c r="R40">
+        <f t="shared" si="11"/>
+        <v>21</v>
+      </c>
+      <c r="S40">
+        <f t="shared" si="11"/>
+        <v>24</v>
+      </c>
+      <c r="T40">
+        <f t="shared" si="11"/>
+        <v>27</v>
+      </c>
+      <c r="U40">
+        <f t="shared" si="11"/>
+        <v>27</v>
+      </c>
+      <c r="V40">
+        <f t="shared" si="11"/>
+        <v>24</v>
+      </c>
+      <c r="W40">
+        <f t="shared" si="11"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="M41" t="s">
+        <v>55</v>
+      </c>
+      <c r="N41" s="2">
+        <f>N40+A24</f>
+        <v>43925</v>
+      </c>
+      <c r="O41" s="2">
+        <f>O40+A24</f>
+        <v>43925</v>
+      </c>
+      <c r="P41" s="2">
+        <f>P40+A24</f>
+        <v>43926</v>
+      </c>
+      <c r="Q41" s="2">
+        <f>Q40+A24</f>
+        <v>43926</v>
+      </c>
+      <c r="R41" s="2">
+        <f>R40+A24</f>
+        <v>43928</v>
+      </c>
+      <c r="S41" s="2">
+        <f>S40+A24</f>
+        <v>43931</v>
+      </c>
+      <c r="T41" s="2">
+        <f>T40+A24</f>
+        <v>43934</v>
+      </c>
+      <c r="U41" s="2">
+        <f>U40+A24</f>
+        <v>43934</v>
+      </c>
+      <c r="V41" s="2">
+        <f>V40+A24</f>
+        <v>43931</v>
+      </c>
+      <c r="W41" s="2">
+        <f>W40+A24</f>
+        <v>43930</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="N43">
+        <f>N37*EXP(N38*M25)</f>
+        <v>1.1751381115713968</v>
+      </c>
+      <c r="O43">
+        <f>O37*EXP(O38*M25)</f>
+        <v>1.3890405696510373</v>
+      </c>
+      <c r="P43">
+        <f>P37*EXP(P38*M25)</f>
+        <v>1.6459521636940535</v>
+      </c>
+      <c r="Q43">
+        <f>Q37*EXP(Q38*M25)</f>
+        <v>1.9953593669443537</v>
+      </c>
+      <c r="R43">
+        <f>R37*EXP(R38*M25)</f>
+        <v>2.344313164110607</v>
+      </c>
+      <c r="S43">
+        <f>S37*EXP(S38*M25)</f>
+        <v>2.7564430412002157</v>
+      </c>
+      <c r="T43">
+        <f>T37*EXP(T38*M25)</f>
+        <v>3.2506065314785957</v>
+      </c>
+      <c r="U43">
+        <f>U37*EXP(U38*M25)</f>
+        <v>4.0151684892290334</v>
+      </c>
+      <c r="V43">
+        <f>V37*EXP(V38*M25)</f>
+        <v>5.2530529771776688</v>
+      </c>
+      <c r="W43">
+        <f>W37*EXP(W38*M25)</f>
+        <v>6.8341771849535045</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="N44">
+        <f>N37*EXP(N38*M26)</f>
+        <v>1.164175031692084</v>
+      </c>
+      <c r="O44">
+        <f>O37*EXP(O38*M26)</f>
+        <v>1.3626413643015522</v>
+      </c>
+      <c r="P44">
+        <f>P37*EXP(P38*M26)</f>
+        <v>1.600524035538228</v>
+      </c>
+      <c r="Q44">
+        <f>Q37*EXP(Q38*M26)</f>
+        <v>1.9205278433086654</v>
+      </c>
+      <c r="R44">
+        <f>R37*EXP(R38*M26)</f>
+        <v>2.2480624716759459</v>
+      </c>
+      <c r="S44">
+        <f>S37*EXP(S38*M26)</f>
+        <v>2.6383619101456364</v>
+      </c>
+      <c r="T44">
+        <f>T37*EXP(T38*M26)</f>
+        <v>3.1088453610842031</v>
+      </c>
+      <c r="U44">
+        <f>U37*EXP(U38*M26)</f>
+        <v>3.8046111355840759</v>
+      </c>
+      <c r="V44">
+        <f>V37*EXP(V38*M26)</f>
+        <v>4.8883636140457432</v>
+      </c>
+      <c r="W44">
+        <f>W37*EXP(W38*M26)</f>
+        <v>6.2701435199541589</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="N45">
+        <f>N37*EXP(N38*M27)</f>
+        <v>1.1533142284041411</v>
+      </c>
+      <c r="O45">
+        <f>O37*EXP(O38*M27)</f>
+        <v>1.336743885149495</v>
+      </c>
+      <c r="P45">
+        <f>P37*EXP(P38*M27)</f>
+        <v>1.5563497195364022</v>
+      </c>
+      <c r="Q45">
+        <f>Q37*EXP(Q38*M27)</f>
+        <v>1.8485027098513109</v>
+      </c>
+      <c r="R45">
+        <f>R37*EXP(R38*M27)</f>
+        <v>2.1557635532346135</v>
+      </c>
+      <c r="S45">
+        <f>S37*EXP(S38*M27)</f>
+        <v>2.5253391653166104</v>
+      </c>
+      <c r="T45">
+        <f>T37*EXP(T38*M27)</f>
+        <v>2.973266492127089</v>
+      </c>
+      <c r="U45">
+        <f>U37*EXP(U38*M27)</f>
+        <v>3.6050955101487556</v>
+      </c>
+      <c r="V45">
+        <f>V37*EXP(V38*M27)</f>
+        <v>4.5489925433733429</v>
+      </c>
+      <c r="W45">
+        <f>W37*EXP(W38*M27)</f>
+        <v>5.7526602979186015</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="N46">
+        <f>N37*EXP(N38*M28)</f>
+        <v>1.1425547475504099</v>
+      </c>
+      <c r="O46">
+        <f>O37*EXP(O38*M28)</f>
+        <v>1.3113385967117386</v>
+      </c>
+      <c r="P46">
+        <f>P37*EXP(P38*M28)</f>
+        <v>1.5133946105885794</v>
+      </c>
+      <c r="Q46">
+        <f>Q37*EXP(Q38*M28)</f>
+        <v>1.7791787191384494</v>
+      </c>
+      <c r="R46">
+        <f>R37*EXP(R38*M28)</f>
+        <v>2.0672541604193593</v>
+      </c>
+      <c r="S46">
+        <f>S37*EXP(S38*M28)</f>
+        <v>2.4171581144187941</v>
+      </c>
+      <c r="T46">
+        <f>T37*EXP(T38*M28)</f>
+        <v>2.8436003102202183</v>
+      </c>
+      <c r="U46">
+        <f>U37*EXP(U38*M28)</f>
+        <v>3.4160425794210605</v>
+      </c>
+      <c r="V46">
+        <f>V37*EXP(V38*M28)</f>
+        <v>4.2331820612133049</v>
+      </c>
+      <c r="W46">
+        <f>W37*EXP(W38*M28)</f>
+        <v>5.2778856493369171</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="N47">
+        <f>N37*EXP(N38*M29)</f>
+        <v>1.1318956438752397</v>
+      </c>
+      <c r="O47">
+        <f>O37*EXP(O38*M29)</f>
+        <v>1.2864161447303715</v>
+      </c>
+      <c r="P47">
+        <f>P37*EXP(P38*M29)</f>
+        <v>1.4716250586923352</v>
+      </c>
+      <c r="Q47">
+        <f>Q37*EXP(Q38*M29)</f>
+        <v>1.7124545708076111</v>
+      </c>
+      <c r="R47">
+        <f>R37*EXP(R38*M29)</f>
+        <v>1.9823787063098459</v>
+      </c>
+      <c r="S47">
+        <f>S37*EXP(S38*M29)</f>
+        <v>2.3136113478714084</v>
+      </c>
+      <c r="T47">
+        <f>T37*EXP(T38*M29)</f>
+        <v>2.7195889590440689</v>
+      </c>
+      <c r="U47">
+        <f>U37*EXP(U38*M29)</f>
+        <v>3.236903674692432</v>
+      </c>
+      <c r="V47">
+        <f>V37*EXP(V38*M29)</f>
+        <v>3.9392964909301704</v>
+      </c>
+      <c r="W47">
+        <f>W37*EXP(W38*M29)</f>
+        <v>4.842294779261576</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="N48">
+        <f>N37*EXP(N38*M30)</f>
+        <v>1.1213359809414447</v>
+      </c>
+      <c r="O48">
+        <f>O37*EXP(O38*M30)</f>
+        <v>1.261967352728449</v>
+      </c>
+      <c r="P48">
+        <f>P37*EXP(P38*M30)</f>
+        <v>1.4310083425822149</v>
+      </c>
+      <c r="Q48">
+        <f>Q37*EXP(Q38*M30)</f>
+        <v>1.648232763541549</v>
+      </c>
+      <c r="R48">
+        <f>R37*EXP(R38*M30)</f>
+        <v>1.9009879919329813</v>
+      </c>
+      <c r="S48">
+        <f>S37*EXP(S38*M30)</f>
+        <v>2.2145003411522524</v>
+      </c>
+      <c r="T48">
+        <f>T37*EXP(T38*M30)</f>
+        <v>2.6009858275692821</v>
+      </c>
+      <c r="U48">
+        <f>U37*EXP(U38*M30)</f>
+        <v>3.0671588997034887</v>
+      </c>
+      <c r="V48">
+        <f>V37*EXP(V38*M30)</f>
+        <v>3.665813711543275</v>
+      </c>
+      <c r="W48">
+        <f>W37*EXP(W38*M30)</f>
+        <v>4.442653798725205</v>
+      </c>
+    </row>
+    <row r="49" spans="14:23" x14ac:dyDescent="0.25">
+      <c r="N49">
+        <f>N37*EXP(N38*M31)</f>
+        <v>1.1108748310480334</v>
+      </c>
+      <c r="O49">
+        <f>O37*EXP(O38*M31)</f>
+        <v>1.2379832186312036</v>
+      </c>
+      <c r="P49">
+        <f>P37*EXP(P38*M31)</f>
+        <v>1.3915126440966761</v>
+      </c>
+      <c r="Q49">
+        <f>Q37*EXP(Q38*M31)</f>
+        <v>1.5864194525934794</v>
+      </c>
+      <c r="R49">
+        <f>R37*EXP(R38*M31)</f>
+        <v>1.822938943992348</v>
+      </c>
+      <c r="S49">
+        <f>S37*EXP(S38*M31)</f>
+        <v>2.1196350741775536</v>
+      </c>
+      <c r="T49">
+        <f>T37*EXP(T38*M31)</f>
+        <v>2.487555059641879</v>
+      </c>
+      <c r="U49">
+        <f>U37*EXP(U38*M31)</f>
+        <v>2.9063156218030506</v>
+      </c>
+      <c r="V49">
+        <f>V37*EXP(V38*M31)</f>
+        <v>3.4113172742084141</v>
+      </c>
+      <c r="W49">
+        <f>W37*EXP(W38*M31)</f>
+        <v>4.0759957158860374</v>
+      </c>
+    </row>
+    <row r="50" spans="14:23" x14ac:dyDescent="0.25">
+      <c r="N50">
+        <f>N37*EXP(N38*M32)</f>
+        <v>1.1005112751487083</v>
+      </c>
+      <c r="O50">
+        <f>O37*EXP(O38*M32)</f>
+        <v>1.21445491145147</v>
+      </c>
+      <c r="P50">
+        <f>P37*EXP(P38*M32)</f>
+        <v>1.3531070232525058</v>
+      </c>
+      <c r="Q50">
+        <f>Q37*EXP(Q38*M32)</f>
+        <v>1.5269243126555239</v>
+      </c>
+      <c r="R50">
+        <f>R37*EXP(R38*M32)</f>
+        <v>1.7480943633657064</v>
+      </c>
+      <c r="S50">
+        <f>S37*EXP(S38*M32)</f>
+        <v>2.028833666986908</v>
+      </c>
+      <c r="T50">
+        <f>T37*EXP(T38*M32)</f>
+        <v>2.3790710849558003</v>
+      </c>
+      <c r="U50">
+        <f>U37*EXP(U38*M32)</f>
+        <v>2.7539070422314995</v>
+      </c>
+      <c r="V50">
+        <f>V37*EXP(V38*M32)</f>
+        <v>3.1744890660070162</v>
+      </c>
+      <c r="W50">
+        <f>W37*EXP(W38*M32)</f>
+        <v>3.7395984086557772</v>
+      </c>
+    </row>
+    <row r="51" spans="14:23" x14ac:dyDescent="0.25">
+      <c r="N51">
+        <f>N37*EXP(N38*M33)</f>
+        <v>1.0902444027711233</v>
+      </c>
+      <c r="O51">
+        <f>O37*EXP(O38*M33)</f>
+        <v>1.1913737680381049</v>
+      </c>
+      <c r="P51">
+        <f>P37*EXP(P38*M33)</f>
+        <v>1.3157613940071782</v>
+      </c>
+      <c r="Q51">
+        <f>Q37*EXP(Q38*M33)</f>
+        <v>1.4696604058699674</v>
+      </c>
+      <c r="R51">
+        <f>R37*EXP(R38*M33)</f>
+        <v>1.676322683928454</v>
+      </c>
+      <c r="S51">
+        <f>S37*EXP(S38*M33)</f>
+        <v>1.9419220310348333</v>
+      </c>
+      <c r="T51">
+        <f>T37*EXP(T38*M33)</f>
+        <v>2.2753181704800571</v>
+      </c>
+      <c r="U51">
+        <f>U37*EXP(U38*M33)</f>
+        <v>2.609490841379162</v>
+      </c>
+      <c r="V51">
+        <f>V37*EXP(V38*M33)</f>
+        <v>2.954102483046384</v>
+      </c>
+      <c r="W51">
+        <f>W37*EXP(W38*M33)</f>
+        <v>3.4309644152756089</v>
+      </c>
+    </row>
+    <row r="52" spans="14:23" x14ac:dyDescent="0.25">
+      <c r="N52">
+        <f>N37*EXP(N38*M34)</f>
+        <v>1.0800733119368975</v>
+      </c>
+      <c r="O52">
+        <f>O37*EXP(O38*M34)</f>
+        <v>1.1687312898862039</v>
+      </c>
+      <c r="P52">
+        <f>P37*EXP(P38*M34)</f>
+        <v>1.2794465006901714</v>
+      </c>
+      <c r="Q52">
+        <f>Q37*EXP(Q38*M34)</f>
+        <v>1.4145440547904573</v>
+      </c>
+      <c r="R52">
+        <f>R37*EXP(R38*M34)</f>
+        <v>1.6074977412790974</v>
+      </c>
+      <c r="S52">
+        <f>S37*EXP(S38*M34)</f>
+        <v>1.8587335354203711</v>
+      </c>
+      <c r="T52">
+        <f>T37*EXP(T38*M34)</f>
+        <v>2.1760899914484462</v>
+      </c>
+      <c r="U52">
+        <f>U37*EXP(U38*M34)</f>
+        <v>2.472647895087996</v>
+      </c>
+      <c r="V52">
+        <f>V37*EXP(V38*M34)</f>
+        <v>2.7490160775124641</v>
+      </c>
+      <c r="W52">
+        <f>W37*EXP(W38*M34)</f>
+        <v>3.1478023928026135</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF6FD583-DA3B-4917-AC90-6D0D6B9846FA}">
   <sheetPr>
     <tabColor theme="6"/>
@@ -15741,7 +21614,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BE9C507-FF53-4EF1-9CF1-E9379C014A72}">
   <sheetPr>
     <tabColor theme="6"/>
@@ -18123,7 +23996,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9AFF406-A572-4ABA-A12A-8BB55B0FA807}">
   <sheetPr>
     <tabColor theme="6"/>
@@ -20429,7 +26302,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{250CF625-9016-412C-B7EF-DD8968E4A146}">
   <sheetPr>
     <tabColor theme="6"/>
@@ -22650,7 +28523,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A93E061A-EF42-4F1C-9189-91FA097163FE}">
   <sheetPr>
     <tabColor theme="6"/>
@@ -24835,7 +30708,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr>
     <tabColor theme="6"/>
@@ -26985,7 +32858,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E47E916-1EBA-4113-8160-E1F30637C25A}">
   <sheetPr>
     <tabColor theme="6"/>
@@ -29098,2084 +34971,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE508726-679D-4A30-B1B9-70AA2F25C071}">
-  <sheetPr>
-    <tabColor theme="6"/>
-  </sheetPr>
-  <dimension ref="A1:W44"/>
-  <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17:M26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="13" max="13" width="39.85546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" t="s">
-        <v>11</v>
-      </c>
-      <c r="O1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>14</v>
-      </c>
-      <c r="R1" t="s">
-        <v>15</v>
-      </c>
-      <c r="S1" t="s">
-        <v>16</v>
-      </c>
-      <c r="T1" t="s">
-        <v>17</v>
-      </c>
-      <c r="U1" t="s">
-        <v>18</v>
-      </c>
-      <c r="V1" t="s">
-        <v>19</v>
-      </c>
-      <c r="W1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2">
-        <v>19</v>
-      </c>
-      <c r="C2">
-        <v>166</v>
-      </c>
-      <c r="D2">
-        <v>1463</v>
-      </c>
-      <c r="E2">
-        <v>172</v>
-      </c>
-      <c r="F2">
-        <v>76</v>
-      </c>
-      <c r="G2">
-        <v>166</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>95</v>
-      </c>
-      <c r="J2">
-        <v>6</v>
-      </c>
-      <c r="K2">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3">
-        <v>25</v>
-      </c>
-      <c r="C3">
-        <v>65</v>
-      </c>
-      <c r="D3">
-        <v>3700</v>
-      </c>
-      <c r="E3">
-        <v>240</v>
-      </c>
-      <c r="F3">
-        <v>79</v>
-      </c>
-      <c r="G3">
-        <v>231</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>104</v>
-      </c>
-      <c r="J3">
-        <v>9</v>
-      </c>
-      <c r="K3">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4">
-        <v>25</v>
-      </c>
-      <c r="C4">
-        <v>18</v>
-      </c>
-      <c r="D4">
-        <v>3208</v>
-      </c>
-      <c r="E4">
-        <v>258</v>
-      </c>
-      <c r="F4">
-        <v>79</v>
-      </c>
-      <c r="G4">
-        <v>249</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>104</v>
-      </c>
-      <c r="J4">
-        <v>9</v>
-      </c>
-      <c r="K4">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5">
-        <v>41</v>
-      </c>
-      <c r="C5">
-        <v>100</v>
-      </c>
-      <c r="D5">
-        <v>3320</v>
-      </c>
-      <c r="E5">
-        <v>403</v>
-      </c>
-      <c r="F5">
-        <v>172</v>
-      </c>
-      <c r="G5">
-        <v>349</v>
-      </c>
-      <c r="H5">
-        <v>40</v>
-      </c>
-      <c r="I5">
-        <v>213</v>
-      </c>
-      <c r="J5">
-        <v>14</v>
-      </c>
-      <c r="K5">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6">
-        <v>47</v>
-      </c>
-      <c r="C6">
-        <v>125</v>
-      </c>
-      <c r="D6">
-        <v>4835</v>
-      </c>
-      <c r="E6">
-        <v>531</v>
-      </c>
-      <c r="F6">
-        <v>235</v>
-      </c>
-      <c r="G6">
-        <v>474</v>
-      </c>
-      <c r="H6">
-        <v>40</v>
-      </c>
-      <c r="I6">
-        <v>282</v>
-      </c>
-      <c r="J6">
-        <v>17</v>
-      </c>
-      <c r="K6">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7">
-        <v>80</v>
-      </c>
-      <c r="C7">
-        <v>78</v>
-      </c>
-      <c r="D7">
-        <v>5723</v>
-      </c>
-      <c r="E7">
-        <v>615</v>
-      </c>
-      <c r="F7">
-        <v>256</v>
-      </c>
-      <c r="G7">
-        <v>552</v>
-      </c>
-      <c r="H7">
-        <v>40</v>
-      </c>
-      <c r="I7">
-        <v>336</v>
-      </c>
-      <c r="J7">
-        <v>23</v>
-      </c>
-      <c r="K7">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8">
-        <v>106</v>
-      </c>
-      <c r="C8">
-        <v>335</v>
-      </c>
-      <c r="D8">
-        <v>6879</v>
-      </c>
-      <c r="E8">
-        <v>984</v>
-      </c>
-      <c r="F8">
-        <v>406</v>
-      </c>
-      <c r="G8">
-        <v>887</v>
-      </c>
-      <c r="H8">
-        <v>73</v>
-      </c>
-      <c r="I8">
-        <v>512</v>
-      </c>
-      <c r="J8">
-        <v>24</v>
-      </c>
-      <c r="K8">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9">
-        <v>127</v>
-      </c>
-      <c r="C9">
-        <v>190</v>
-      </c>
-      <c r="D9">
-        <v>7925</v>
-      </c>
-      <c r="E9">
-        <v>1254</v>
-      </c>
-      <c r="F9">
-        <v>478</v>
-      </c>
-      <c r="G9">
-        <v>1077</v>
-      </c>
-      <c r="H9">
-        <v>139</v>
-      </c>
-      <c r="I9">
-        <v>605</v>
-      </c>
-      <c r="J9">
-        <v>38</v>
-      </c>
-      <c r="K9">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10">
-        <v>167</v>
-      </c>
-      <c r="C10">
-        <v>249</v>
-      </c>
-      <c r="D10">
-        <v>9577</v>
-      </c>
-      <c r="E10">
-        <v>1520</v>
-      </c>
-      <c r="F10">
-        <v>698</v>
-      </c>
-      <c r="G10">
-        <v>1326</v>
-      </c>
-      <c r="H10">
-        <v>139</v>
-      </c>
-      <c r="I10">
-        <v>865</v>
-      </c>
-      <c r="J10">
-        <v>55</v>
-      </c>
-      <c r="K10">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11">
-        <v>209</v>
-      </c>
-      <c r="C11">
-        <v>171</v>
-      </c>
-      <c r="D11">
-        <v>12138</v>
-      </c>
-      <c r="E11">
-        <v>1820</v>
-      </c>
-      <c r="F11">
-        <v>877</v>
-      </c>
-      <c r="G11">
-        <v>1497</v>
-      </c>
-      <c r="H11">
-        <v>250</v>
-      </c>
-      <c r="I11">
-        <v>1086</v>
-      </c>
-      <c r="J11">
-        <v>73</v>
-      </c>
-      <c r="K11">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12">
-        <v>244</v>
-      </c>
-      <c r="C12">
-        <v>280</v>
-      </c>
-      <c r="D12">
-        <v>12354</v>
-      </c>
-      <c r="E12">
-        <v>2251</v>
-      </c>
-      <c r="F12">
-        <v>1169</v>
-      </c>
-      <c r="G12">
-        <v>1777</v>
-      </c>
-      <c r="H12">
-        <v>376</v>
-      </c>
-      <c r="I12">
-        <v>1413</v>
-      </c>
-      <c r="J12">
-        <v>98</v>
-      </c>
-      <c r="K12">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13">
-        <v>309</v>
-      </c>
-      <c r="C13">
-        <v>231</v>
-      </c>
-      <c r="D13">
-        <v>13556</v>
-      </c>
-      <c r="E13">
-        <v>2612</v>
-      </c>
-      <c r="F13">
-        <v>1622</v>
-      </c>
-      <c r="G13">
-        <v>2008</v>
-      </c>
-      <c r="H13">
-        <v>469</v>
-      </c>
-      <c r="I13">
-        <v>1931</v>
-      </c>
-      <c r="J13">
-        <v>135</v>
-      </c>
-      <c r="K13">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14">
-        <v>359</v>
-      </c>
-      <c r="C14">
-        <v>734</v>
-      </c>
-      <c r="D14">
-        <v>15778</v>
-      </c>
-      <c r="E14">
-        <v>3420</v>
-      </c>
-      <c r="F14">
-        <v>1661</v>
-      </c>
-      <c r="G14">
-        <v>2742</v>
-      </c>
-      <c r="H14">
-        <v>524</v>
-      </c>
-      <c r="I14">
-        <v>2020</v>
-      </c>
-      <c r="J14">
-        <v>154</v>
-      </c>
-      <c r="K14">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15">
-        <v>399</v>
-      </c>
-      <c r="C15">
-        <v>630</v>
-      </c>
-      <c r="D15">
-        <v>18534</v>
-      </c>
-      <c r="E15">
-        <v>4189</v>
-      </c>
-      <c r="F15">
-        <v>2217</v>
-      </c>
-      <c r="G15">
-        <v>3372</v>
-      </c>
-      <c r="H15">
-        <v>550</v>
-      </c>
-      <c r="I15">
-        <v>2616</v>
-      </c>
-      <c r="J15">
-        <v>267</v>
-      </c>
-      <c r="K15">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>35</v>
-      </c>
-      <c r="B16">
-        <v>440</v>
-      </c>
-      <c r="C16">
-        <v>1118</v>
-      </c>
-      <c r="D16">
-        <v>20135</v>
-      </c>
-      <c r="E16">
-        <v>5469</v>
-      </c>
-      <c r="F16">
-        <v>2802</v>
-      </c>
-      <c r="G16">
-        <v>4490</v>
-      </c>
-      <c r="H16">
-        <v>646</v>
-      </c>
-      <c r="I16">
-        <v>3242</v>
-      </c>
-      <c r="J16">
-        <v>333</v>
-      </c>
-      <c r="K16">
-        <v>1248</v>
-      </c>
-      <c r="N16" s="1">
-        <f t="shared" ref="N16:N26" si="0">J16/J15</f>
-        <v>1.247191011235955</v>
-      </c>
-      <c r="O16" s="1">
-        <f t="shared" ref="O16:O26" si="1">J16/J14</f>
-        <v>2.1623376623376624</v>
-      </c>
-      <c r="P16" s="1">
-        <f t="shared" ref="P16:P26" si="2">J16/J13</f>
-        <v>2.4666666666666668</v>
-      </c>
-      <c r="Q16" s="1">
-        <f t="shared" ref="Q16:Q26" si="3">J16/J12</f>
-        <v>3.3979591836734695</v>
-      </c>
-      <c r="R16" s="1">
-        <f t="shared" ref="R16:R26" si="4">J16/J11</f>
-        <v>4.5616438356164384</v>
-      </c>
-      <c r="S16" s="1">
-        <f t="shared" ref="S16:S26" si="5">J16/J10</f>
-        <v>6.0545454545454547</v>
-      </c>
-      <c r="T16" s="1">
-        <f t="shared" ref="T16:T26" si="6">J16/J9</f>
-        <v>8.7631578947368425</v>
-      </c>
-      <c r="U16" s="1">
-        <f t="shared" ref="U16:U26" si="7">J16/J8</f>
-        <v>13.875</v>
-      </c>
-      <c r="V16" s="1">
-        <f t="shared" ref="V16:V26" si="8">J16/J7</f>
-        <v>14.478260869565217</v>
-      </c>
-      <c r="W16" s="1">
-        <f t="shared" ref="W16:W26" si="9">J16/J6</f>
-        <v>19.588235294117649</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>36</v>
-      </c>
-      <c r="B17">
-        <v>466</v>
-      </c>
-      <c r="C17">
-        <v>-63</v>
-      </c>
-      <c r="D17">
-        <v>21479</v>
-      </c>
-      <c r="E17">
-        <v>5791</v>
-      </c>
-      <c r="F17">
-        <v>3319</v>
-      </c>
-      <c r="G17">
-        <v>4427</v>
-      </c>
-      <c r="H17">
-        <v>896</v>
-      </c>
-      <c r="I17">
-        <v>3785</v>
-      </c>
-      <c r="J17">
-        <v>468</v>
-      </c>
-      <c r="K17">
-        <v>642</v>
-      </c>
-      <c r="M17">
-        <v>1</v>
-      </c>
-      <c r="N17" s="1">
-        <f t="shared" si="0"/>
-        <v>1.4054054054054055</v>
-      </c>
-      <c r="O17" s="1">
-        <f t="shared" si="1"/>
-        <v>1.752808988764045</v>
-      </c>
-      <c r="P17" s="1">
-        <f t="shared" si="2"/>
-        <v>3.0389610389610389</v>
-      </c>
-      <c r="Q17" s="1">
-        <f t="shared" si="3"/>
-        <v>3.4666666666666668</v>
-      </c>
-      <c r="R17" s="1">
-        <f t="shared" si="4"/>
-        <v>4.7755102040816331</v>
-      </c>
-      <c r="S17" s="1">
-        <f t="shared" si="5"/>
-        <v>6.4109589041095889</v>
-      </c>
-      <c r="T17" s="1">
-        <f t="shared" si="6"/>
-        <v>8.5090909090909097</v>
-      </c>
-      <c r="U17" s="1">
-        <f t="shared" si="7"/>
-        <v>12.315789473684211</v>
-      </c>
-      <c r="V17" s="1">
-        <f t="shared" si="8"/>
-        <v>19.5</v>
-      </c>
-      <c r="W17" s="1">
-        <f t="shared" si="9"/>
-        <v>20.347826086956523</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18">
-        <v>560</v>
-      </c>
-      <c r="C18">
-        <v>1336</v>
-      </c>
-      <c r="D18">
-        <v>25629</v>
-      </c>
-      <c r="E18">
-        <v>7280</v>
-      </c>
-      <c r="F18">
-        <v>3852</v>
-      </c>
-      <c r="G18">
-        <v>5763</v>
-      </c>
-      <c r="H18">
-        <v>900</v>
-      </c>
-      <c r="I18">
-        <v>4412</v>
-      </c>
-      <c r="J18">
-        <v>617</v>
-      </c>
-      <c r="K18">
-        <v>1351</v>
-      </c>
-      <c r="M18">
-        <v>2</v>
-      </c>
-      <c r="N18" s="1">
-        <f t="shared" si="0"/>
-        <v>1.3183760683760684</v>
-      </c>
-      <c r="O18" s="1">
-        <f t="shared" si="1"/>
-        <v>1.8528528528528529</v>
-      </c>
-      <c r="P18" s="1">
-        <f t="shared" si="2"/>
-        <v>2.3108614232209739</v>
-      </c>
-      <c r="Q18" s="1">
-        <f t="shared" si="3"/>
-        <v>4.0064935064935066</v>
-      </c>
-      <c r="R18" s="1">
-        <f t="shared" si="4"/>
-        <v>4.5703703703703704</v>
-      </c>
-      <c r="S18" s="1">
-        <f t="shared" si="5"/>
-        <v>6.295918367346939</v>
-      </c>
-      <c r="T18" s="1">
-        <f t="shared" si="6"/>
-        <v>8.4520547945205475</v>
-      </c>
-      <c r="U18" s="1">
-        <f t="shared" si="7"/>
-        <v>11.218181818181819</v>
-      </c>
-      <c r="V18" s="1">
-        <f t="shared" si="8"/>
-        <v>16.236842105263158</v>
-      </c>
-      <c r="W18" s="1">
-        <f t="shared" si="9"/>
-        <v>25.708333333333332</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>38</v>
-      </c>
-      <c r="B19">
-        <v>605</v>
-      </c>
-      <c r="C19">
-        <v>1133</v>
-      </c>
-      <c r="D19">
-        <v>29534</v>
-      </c>
-      <c r="E19">
-        <v>8725</v>
-      </c>
-      <c r="F19">
-        <v>4247</v>
-      </c>
-      <c r="G19">
-        <v>6896</v>
-      </c>
-      <c r="H19">
-        <v>1085</v>
-      </c>
-      <c r="I19">
-        <v>4852</v>
-      </c>
-      <c r="J19">
-        <v>744</v>
-      </c>
-      <c r="K19">
-        <v>2044</v>
-      </c>
-      <c r="M19">
-        <v>3</v>
-      </c>
-      <c r="N19" s="1">
-        <f t="shared" si="0"/>
-        <v>1.2058346839546192</v>
-      </c>
-      <c r="O19" s="1">
-        <f t="shared" si="1"/>
-        <v>1.5897435897435896</v>
-      </c>
-      <c r="P19" s="1">
-        <f t="shared" si="2"/>
-        <v>2.2342342342342341</v>
-      </c>
-      <c r="Q19" s="1">
-        <f t="shared" si="3"/>
-        <v>2.7865168539325844</v>
-      </c>
-      <c r="R19" s="1">
-        <f t="shared" si="4"/>
-        <v>4.8311688311688314</v>
-      </c>
-      <c r="S19" s="1">
-        <f t="shared" si="5"/>
-        <v>5.5111111111111111</v>
-      </c>
-      <c r="T19" s="1">
-        <f t="shared" si="6"/>
-        <v>7.591836734693878</v>
-      </c>
-      <c r="U19" s="1">
-        <f t="shared" si="7"/>
-        <v>10.191780821917808</v>
-      </c>
-      <c r="V19" s="1">
-        <f t="shared" si="8"/>
-        <v>13.527272727272727</v>
-      </c>
-      <c r="W19" s="1">
-        <f t="shared" si="9"/>
-        <v>19.578947368421051</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>39</v>
-      </c>
-      <c r="B20">
-        <v>650</v>
-      </c>
-      <c r="C20">
-        <v>836</v>
-      </c>
-      <c r="D20">
-        <v>32700</v>
-      </c>
-      <c r="E20">
-        <v>9820</v>
-      </c>
-      <c r="F20">
-        <v>4435</v>
-      </c>
-      <c r="G20">
-        <v>7732</v>
-      </c>
-      <c r="H20">
-        <v>1198</v>
-      </c>
-      <c r="I20">
-        <v>5085</v>
-      </c>
-      <c r="J20">
-        <v>890</v>
-      </c>
-      <c r="K20">
-        <v>2647</v>
-      </c>
-      <c r="M20">
-        <v>4</v>
-      </c>
-      <c r="N20" s="1">
-        <f t="shared" si="0"/>
-        <v>1.196236559139785</v>
-      </c>
-      <c r="O20" s="1">
-        <f t="shared" si="1"/>
-        <v>1.4424635332252835</v>
-      </c>
-      <c r="P20" s="1">
-        <f t="shared" si="2"/>
-        <v>1.9017094017094016</v>
-      </c>
-      <c r="Q20" s="1">
-        <f t="shared" si="3"/>
-        <v>2.6726726726726726</v>
-      </c>
-      <c r="R20" s="1">
-        <f t="shared" si="4"/>
-        <v>3.3333333333333335</v>
-      </c>
-      <c r="S20" s="1">
-        <f t="shared" si="5"/>
-        <v>5.779220779220779</v>
-      </c>
-      <c r="T20" s="1">
-        <f t="shared" si="6"/>
-        <v>6.5925925925925926</v>
-      </c>
-      <c r="U20" s="1">
-        <f t="shared" si="7"/>
-        <v>9.0816326530612237</v>
-      </c>
-      <c r="V20" s="1">
-        <f t="shared" si="8"/>
-        <v>12.191780821917808</v>
-      </c>
-      <c r="W20" s="1">
-        <f t="shared" si="9"/>
-        <v>16.181818181818183</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21">
-        <v>732</v>
-      </c>
-      <c r="C21">
-        <v>1327</v>
-      </c>
-      <c r="D21">
-        <v>37138</v>
-      </c>
-      <c r="E21">
-        <v>11685</v>
-      </c>
-      <c r="F21">
-        <v>4898</v>
-      </c>
-      <c r="G21">
-        <v>9059</v>
-      </c>
-      <c r="H21">
-        <v>1660</v>
-      </c>
-      <c r="I21">
-        <v>5630</v>
-      </c>
-      <c r="J21">
-        <v>966</v>
-      </c>
-      <c r="K21">
-        <v>3429</v>
-      </c>
-      <c r="M21">
-        <v>5</v>
-      </c>
-      <c r="N21" s="1">
-        <f t="shared" si="0"/>
-        <v>1.0853932584269663</v>
-      </c>
-      <c r="O21" s="1">
-        <f t="shared" si="1"/>
-        <v>1.2983870967741935</v>
-      </c>
-      <c r="P21" s="1">
-        <f t="shared" si="2"/>
-        <v>1.5656401944894651</v>
-      </c>
-      <c r="Q21" s="1">
-        <f t="shared" si="3"/>
-        <v>2.0641025641025643</v>
-      </c>
-      <c r="R21" s="1">
-        <f t="shared" si="4"/>
-        <v>2.900900900900901</v>
-      </c>
-      <c r="S21" s="1">
-        <f t="shared" si="5"/>
-        <v>3.6179775280898876</v>
-      </c>
-      <c r="T21" s="1">
-        <f t="shared" si="6"/>
-        <v>6.2727272727272725</v>
-      </c>
-      <c r="U21" s="1">
-        <f t="shared" si="7"/>
-        <v>7.1555555555555559</v>
-      </c>
-      <c r="V21" s="1">
-        <f t="shared" si="8"/>
-        <v>9.8571428571428577</v>
-      </c>
-      <c r="W21" s="1">
-        <f t="shared" si="9"/>
-        <v>13.232876712328768</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>41</v>
-      </c>
-      <c r="B22">
-        <v>767</v>
-      </c>
-      <c r="C22">
-        <v>984</v>
-      </c>
-      <c r="D22">
-        <v>40369</v>
-      </c>
-      <c r="E22">
-        <v>13272</v>
-      </c>
-      <c r="F22">
-        <v>5500</v>
-      </c>
-      <c r="G22">
-        <v>10043</v>
-      </c>
-      <c r="H22">
-        <v>2011</v>
-      </c>
-      <c r="I22">
-        <v>6267</v>
-      </c>
-      <c r="J22">
-        <v>1218</v>
-      </c>
-      <c r="K22">
-        <v>3776</v>
-      </c>
-      <c r="M22">
-        <v>6</v>
-      </c>
-      <c r="N22" s="1">
-        <f t="shared" si="0"/>
-        <v>1.2608695652173914</v>
-      </c>
-      <c r="O22" s="1">
-        <f t="shared" si="1"/>
-        <v>1.3685393258426966</v>
-      </c>
-      <c r="P22" s="1">
-        <f t="shared" si="2"/>
-        <v>1.6370967741935485</v>
-      </c>
-      <c r="Q22" s="1">
-        <f t="shared" si="3"/>
-        <v>1.9740680713128038</v>
-      </c>
-      <c r="R22" s="1">
-        <f t="shared" si="4"/>
-        <v>2.6025641025641026</v>
-      </c>
-      <c r="S22" s="1">
-        <f t="shared" si="5"/>
-        <v>3.6576576576576576</v>
-      </c>
-      <c r="T22" s="1">
-        <f t="shared" si="6"/>
-        <v>4.5617977528089888</v>
-      </c>
-      <c r="U22" s="1">
-        <f t="shared" si="7"/>
-        <v>7.9090909090909092</v>
-      </c>
-      <c r="V22" s="1">
-        <f t="shared" si="8"/>
-        <v>9.0222222222222221</v>
-      </c>
-      <c r="W22" s="1">
-        <f t="shared" si="9"/>
-        <v>12.428571428571429</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23">
-        <v>823</v>
-      </c>
-      <c r="C23">
-        <v>818</v>
-      </c>
-      <c r="D23">
-        <v>43565</v>
-      </c>
-      <c r="E23">
-        <v>14649</v>
-      </c>
-      <c r="F23">
-        <v>6171</v>
-      </c>
-      <c r="G23">
-        <v>10861</v>
-      </c>
-      <c r="H23">
-        <v>2368</v>
-      </c>
-      <c r="I23">
-        <v>6994</v>
-      </c>
-      <c r="J23">
-        <v>1420</v>
-      </c>
-      <c r="K23">
-        <v>3867</v>
-      </c>
-      <c r="M23">
-        <v>7</v>
-      </c>
-      <c r="N23" s="1">
-        <f t="shared" si="0"/>
-        <v>1.1658456486042692</v>
-      </c>
-      <c r="O23" s="1">
-        <f t="shared" si="1"/>
-        <v>1.4699792960662525</v>
-      </c>
-      <c r="P23" s="1">
-        <f t="shared" si="2"/>
-        <v>1.595505617977528</v>
-      </c>
-      <c r="Q23" s="1">
-        <f t="shared" si="3"/>
-        <v>1.9086021505376345</v>
-      </c>
-      <c r="R23" s="1">
-        <f t="shared" si="4"/>
-        <v>2.3014586709886546</v>
-      </c>
-      <c r="S23" s="1">
-        <f t="shared" si="5"/>
-        <v>3.0341880341880341</v>
-      </c>
-      <c r="T23" s="1">
-        <f t="shared" si="6"/>
-        <v>4.2642642642642645</v>
-      </c>
-      <c r="U23" s="1">
-        <f t="shared" si="7"/>
-        <v>5.3183520599250933</v>
-      </c>
-      <c r="V23" s="1">
-        <f t="shared" si="8"/>
-        <v>9.220779220779221</v>
-      </c>
-      <c r="W23" s="1">
-        <f t="shared" si="9"/>
-        <v>10.518518518518519</v>
-      </c>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>43</v>
-      </c>
-      <c r="B24">
-        <v>879</v>
-      </c>
-      <c r="C24">
-        <v>1234</v>
-      </c>
-      <c r="D24">
-        <v>46449</v>
-      </c>
-      <c r="E24">
-        <v>16220</v>
-      </c>
-      <c r="F24">
-        <v>6953</v>
-      </c>
-      <c r="G24">
-        <v>12095</v>
-      </c>
-      <c r="H24">
-        <v>2485</v>
-      </c>
-      <c r="I24">
-        <v>7832</v>
-      </c>
-      <c r="J24">
-        <v>1640</v>
-      </c>
-      <c r="K24">
-        <v>4263</v>
-      </c>
-      <c r="M24">
-        <v>8</v>
-      </c>
-      <c r="N24" s="1">
-        <f t="shared" si="0"/>
-        <v>1.1549295774647887</v>
-      </c>
-      <c r="O24" s="1">
-        <f t="shared" si="1"/>
-        <v>1.3464696223316912</v>
-      </c>
-      <c r="P24" s="1">
-        <f t="shared" si="2"/>
-        <v>1.6977225672877847</v>
-      </c>
-      <c r="Q24" s="1">
-        <f t="shared" si="3"/>
-        <v>1.8426966292134832</v>
-      </c>
-      <c r="R24" s="1">
-        <f t="shared" si="4"/>
-        <v>2.204301075268817</v>
-      </c>
-      <c r="S24" s="1">
-        <f t="shared" si="5"/>
-        <v>2.6580226904376012</v>
-      </c>
-      <c r="T24" s="1">
-        <f t="shared" si="6"/>
-        <v>3.5042735042735043</v>
-      </c>
-      <c r="U24" s="1">
-        <f t="shared" si="7"/>
-        <v>4.924924924924925</v>
-      </c>
-      <c r="V24" s="1">
-        <f t="shared" si="8"/>
-        <v>6.1423220973782771</v>
-      </c>
-      <c r="W24" s="1">
-        <f t="shared" si="9"/>
-        <v>10.64935064935065</v>
-      </c>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>44</v>
-      </c>
-      <c r="B25">
-        <v>924</v>
-      </c>
-      <c r="C25">
-        <v>171</v>
-      </c>
-      <c r="D25">
-        <v>48983</v>
-      </c>
-      <c r="E25">
-        <v>17713</v>
-      </c>
-      <c r="F25">
-        <v>7285</v>
-      </c>
-      <c r="G25">
-        <v>12266</v>
-      </c>
-      <c r="H25">
-        <v>3488</v>
-      </c>
-      <c r="I25">
-        <v>8209</v>
-      </c>
-      <c r="J25">
-        <v>1959</v>
-      </c>
-      <c r="K25">
-        <v>4057</v>
-      </c>
-      <c r="M25">
-        <v>9</v>
-      </c>
-      <c r="N25" s="1">
-        <f t="shared" si="0"/>
-        <v>1.1945121951219513</v>
-      </c>
-      <c r="O25" s="1">
-        <f t="shared" si="1"/>
-        <v>1.3795774647887324</v>
-      </c>
-      <c r="P25" s="1">
-        <f t="shared" si="2"/>
-        <v>1.6083743842364533</v>
-      </c>
-      <c r="Q25" s="1">
-        <f t="shared" si="3"/>
-        <v>2.0279503105590062</v>
-      </c>
-      <c r="R25" s="1">
-        <f t="shared" si="4"/>
-        <v>2.2011235955056181</v>
-      </c>
-      <c r="S25" s="1">
-        <f t="shared" si="5"/>
-        <v>2.6330645161290325</v>
-      </c>
-      <c r="T25" s="1">
-        <f t="shared" si="6"/>
-        <v>3.1750405186385739</v>
-      </c>
-      <c r="U25" s="1">
-        <f t="shared" si="7"/>
-        <v>4.1858974358974361</v>
-      </c>
-      <c r="V25" s="1">
-        <f t="shared" si="8"/>
-        <v>5.8828828828828827</v>
-      </c>
-      <c r="W25" s="1">
-        <f t="shared" si="9"/>
-        <v>7.3370786516853936</v>
-      </c>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>45</v>
-      </c>
-      <c r="B26">
-        <v>1006</v>
-      </c>
-      <c r="C26">
-        <v>1672</v>
-      </c>
-      <c r="D26">
-        <v>52244</v>
-      </c>
-      <c r="E26">
-        <v>19884</v>
-      </c>
-      <c r="F26">
-        <v>7387</v>
-      </c>
-      <c r="G26">
-        <v>13938</v>
-      </c>
-      <c r="H26">
-        <v>3778</v>
-      </c>
-      <c r="I26">
-        <v>8393</v>
-      </c>
-      <c r="J26">
-        <v>2168</v>
-      </c>
-      <c r="K26">
-        <v>5545</v>
-      </c>
-      <c r="M26">
-        <v>10</v>
-      </c>
-      <c r="N26" s="1">
-        <f t="shared" si="0"/>
-        <v>1.1066870852475752</v>
-      </c>
-      <c r="O26" s="1">
-        <f t="shared" si="1"/>
-        <v>1.3219512195121952</v>
-      </c>
-      <c r="P26" s="1">
-        <f t="shared" si="2"/>
-        <v>1.5267605633802817</v>
-      </c>
-      <c r="Q26" s="1">
-        <f t="shared" si="3"/>
-        <v>1.7799671592775042</v>
-      </c>
-      <c r="R26" s="1">
-        <f t="shared" si="4"/>
-        <v>2.2443064182194616</v>
-      </c>
-      <c r="S26" s="1">
-        <f t="shared" si="5"/>
-        <v>2.4359550561797754</v>
-      </c>
-      <c r="T26" s="1">
-        <f t="shared" si="6"/>
-        <v>2.913978494623656</v>
-      </c>
-      <c r="U26" s="1">
-        <f t="shared" si="7"/>
-        <v>3.5137763371150728</v>
-      </c>
-      <c r="V26" s="1">
-        <f t="shared" si="8"/>
-        <v>4.6324786324786329</v>
-      </c>
-      <c r="W26" s="1">
-        <f t="shared" si="9"/>
-        <v>6.5105105105105103</v>
-      </c>
-    </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="K29" t="s">
-        <v>50</v>
-      </c>
-      <c r="M29" t="s">
-        <v>51</v>
-      </c>
-      <c r="N29">
-        <f>EXP(INDEX(LINEST(LN(N17:N26),M17:M26),1,2))</f>
-        <v>1.332179617203501</v>
-      </c>
-      <c r="O29">
-        <f>EXP(INDEX(LINEST(LN(O17:O26),M17:M26),1,2))</f>
-        <v>1.7579143558117827</v>
-      </c>
-      <c r="P29">
-        <f>EXP(INDEX(LINEST(LN(P17:P26),M17:M26),1,2))</f>
-        <v>2.6540644756328993</v>
-      </c>
-      <c r="Q29">
-        <f>EXP(INDEX(LINEST(LN(Q17:Q26),M17:M26),1,2))</f>
-        <v>3.748808581578039</v>
-      </c>
-      <c r="R29">
-        <f>EXP(INDEX(LINEST(LN(R17:R26),M17:M26),1,2))</f>
-        <v>5.3599258561994247</v>
-      </c>
-      <c r="S29">
-        <f>EXP(INDEX(LINEST(LN(S17:S26),M17:M26),1,2))</f>
-        <v>7.7529957772168823</v>
-      </c>
-      <c r="T29">
-        <f>EXP(INDEX(LINEST(LN(T17:T26),M17:M26),1,2))</f>
-        <v>10.806307673813693</v>
-      </c>
-      <c r="U29">
-        <f>EXP(INDEX(LINEST(LN(U17:U26),M17:M26),1,2))</f>
-        <v>15.214796377733535</v>
-      </c>
-      <c r="V29">
-        <f>EXP(INDEX(LINEST(LN(V17:V26),M17:M26),1,2))</f>
-        <v>22.194294899432716</v>
-      </c>
-      <c r="W29" s="3">
-        <f>EXP(INDEX(LINEST(LN(W17:W26),M17:M26),1,2))</f>
-        <v>28.5506156199957</v>
-      </c>
-    </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="M30" t="s">
-        <v>52</v>
-      </c>
-      <c r="N30">
-        <f>INDEX(LINEST(LN(N17:N26),M17:M26),1)</f>
-        <v>-1.8086295185367904E-2</v>
-      </c>
-      <c r="O30">
-        <f>INDEX(LINEST(LN(O17:O26),M17:M26),1)</f>
-        <v>-3.2271312369696513E-2</v>
-      </c>
-      <c r="P30">
-        <f>INDEX(LINEST(LN(P17:P26),M17:M26),1)</f>
-        <v>-6.4164813512693389E-2</v>
-      </c>
-      <c r="Q30">
-        <f>INDEX(LINEST(LN(Q17:Q26),M17:M26),1)</f>
-        <v>-8.4170651937022889E-2</v>
-      </c>
-      <c r="R30">
-        <f>INDEX(LINEST(LN(R17:R26),M17:M26),1)</f>
-        <v>-0.1033547005381831</v>
-      </c>
-      <c r="S30">
-        <f>INDEX(LINEST(LN(S17:S26),M17:M26),1)</f>
-        <v>-0.12351083491589877</v>
-      </c>
-      <c r="T30">
-        <f>INDEX(LINEST(LN(T17:T26),M17:M26),1)</f>
-        <v>-0.13326753658733989</v>
-      </c>
-      <c r="U30">
-        <f>INDEX(LINEST(LN(U17:U26),M17:M26),1)</f>
-        <v>-0.14139351935812253</v>
-      </c>
-      <c r="V30">
-        <f>INDEX(LINEST(LN(V17:V26),M17:M26),1)</f>
-        <v>-0.15100903748888886</v>
-      </c>
-      <c r="W30" s="3">
-        <f>INDEX(LINEST(LN(W17:W26),M17:M26),1)</f>
-        <v>-0.14201736865310621</v>
-      </c>
-    </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="M31" t="s">
-        <v>53</v>
-      </c>
-      <c r="N31">
-        <f t="shared" ref="N31:W31" si="10">PEARSON(N17:N26,N35:N44)</f>
-        <v>0.71567557838804075</v>
-      </c>
-      <c r="O31">
-        <f t="shared" si="10"/>
-        <v>0.81216646828975403</v>
-      </c>
-      <c r="P31">
-        <f t="shared" si="10"/>
-        <v>0.8715252705933999</v>
-      </c>
-      <c r="Q31">
-        <f t="shared" si="10"/>
-        <v>0.89587930112595515</v>
-      </c>
-      <c r="R31">
-        <f t="shared" si="10"/>
-        <v>0.94242782993434548</v>
-      </c>
-      <c r="S31">
-        <f t="shared" si="10"/>
-        <v>0.96001705799911607</v>
-      </c>
-      <c r="T31">
-        <f t="shared" si="10"/>
-        <v>0.97966664440493856</v>
-      </c>
-      <c r="U31">
-        <f t="shared" si="10"/>
-        <v>0.98180716874696894</v>
-      </c>
-      <c r="V31">
-        <f t="shared" si="10"/>
-        <v>0.99144158320502351</v>
-      </c>
-      <c r="W31" s="3">
-        <f t="shared" si="10"/>
-        <v>0.93750818076259057</v>
-      </c>
-    </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="M32" t="s">
-        <v>68</v>
-      </c>
-      <c r="N32">
-        <f t="shared" ref="N32:W32" si="11">INT(0.5-LN(N29)/N30)</f>
-        <v>16</v>
-      </c>
-      <c r="O32">
-        <f t="shared" si="11"/>
-        <v>17</v>
-      </c>
-      <c r="P32">
-        <f t="shared" si="11"/>
-        <v>15</v>
-      </c>
-      <c r="Q32">
-        <f t="shared" si="11"/>
-        <v>16</v>
-      </c>
-      <c r="R32">
-        <f t="shared" si="11"/>
-        <v>16</v>
-      </c>
-      <c r="S32">
-        <f t="shared" si="11"/>
-        <v>17</v>
-      </c>
-      <c r="T32">
-        <f t="shared" si="11"/>
-        <v>18</v>
-      </c>
-      <c r="U32">
-        <f t="shared" si="11"/>
-        <v>19</v>
-      </c>
-      <c r="V32">
-        <f t="shared" si="11"/>
-        <v>21</v>
-      </c>
-      <c r="W32">
-        <f t="shared" si="11"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="33" spans="13:23" x14ac:dyDescent="0.25">
-      <c r="M33" t="s">
-        <v>55</v>
-      </c>
-      <c r="N33" s="2">
-        <f>N32+A16</f>
-        <v>43915</v>
-      </c>
-      <c r="O33" s="2">
-        <f>O32+A16</f>
-        <v>43916</v>
-      </c>
-      <c r="P33" s="2">
-        <f>P32+A16</f>
-        <v>43914</v>
-      </c>
-      <c r="Q33" s="2">
-        <f>Q32+A16</f>
-        <v>43915</v>
-      </c>
-      <c r="R33" s="2">
-        <f>R32+A16</f>
-        <v>43915</v>
-      </c>
-      <c r="S33" s="2">
-        <f>S32+A16</f>
-        <v>43916</v>
-      </c>
-      <c r="T33" s="2">
-        <f>T32+A16</f>
-        <v>43917</v>
-      </c>
-      <c r="U33" s="2">
-        <f>U32+A16</f>
-        <v>43918</v>
-      </c>
-      <c r="V33" s="2">
-        <f>V32+A16</f>
-        <v>43920</v>
-      </c>
-      <c r="W33" s="2">
-        <f>W32+A16</f>
-        <v>43923</v>
-      </c>
-    </row>
-    <row r="35" spans="13:23" x14ac:dyDescent="0.25">
-      <c r="N35">
-        <f>N29*EXP(N30*M17)</f>
-        <v>1.3083020030838928</v>
-      </c>
-      <c r="O35">
-        <f>O29*EXP(O30*M17)</f>
-        <v>1.702089763676583</v>
-      </c>
-      <c r="P35">
-        <f>P29*EXP(P30*M17)</f>
-        <v>2.489115473547475</v>
-      </c>
-      <c r="Q35">
-        <f>Q29*EXP(Q30*M17)</f>
-        <v>3.4461836349249642</v>
-      </c>
-      <c r="R35">
-        <f>R29*EXP(R30*M17)</f>
-        <v>4.8336188994127953</v>
-      </c>
-      <c r="S35">
-        <f>S29*EXP(S30*M17)</f>
-        <v>6.8521912090605523</v>
-      </c>
-      <c r="T35">
-        <f>T29*EXP(T30*M17)</f>
-        <v>9.4580144395920627</v>
-      </c>
-      <c r="U35">
-        <f>U29*EXP(U30*M17)</f>
-        <v>13.208689135981178</v>
-      </c>
-      <c r="V35">
-        <f>V29*EXP(V30*M17)</f>
-        <v>19.08354092457256</v>
-      </c>
-      <c r="W35">
-        <f>W29*EXP(W30*M17)</f>
-        <v>24.770690760395706</v>
-      </c>
-    </row>
-    <row r="36" spans="13:23" x14ac:dyDescent="0.25">
-      <c r="N36">
-        <f>N29*EXP(N30*M18)</f>
-        <v>1.284852364628138</v>
-      </c>
-      <c r="O36">
-        <f>O29*EXP(O30*M18)</f>
-        <v>1.6480379456681538</v>
-      </c>
-      <c r="P36">
-        <f>P29*EXP(P30*M18)</f>
-        <v>2.3344179832616985</v>
-      </c>
-      <c r="Q36">
-        <f>Q29*EXP(Q30*M18)</f>
-        <v>3.1679882787254581</v>
-      </c>
-      <c r="R36">
-        <f>R29*EXP(R30*M18)</f>
-        <v>4.3589915777915689</v>
-      </c>
-      <c r="S36">
-        <f>S29*EXP(S30*M18)</f>
-        <v>6.0560492633702188</v>
-      </c>
-      <c r="T36">
-        <f>T29*EXP(T30*M18)</f>
-        <v>8.2779465326811668</v>
-      </c>
-      <c r="U36">
-        <f>U29*EXP(U30*M18)</f>
-        <v>11.46709192548372</v>
-      </c>
-      <c r="V36">
-        <f>V29*EXP(V30*M18)</f>
-        <v>16.408790451330994</v>
-      </c>
-      <c r="W36">
-        <f>W29*EXP(W30*M18)</f>
-        <v>21.491204565039968</v>
-      </c>
-    </row>
-    <row r="37" spans="13:23" x14ac:dyDescent="0.25">
-      <c r="N37">
-        <f>N29*EXP(N30*M19)</f>
-        <v>1.2618230309203768</v>
-      </c>
-      <c r="O37">
-        <f>O29*EXP(O30*M19)</f>
-        <v>1.595702605305243</v>
-      </c>
-      <c r="P37">
-        <f>P29*EXP(P30*M19)</f>
-        <v>2.1893348775856527</v>
-      </c>
-      <c r="Q37">
-        <f>Q29*EXP(Q30*M19)</f>
-        <v>2.9122504188203</v>
-      </c>
-      <c r="R37">
-        <f>R29*EXP(R30*M19)</f>
-        <v>3.9309693152611009</v>
-      </c>
-      <c r="S37">
-        <f>S29*EXP(S30*M19)</f>
-        <v>5.3524094061869123</v>
-      </c>
-      <c r="T37">
-        <f>T29*EXP(T30*M19)</f>
-        <v>7.2451146311512407</v>
-      </c>
-      <c r="U37">
-        <f>U29*EXP(U30*M19)</f>
-        <v>9.9551284668587368</v>
-      </c>
-      <c r="V37">
-        <f>V29*EXP(V30*M19)</f>
-        <v>14.10893319745491</v>
-      </c>
-      <c r="W37">
-        <f>W29*EXP(W30*M19)</f>
-        <v>18.645902051098741</v>
-      </c>
-    </row>
-    <row r="38" spans="13:23" x14ac:dyDescent="0.25">
-      <c r="N38">
-        <f>N29*EXP(N30*M20)</f>
-        <v>1.2392064685360951</v>
-      </c>
-      <c r="O38">
-        <f>O29*EXP(O30*M20)</f>
-        <v>1.5450292338661065</v>
-      </c>
-      <c r="P38">
-        <f>P29*EXP(P30*M20)</f>
-        <v>2.0532686265189932</v>
-      </c>
-      <c r="Q38">
-        <f>Q29*EXP(Q30*M20)</f>
-        <v>2.6771571596000858</v>
-      </c>
-      <c r="R38">
-        <f>R29*EXP(R30*M20)</f>
-        <v>3.5449758233653585</v>
-      </c>
-      <c r="S38">
-        <f>S29*EXP(S30*M20)</f>
-        <v>4.730524010878872</v>
-      </c>
-      <c r="T38">
-        <f>T29*EXP(T30*M20)</f>
-        <v>6.3411482317849792</v>
-      </c>
-      <c r="U38">
-        <f>U29*EXP(U30*M20)</f>
-        <v>8.6425210014596274</v>
-      </c>
-      <c r="V38">
-        <f>V29*EXP(V30*M20)</f>
-        <v>12.131424102262114</v>
-      </c>
-      <c r="W38">
-        <f>W29*EXP(W30*M20)</f>
-        <v>16.177299985535811</v>
-      </c>
-    </row>
-    <row r="39" spans="13:23" x14ac:dyDescent="0.25">
-      <c r="N39">
-        <f>N29*EXP(N30*M21)</f>
-        <v>1.2169952790777689</v>
-      </c>
-      <c r="O39">
-        <f>O29*EXP(O30*M21)</f>
-        <v>1.49596505361615</v>
-      </c>
-      <c r="P39">
-        <f>P29*EXP(P30*M21)</f>
-        <v>1.9256588363021019</v>
-      </c>
-      <c r="Q39">
-        <f>Q29*EXP(Q30*M21)</f>
-        <v>2.4610419526014837</v>
-      </c>
-      <c r="R39">
-        <f>R29*EXP(R30*M21)</f>
-        <v>3.1968841729333604</v>
-      </c>
-      <c r="S39">
-        <f>S29*EXP(S30*M21)</f>
-        <v>4.1808941953570873</v>
-      </c>
-      <c r="T39">
-        <f>T29*EXP(T30*M21)</f>
-        <v>5.5499689024354906</v>
-      </c>
-      <c r="U39">
-        <f>U29*EXP(U30*M21)</f>
-        <v>7.5029839654334047</v>
-      </c>
-      <c r="V39">
-        <f>V29*EXP(V30*M21)</f>
-        <v>10.431082824567785</v>
-      </c>
-      <c r="W39">
-        <f>W29*EXP(W30*M21)</f>
-        <v>14.035525559708466</v>
-      </c>
-    </row>
-    <row r="40" spans="13:23" x14ac:dyDescent="0.25">
-      <c r="N40">
-        <f>N29*EXP(N30*M22)</f>
-        <v>1.1951821967546779</v>
-      </c>
-      <c r="O40">
-        <f>O29*EXP(O30*M22)</f>
-        <v>1.4484589628384403</v>
-      </c>
-      <c r="P40">
-        <f>P29*EXP(P30*M22)</f>
-        <v>1.8059799414141895</v>
-      </c>
-      <c r="Q40">
-        <f>Q29*EXP(Q30*M22)</f>
-        <v>2.2623727825411937</v>
-      </c>
-      <c r="R40">
-        <f>R29*EXP(R30*M22)</f>
-        <v>2.8829726701632561</v>
-      </c>
-      <c r="S40">
-        <f>S29*EXP(S30*M22)</f>
-        <v>3.6951247330257275</v>
-      </c>
-      <c r="T40">
-        <f>T29*EXP(T30*M22)</f>
-        <v>4.8575043023920079</v>
-      </c>
-      <c r="U40">
-        <f>U29*EXP(U30*M22)</f>
-        <v>6.5136976093021</v>
-      </c>
-      <c r="V40">
-        <f>V29*EXP(V30*M22)</f>
-        <v>8.9690615030682146</v>
-      </c>
-      <c r="W40">
-        <f>W29*EXP(W30*M22)</f>
-        <v>12.177308816265048</v>
-      </c>
-    </row>
-    <row r="41" spans="13:23" x14ac:dyDescent="0.25">
-      <c r="N41">
-        <f>N29*EXP(N30*M23)</f>
-        <v>1.1737600860060982</v>
-      </c>
-      <c r="O41">
-        <f>O29*EXP(O30*M23)</f>
-        <v>1.4024614826098372</v>
-      </c>
-      <c r="P41">
-        <f>P29*EXP(P30*M23)</f>
-        <v>1.6937390400127543</v>
-      </c>
-      <c r="Q41">
-        <f>Q29*EXP(Q30*M23)</f>
-        <v>2.0797413070397961</v>
-      </c>
-      <c r="R41">
-        <f>R29*EXP(R30*M23)</f>
-        <v>2.5998850653640835</v>
-      </c>
-      <c r="S41">
-        <f>S29*EXP(S30*M23)</f>
-        <v>3.2657958213296236</v>
-      </c>
-      <c r="T41">
-        <f>T29*EXP(T30*M23)</f>
-        <v>4.2514378841658962</v>
-      </c>
-      <c r="U41">
-        <f>U29*EXP(U30*M23)</f>
-        <v>5.6548510220596029</v>
-      </c>
-      <c r="V41">
-        <f>V29*EXP(V30*M23)</f>
-        <v>7.7119571955036719</v>
-      </c>
-      <c r="W41">
-        <f>W29*EXP(W30*M23)</f>
-        <v>10.565108472487193</v>
-      </c>
-    </row>
-    <row r="42" spans="13:23" x14ac:dyDescent="0.25">
-      <c r="N42">
-        <f>N29*EXP(N30*M24)</f>
-        <v>1.1527219391670966</v>
-      </c>
-      <c r="O42">
-        <f>O29*EXP(O30*M24)</f>
-        <v>1.3579247052673098</v>
-      </c>
-      <c r="P42">
-        <f>P29*EXP(P30*M24)</f>
-        <v>1.5884738638995755</v>
-      </c>
-      <c r="Q42">
-        <f>Q29*EXP(Q30*M24)</f>
-        <v>1.9118528730482744</v>
-      </c>
-      <c r="R42">
-        <f>R29*EXP(R30*M24)</f>
-        <v>2.3445946689187434</v>
-      </c>
-      <c r="S42">
-        <f>S29*EXP(S30*M24)</f>
-        <v>2.886349749249391</v>
-      </c>
-      <c r="T42">
-        <f>T29*EXP(T30*M24)</f>
-        <v>3.720989824758437</v>
-      </c>
-      <c r="U42">
-        <f>U29*EXP(U30*M24)</f>
-        <v>4.9092454086327626</v>
-      </c>
-      <c r="V42">
-        <f>V29*EXP(V30*M24)</f>
-        <v>6.6310487184122184</v>
-      </c>
-      <c r="W42">
-        <f>W29*EXP(W30*M24)</f>
-        <v>9.1663534792128694</v>
-      </c>
-    </row>
-    <row r="43" spans="13:23" x14ac:dyDescent="0.25">
-      <c r="N43">
-        <f>N29*EXP(N30*M25)</f>
-        <v>1.1320608741761631</v>
-      </c>
-      <c r="O43">
-        <f>O29*EXP(O30*M25)</f>
-        <v>1.3148022445107659</v>
-      </c>
-      <c r="P43">
-        <f>P29*EXP(P30*M25)</f>
-        <v>1.4897508746524766</v>
-      </c>
-      <c r="Q43">
-        <f>Q29*EXP(Q30*M25)</f>
-        <v>1.757517339204822</v>
-      </c>
-      <c r="R43">
-        <f>R29*EXP(R30*M25)</f>
-        <v>2.1143719908065952</v>
-      </c>
-      <c r="S43">
-        <f>S29*EXP(S30*M25)</f>
-        <v>2.550990732666246</v>
-      </c>
-      <c r="T43">
-        <f>T29*EXP(T30*M25)</f>
-        <v>3.2567252899361772</v>
-      </c>
-      <c r="U43">
-        <f>U29*EXP(U30*M25)</f>
-        <v>4.2619496761567968</v>
-      </c>
-      <c r="V43">
-        <f>V29*EXP(V30*M25)</f>
-        <v>5.7016404514787462</v>
-      </c>
-      <c r="W43">
-        <f>W29*EXP(W30*M25)</f>
-        <v>7.9527849926653689</v>
-      </c>
-    </row>
-    <row r="44" spans="13:23" x14ac:dyDescent="0.25">
-      <c r="N44">
-        <f>N29*EXP(N30*M26)</f>
-        <v>1.1117701323239286</v>
-      </c>
-      <c r="O44">
-        <f>O29*EXP(O30*M26)</f>
-        <v>1.2730491870904208</v>
-      </c>
-      <c r="P44">
-        <f>P29*EXP(P30*M26)</f>
-        <v>1.3971634780817075</v>
-      </c>
-      <c r="Q44">
-        <f>Q29*EXP(Q30*M26)</f>
-        <v>1.6156406390627127</v>
-      </c>
-      <c r="R44">
-        <f>R29*EXP(R30*M26)</f>
-        <v>1.9067555576969462</v>
-      </c>
-      <c r="S44">
-        <f>S29*EXP(S30*M26)</f>
-        <v>2.2545963876489297</v>
-      </c>
-      <c r="T44">
-        <f>T29*EXP(T30*M26)</f>
-        <v>2.850386621199219</v>
-      </c>
-      <c r="U44">
-        <f>U29*EXP(U30*M26)</f>
-        <v>3.7000014320228916</v>
-      </c>
-      <c r="V44">
-        <f>V29*EXP(V30*M26)</f>
-        <v>4.9024981143137891</v>
-      </c>
-      <c r="W44">
-        <f>W29*EXP(W30*M26)</f>
-        <v>6.8998854651407804</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>